--- a/gd/数值规划/手游数值结构规划.xlsx
+++ b/gd/数值规划/手游数值结构规划.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="1098">
   <si>
     <t>一级属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3405,10 +3405,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>evolutionLevel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>itemID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3474,10 +3470,6 @@
   </si>
   <si>
     <t>金木水火土？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>experience</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3766,18 +3758,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>总力量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>总智力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>人物自身力量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>总速度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3803,10 +3787,6 @@
   </si>
   <si>
     <t>人物自身耐力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备附加力量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4103,36 +4083,6 @@
   </si>
   <si>
     <t>min((max(N+L(lv1-lv2)),60%)+装备附加命中+buff附加命中,100%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>啊。要定义一下怪物速度的范围就ok了(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>攻方</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理想状态为同时，办不到的话可能要随机roll一个</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4297,19 +4247,177 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>cp技能：通过上场妖怪的组合对妖怪属性或大招的加成（待定）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用颜色区分，也可以让孔老想一个新的区分方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害见前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI由耐力和性格决定，耐力决定了休息占总可释放技能的比重，性格决定了怪物使用攻击技能内不同技能的比重</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本层还要规定怪物与宝箱具体的掉落列表ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>决定怪物使用休息技能占所有技能的比重（即修改AI中的释放技能的比例系数）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp技能：通过上场妖怪的组合对妖怪属性或大招的加成（待定）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以用颜色区分，也可以让孔老想一个新的区分方式</t>
+    <t>暂定：定义为每场战斗消耗5点怪物的耐力值，当怪物的耐力值为0时，使用休息技能的比重上升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定玩法:远征，如每小时耐力消耗20，耐力消耗完之后得到的奖励减半</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物等级影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">怪物等级上限不超过人物等级  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物品级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊。要定义一下怪物速度的范围就ok了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>理想状态为同时，办不到的话可能要随机roll一个(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战后回血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recovery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定每次战斗结束后怪物可自行回复的血量（副本层）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI由耐力值与性格共同决定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bag capacity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包容量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">expValueModifyRate </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">recoveryRate </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expValueModifyVal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recoveryVal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战后回血比例修正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验值修正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战后回血值修正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterLevel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterExperience</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>characterLevel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>characterExperience</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子集：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>evolutionId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>evolutionLevel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总力量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物自身力量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备附加力量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4317,23 +4425,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>技能伤害见前</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI由耐力和性格决定，耐力决定了休息占总可释放技能的比重，性格决定了怪物使用攻击技能内不同技能的比重</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本层还要规定怪物与宝箱具体的掉落列表ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂定：定义为每场战斗消耗5点怪物的耐力值，当怪物的耐力值为0时，使用休息技能的比重上升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特定玩法:远征，如每小时耐力消耗20，耐力消耗完之后得到的奖励减半</t>
+    <t>分支最大量为5（最多像伊布一样。。。）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5063,15 +5155,6 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -5109,15 +5192,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5177,6 +5251,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5233,6 +5310,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -5948,11 +6040,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="94298144"/>
-        <c:axId val="94298704"/>
+        <c:axId val="620983232"/>
+        <c:axId val="620983792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94298144"/>
+        <c:axId val="620983232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5994,7 +6086,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94298704"/>
+        <c:crossAx val="620983792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6002,7 +6094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94298704"/>
+        <c:axId val="620983792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6053,7 +6145,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94298144"/>
+        <c:crossAx val="620983232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6664,13 +6756,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6719,13 +6811,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>605790</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6768,13 +6860,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>23254</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>86151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6837,13 +6929,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6905,13 +6997,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>659130</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>672465</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6955,13 +7047,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>91834</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>116631</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7059,13 +7151,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>97154</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7112,13 +7204,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>337185</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>127635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>103432</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7172,13 +7264,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>330000</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>36195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>344606</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>187252</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7232,13 +7324,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>330000</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>135255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>344606</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>88192</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7292,13 +7384,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>335715</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>20955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>308695</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>172012</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7352,13 +7444,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>331904</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>135255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>332635</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>88192</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7412,13 +7504,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>331904</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>5715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>332635</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>156772</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7472,13 +7564,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>169546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>115534</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7522,13 +7614,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>115534</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7572,13 +7664,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>115534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7621,13 +7713,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>115534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7671,13 +7763,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>15241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>477434</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7731,13 +7823,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>485054</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7791,13 +7883,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>485054</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7851,7 +7943,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>606252</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>41448</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="311496" cy="320040"/>
@@ -7904,13 +7996,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>151729</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7956,13 +8048,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>151729</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8008,13 +8100,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>36195</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>24765</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8077,13 +8169,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>136066</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>128197</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8137,13 +8229,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>411822</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>128197</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8197,13 +8289,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>151729</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8249,13 +8341,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>136066</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>151729</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>151729</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8299,13 +8391,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>25777</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>25792</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8383,13 +8475,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>75332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>101458</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8442,13 +8534,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>115534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>337185</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>88395</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8489,13 +8581,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>88395</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8536,13 +8628,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>6949</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>330000</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>88395</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8583,13 +8675,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>88395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>330000</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>111724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8630,13 +8722,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>88395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>335715</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>201259</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8677,13 +8769,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>88395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>331904</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>111724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8724,13 +8816,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>88395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>331904</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>186019</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8771,13 +8863,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>14180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>7929</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>366012</xdr:colOff>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>192616</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8814,13 +8906,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>660000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>180000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>667500</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>157500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8866,13 +8958,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>645000</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>52500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>652500</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>165000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8918,13 +9010,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>7500</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>112500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8970,13 +9062,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>555000</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>60000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>15000</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>172500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9022,13 +9114,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>652500</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>7500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>660000</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>120000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9074,13 +9166,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>645000</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>52500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>652500</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>165000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9126,13 +9218,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>570000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>90000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>60000</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>30000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9187,13 +9279,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>587400</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>202500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>37500</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>22500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9248,13 +9340,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>502500</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>45000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>97500</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>22500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9309,13 +9401,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>562500</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>22500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>97500</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>30000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9366,6 +9458,44 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>7664</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>437857</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>106429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4177500" y="13657664"/>
+          <a:ext cx="4412857" cy="2408765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9374,15 +9504,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>52686</xdr:rowOff>
+      <xdr:rowOff>6641</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>564928</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>184149</xdr:rowOff>
+      <xdr:colOff>304578</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9399,8 +9529,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="682625" y="4034136"/>
-          <a:ext cx="10175653" cy="5789313"/>
+          <a:off x="698500" y="3988091"/>
+          <a:ext cx="9899428" cy="5632158"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17322,18 +17452,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AB213"/>
+  <dimension ref="A2:AB221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="133" workbookViewId="0">
-      <selection activeCell="C220" sqref="C220"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="34.875" style="113" customWidth="1"/>
+    <col min="1" max="1" width="34.875" style="110" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="2"/>
     <col min="3" max="3" width="23.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="2"/>
+    <col min="4" max="4" width="13" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.875" style="2"/>
   </cols>
@@ -17386,8 +17516,8 @@
       <c r="B5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>75</v>
+      <c r="C5" s="24" t="s">
+        <v>1084</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>287</v>
@@ -17414,10 +17544,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>893</v>
+        <v>944</v>
+      </c>
+      <c r="C7" s="132" t="s">
+        <v>1085</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>788</v>
@@ -17443,8 +17573,8 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="114" t="s">
-        <v>906</v>
+      <c r="A9" s="111" t="s">
+        <v>904</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>288</v>
@@ -17453,7 +17583,7 @@
         <v>289</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E9" s="3"/>
       <c r="H9" s="3"/>
@@ -17462,8 +17592,8 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="119" t="s">
-        <v>994</v>
+      <c r="A10" s="116" t="s">
+        <v>989</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -17478,7 +17608,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>1068</v>
+        <v>1059</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>301</v>
@@ -17557,15 +17687,15 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>1069</v>
+        <v>1096</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
@@ -17573,101 +17703,80 @@
       <c r="L17" s="24"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C18" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="G18" s="5"/>
+      <c r="C18" s="24" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C19" s="2" t="s">
+        <v>876</v>
+      </c>
       <c r="D19" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D20" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="D21" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C23" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="D24" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="D25" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C21" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D22" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D23" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C24" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D25" s="14" t="s">
-        <v>297</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D26" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C27" s="2" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="D28" s="2" t="s">
-        <v>888</v>
+      <c r="D28" s="14" t="s">
+        <v>297</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -17676,190 +17785,158 @@
         <v>874</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B30" s="2" t="s">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C31" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="D32" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="D33" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B34" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B32" s="24" t="s">
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B36" s="24" t="s">
+        <v>945</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>947</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>949</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>950</v>
-      </c>
-      <c r="E32" s="24"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B34" s="47" t="s">
+      <c r="D36" s="24" t="s">
+        <v>948</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B38" s="47" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B35" s="2" t="s">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B39" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B36" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B37" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>960</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B38" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="49"/>
-      <c r="R40" s="49"/>
-      <c r="S40" s="49"/>
-      <c r="T40" s="49"/>
-      <c r="U40" s="49"/>
+      <c r="B40" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A41" s="146"/>
-      <c r="B41" s="47" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="33" x14ac:dyDescent="0.15">
-      <c r="A42" s="114" t="s">
-        <v>928</v>
-      </c>
+      <c r="B41" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>958</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
-        <v>1048</v>
+        <v>893</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>266</v>
+        <v>894</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1049</v>
+        <v>895</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="113" t="s">
-        <v>944</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B44" s="49"/>
       <c r="C44" s="49"/>
       <c r="D44" s="49"/>
       <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
       <c r="H44" s="49"/>
       <c r="I44" s="49"/>
       <c r="J44" s="49"/>
@@ -17876,79 +17953,74 @@
       <c r="U44" s="49"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B46" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="A45" s="140"/>
+      <c r="B45" s="47" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="33" x14ac:dyDescent="0.15">
+      <c r="A46" s="111" t="s">
+        <v>926</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="110" t="s">
+        <v>942</v>
+      </c>
+      <c r="C47" s="14"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="49"/>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="49"/>
+      <c r="R48" s="49"/>
+      <c r="S48" s="49"/>
+      <c r="T48" s="49"/>
+      <c r="U48" s="49"/>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="B49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -17960,13 +18032,13 @@
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -17983,26 +18055,26 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B52" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
+      <c r="B52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -18010,12 +18082,12 @@
       <c r="L52" s="3"/>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B53" s="12"/>
+      <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -18023,30 +18095,28 @@
       <c r="L53" s="3"/>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B54" s="13" t="s">
-        <v>12</v>
+      <c r="B54" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B55" s="13"/>
+      <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="13"/>
+      <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -18057,18 +18127,18 @@
       <c r="L55" s="3"/>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B56" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>989</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="B56" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -18076,171 +18146,241 @@
       <c r="L56" s="3"/>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B57" s="3"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B58" s="49"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="49"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="49"/>
-      <c r="O58" s="49"/>
-      <c r="P58" s="49"/>
-      <c r="Q58" s="49"/>
-      <c r="R58" s="49"/>
-      <c r="S58" s="49"/>
-      <c r="T58" s="49"/>
-      <c r="U58" s="49"/>
+      <c r="B58" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="13"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B61" s="3"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B62" s="24" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C62" s="161" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B63" s="49"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="49"/>
+      <c r="R63" s="49"/>
+      <c r="S63" s="49"/>
+      <c r="T63" s="49"/>
+      <c r="U63" s="49"/>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B64" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B60" s="2" t="s">
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B65" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-    </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B62" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B63" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B64" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B65" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="6" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="R65" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B66" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="6" t="s">
-        <v>1058</v>
-      </c>
+      <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B69" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B70" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="R70" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B72" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B68" s="24" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B69" s="24" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D72" s="2" t="s">
+        <v>1052</v>
+      </c>
       <c r="F72" s="4"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="F73" s="4"/>
+      <c r="B73" s="24" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24" t="s">
+        <v>1056</v>
+      </c>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="F74" s="4"/>
+      <c r="B74" s="24" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24" t="s">
+        <v>1056</v>
+      </c>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.15">
       <c r="F75" s="4"/>
@@ -18323,546 +18463,357 @@
     <row r="101" spans="2:23" x14ac:dyDescent="0.15">
       <c r="F101" s="4"/>
     </row>
+    <row r="102" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="F102" s="4"/>
+    </row>
     <row r="103" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="E103" s="105"/>
-      <c r="F103" s="105"/>
-      <c r="G103" s="105"/>
-      <c r="H103" s="104"/>
-      <c r="I103" s="106"/>
-      <c r="J103" s="106"/>
-      <c r="K103" s="106"/>
-      <c r="L103" s="104"/>
-      <c r="M103" s="104"/>
-      <c r="N103" s="104"/>
-      <c r="O103" s="104"/>
-      <c r="P103" s="104"/>
-      <c r="Q103" s="104"/>
-      <c r="R103" s="104"/>
-      <c r="S103" s="104"/>
-      <c r="T103" s="104"/>
-      <c r="U103" s="104"/>
-      <c r="V103" s="104"/>
-      <c r="W103" s="104"/>
+      <c r="F103" s="4"/>
     </row>
     <row r="104" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B104" s="1" t="s">
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="F106" s="4"/>
+    </row>
+    <row r="108" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="E108" s="105"/>
+      <c r="F108" s="105"/>
+      <c r="G108" s="105"/>
+      <c r="H108" s="104"/>
+      <c r="I108" s="106"/>
+      <c r="J108" s="106"/>
+      <c r="K108" s="106"/>
+      <c r="L108" s="104"/>
+      <c r="M108" s="104"/>
+      <c r="N108" s="104"/>
+      <c r="O108" s="104"/>
+      <c r="P108" s="104"/>
+      <c r="Q108" s="104"/>
+      <c r="R108" s="104"/>
+      <c r="S108" s="104"/>
+      <c r="T108" s="104"/>
+      <c r="U108" s="104"/>
+      <c r="V108" s="104"/>
+      <c r="W108" s="104"/>
+    </row>
+    <row r="109" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B109" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="S106" s="2">
+    <row r="111" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="S111" s="2">
         <v>1</v>
       </c>
-      <c r="T106" s="2" t="s">
+      <c r="T111" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="108" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="S108" s="2">
+    <row r="113" spans="19:20" x14ac:dyDescent="0.15">
+      <c r="S113" s="2">
         <v>2</v>
       </c>
-      <c r="T108" s="2" t="s">
+      <c r="T113" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="S110" s="2">
+    <row r="115" spans="19:20" x14ac:dyDescent="0.15">
+      <c r="S115" s="2">
         <v>3</v>
       </c>
-      <c r="T110" s="2" t="s">
+      <c r="T115" s="2" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="112" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="S112" s="2">
+    <row r="117" spans="19:20" x14ac:dyDescent="0.15">
+      <c r="S117" s="2">
         <v>4</v>
       </c>
-      <c r="T112" s="2" t="s">
+      <c r="T117" s="2" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B153" s="1" t="s">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B158" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C154" s="2" t="s">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C159" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C155" s="2" t="s">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C160" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B157" s="1" t="s">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B162" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B158" s="1"/>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C159" s="2" t="s">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C164" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D164" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C160" s="2" t="s">
+    <row r="165" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C165" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D165" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C161" s="10" t="s">
+    <row r="166" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C166" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D166" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C162" s="11" t="s">
+    <row r="167" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C167" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D167" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C163" s="3" t="s">
+    <row r="168" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C168" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D168" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C164" s="3" t="s">
+    <row r="169" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C169" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D164" s="12" t="s">
+      <c r="D169" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="G164" s="3"/>
-      <c r="I164" s="3"/>
-    </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C165" s="3" t="s">
+      <c r="G169" s="3"/>
+      <c r="I169" s="3"/>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C170" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D165" s="13" t="s">
+      <c r="D170" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C166" s="2" t="s">
+    <row r="171" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C171" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D171" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C167" s="2" t="s">
+    <row r="172" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C172" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D172" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G167" s="3"/>
-      <c r="I167" s="13"/>
-    </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C168" s="2" t="s">
+      <c r="G172" s="3"/>
+      <c r="I172" s="13"/>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C173" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D173" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C169" s="24" t="s">
+    <row r="174" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C174" s="161" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D174" s="24" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C175" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D169" s="24" t="s">
+      <c r="D175" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="E169" s="29"/>
-      <c r="F169" s="29"/>
-      <c r="G169" s="29"/>
-      <c r="H169" s="29"/>
-      <c r="I169" s="29"/>
-      <c r="J169" s="29"/>
-    </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C170" s="24" t="s">
+      <c r="E175" s="29"/>
+      <c r="F175" s="29"/>
+      <c r="G175" s="29"/>
+      <c r="H175" s="29"/>
+      <c r="I175" s="29"/>
+      <c r="J175" s="29"/>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C176" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D170" s="24" t="s">
+      <c r="D176" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E170" s="29" t="s">
+      <c r="E176" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="F170" s="29"/>
-      <c r="G170" s="29"/>
-      <c r="H170" s="29"/>
-      <c r="I170" s="29"/>
-      <c r="J170" s="29"/>
-    </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C171" s="24" t="s">
+      <c r="F176" s="29"/>
+      <c r="G176" s="29"/>
+      <c r="H176" s="29"/>
+      <c r="I176" s="29"/>
+      <c r="J176" s="29"/>
+    </row>
+    <row r="177" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C177" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D171" s="24" t="s">
+      <c r="D177" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E171" s="29"/>
-      <c r="F171" s="29"/>
-      <c r="G171" s="29"/>
-      <c r="H171" s="29"/>
-      <c r="I171" s="29"/>
-      <c r="J171" s="29"/>
-    </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C172" s="24" t="s">
+      <c r="E177" s="29"/>
+      <c r="F177" s="29"/>
+      <c r="G177" s="29"/>
+      <c r="H177" s="29"/>
+      <c r="I177" s="29"/>
+      <c r="J177" s="29"/>
+    </row>
+    <row r="178" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C178" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D172" s="24" t="s">
+      <c r="D178" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E172" s="29" t="s">
+      <c r="E178" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="F172" s="29"/>
-      <c r="G172" s="29"/>
-      <c r="H172" s="29"/>
-      <c r="I172" s="29"/>
-      <c r="J172" s="29"/>
-    </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B174" s="1" t="s">
+      <c r="F178" s="29"/>
+      <c r="G178" s="29"/>
+      <c r="H178" s="29"/>
+      <c r="I178" s="29"/>
+      <c r="J178" s="29"/>
+    </row>
+    <row r="180" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B180" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J174" s="5"/>
-      <c r="K174" s="5"/>
-    </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C175" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J175" s="5"/>
-      <c r="K175" s="5"/>
-    </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C176" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="177" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="C177" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="178" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="C178" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="K178" s="15"/>
-    </row>
-    <row r="179" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="C179" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="180" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="C180" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>307</v>
-      </c>
+      <c r="J180" s="5"/>
+      <c r="K180" s="5"/>
     </row>
     <row r="181" spans="2:28" x14ac:dyDescent="0.15">
       <c r="C181" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J181" s="5"/>
+      <c r="K181" s="5"/>
+    </row>
+    <row r="182" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C182" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C183" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="184" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C184" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K184" s="15"/>
+    </row>
+    <row r="185" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C185" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="186" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C186" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="187" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C187" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D181" s="15" t="s">
+      <c r="D187" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="E181" s="15"/>
-      <c r="G181" s="15"/>
-      <c r="H181" s="14"/>
-      <c r="I181" s="14"/>
-    </row>
-    <row r="182" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B182" s="147" t="s">
+      <c r="E187" s="15"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="14"/>
+      <c r="I187" s="14"/>
+    </row>
+    <row r="188" spans="2:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B188" s="142" t="s">
         <v>104</v>
       </c>
-      <c r="C182" s="16" t="s">
+      <c r="C188" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D182" s="17" t="s">
+      <c r="D188" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E182" s="109"/>
-    </row>
-    <row r="183" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B183" s="148"/>
-      <c r="C183" s="19" t="s">
+      <c r="E188" s="18"/>
+    </row>
+    <row r="189" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B189" s="143"/>
+      <c r="C189" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D183" s="20" t="s">
+      <c r="D189" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="E183" s="110"/>
-    </row>
-    <row r="184" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B184" s="148"/>
-      <c r="C184" s="19" t="s">
+      <c r="E189" s="18"/>
+    </row>
+    <row r="190" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B190" s="143"/>
+      <c r="C190" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D184" s="20" t="s">
+      <c r="D190" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E184" s="111"/>
-      <c r="F184" s="6"/>
-      <c r="G184" s="6"/>
-      <c r="H184" s="6"/>
-      <c r="I184" s="6"/>
-      <c r="J184" s="6"/>
-      <c r="K184" s="6"/>
-      <c r="L184" s="6"/>
-      <c r="M184" s="6"/>
-      <c r="N184" s="6"/>
-      <c r="O184" s="6"/>
-      <c r="P184" s="6"/>
-      <c r="Q184" s="6"/>
-      <c r="R184" s="6"/>
-      <c r="S184" s="6"/>
-      <c r="T184" s="6"/>
-      <c r="U184" s="6"/>
-      <c r="V184" s="6"/>
-      <c r="W184" s="6"/>
-      <c r="X184" s="6"/>
-      <c r="Y184" s="6"/>
-      <c r="Z184" s="6"/>
-      <c r="AA184" s="6"/>
-      <c r="AB184" s="6"/>
-    </row>
-    <row r="185" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B185" s="148"/>
-      <c r="C185" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D185" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="E185" s="111"/>
-      <c r="F185" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G185" s="6"/>
-      <c r="H185" s="6"/>
-      <c r="I185" s="6"/>
-      <c r="J185" s="6"/>
-      <c r="K185" s="6"/>
-      <c r="L185" s="6"/>
-      <c r="M185" s="6"/>
-      <c r="N185" s="6"/>
-      <c r="O185" s="6"/>
-      <c r="P185" s="6"/>
-      <c r="Q185" s="6"/>
-      <c r="R185" s="6"/>
-      <c r="S185" s="6"/>
-      <c r="T185" s="6"/>
-      <c r="U185" s="6"/>
-      <c r="V185" s="6"/>
-      <c r="W185" s="6"/>
-      <c r="X185" s="6"/>
-      <c r="Y185" s="6"/>
-      <c r="Z185" s="6"/>
-      <c r="AA185" s="6"/>
-      <c r="AB185" s="6"/>
-    </row>
-    <row r="186" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B186" s="148"/>
-      <c r="C186" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D186" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="E186" s="111"/>
-      <c r="F186" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G186" s="6"/>
-      <c r="H186" s="6"/>
-      <c r="I186" s="6"/>
-      <c r="J186" s="6"/>
-      <c r="K186" s="6"/>
-      <c r="L186" s="6"/>
-      <c r="M186" s="6"/>
-      <c r="N186" s="6"/>
-      <c r="O186" s="6"/>
-      <c r="P186" s="6"/>
-      <c r="Q186" s="6"/>
-      <c r="R186" s="6"/>
-      <c r="S186" s="6"/>
-      <c r="T186" s="6"/>
-      <c r="U186" s="6"/>
-      <c r="V186" s="6"/>
-      <c r="W186" s="6"/>
-      <c r="X186" s="6"/>
-      <c r="Y186" s="6"/>
-      <c r="Z186" s="6"/>
-      <c r="AA186" s="6"/>
-      <c r="AB186" s="6"/>
-    </row>
-    <row r="187" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B187" s="148"/>
-      <c r="C187" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D187" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="E187" s="111"/>
-      <c r="F187" s="6"/>
-      <c r="G187" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H187" s="6"/>
-      <c r="I187" s="6"/>
-      <c r="J187" s="6"/>
-      <c r="K187" s="6"/>
-      <c r="L187" s="6"/>
-      <c r="M187" s="6"/>
-      <c r="N187" s="6"/>
-      <c r="O187" s="6"/>
-      <c r="P187" s="6"/>
-      <c r="Q187" s="6"/>
-      <c r="R187" s="6"/>
-      <c r="S187" s="6"/>
-      <c r="T187" s="6"/>
-      <c r="U187" s="6"/>
-      <c r="V187" s="6"/>
-      <c r="W187" s="6"/>
-      <c r="X187" s="6"/>
-      <c r="Y187" s="6"/>
-      <c r="Z187" s="6"/>
-      <c r="AA187" s="6"/>
-      <c r="AB187" s="6"/>
-    </row>
-    <row r="188" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B188" s="148"/>
-      <c r="C188" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D188" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="E188" s="111"/>
-      <c r="F188" s="6"/>
-      <c r="G188" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="H188" s="6"/>
-      <c r="I188" s="6"/>
-      <c r="J188" s="6"/>
-      <c r="K188" s="6"/>
-      <c r="L188" s="6"/>
-      <c r="M188" s="6"/>
-      <c r="N188" s="6"/>
-      <c r="O188" s="6"/>
-      <c r="P188" s="6"/>
-      <c r="Q188" s="6"/>
-      <c r="R188" s="6"/>
-      <c r="S188" s="6"/>
-      <c r="T188" s="6"/>
-      <c r="U188" s="6"/>
-      <c r="V188" s="6"/>
-      <c r="W188" s="6"/>
-      <c r="X188" s="6"/>
-      <c r="Y188" s="6"/>
-      <c r="Z188" s="6"/>
-      <c r="AA188" s="6"/>
-      <c r="AB188" s="6"/>
-    </row>
-    <row r="189" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B189" s="148"/>
-      <c r="C189" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D189" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="E189" s="111"/>
-      <c r="F189" s="28"/>
-      <c r="G189" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H189" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="I189" s="6"/>
-      <c r="J189" s="6"/>
-      <c r="K189" s="6"/>
-      <c r="L189" s="6"/>
-      <c r="M189" s="6"/>
-      <c r="N189" s="6"/>
-      <c r="O189" s="6"/>
-      <c r="P189" s="6"/>
-      <c r="Q189" s="6"/>
-      <c r="R189" s="6"/>
-      <c r="S189" s="6"/>
-      <c r="T189" s="6"/>
-      <c r="U189" s="6"/>
-      <c r="V189" s="6"/>
-      <c r="W189" s="6"/>
-      <c r="X189" s="6"/>
-      <c r="Y189" s="6"/>
-      <c r="Z189" s="6"/>
-      <c r="AA189" s="6"/>
-      <c r="AB189" s="6"/>
-    </row>
-    <row r="190" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B190" s="148"/>
-      <c r="C190" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D190" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="E190" s="111"/>
+      <c r="E190" s="28"/>
       <c r="F190" s="6"/>
-      <c r="G190" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="G190" s="6"/>
       <c r="H190" s="6"/>
       <c r="I190" s="6"/>
       <c r="J190" s="6"/>
@@ -18886,15 +18837,17 @@
       <c r="AB190" s="6"/>
     </row>
     <row r="191" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B191" s="148"/>
+      <c r="B191" s="143"/>
       <c r="C191" s="19" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D191" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="E191" s="111"/>
-      <c r="F191" s="6"/>
+        <v>149</v>
+      </c>
+      <c r="E191" s="28"/>
+      <c r="F191" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="G191" s="6"/>
       <c r="H191" s="6"/>
       <c r="I191" s="6"/>
@@ -18919,16 +18872,16 @@
       <c r="AB191" s="6"/>
     </row>
     <row r="192" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B192" s="148"/>
+      <c r="B192" s="143"/>
       <c r="C192" s="19" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D192" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E192" s="111"/>
+        <v>151</v>
+      </c>
+      <c r="E192" s="28"/>
       <c r="F192" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
@@ -18954,17 +18907,17 @@
       <c r="AB192" s="6"/>
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="B193" s="148"/>
+      <c r="B193" s="143"/>
       <c r="C193" s="19" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D193" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="E193" s="111"/>
+        <v>161</v>
+      </c>
+      <c r="E193" s="28"/>
       <c r="F193" s="6"/>
       <c r="G193" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
@@ -18989,21 +18942,19 @@
       <c r="AB193" s="6"/>
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="B194" s="148"/>
+      <c r="B194" s="143"/>
       <c r="C194" s="19" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D194" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="E194" s="111"/>
+        <v>162</v>
+      </c>
+      <c r="E194" s="28"/>
       <c r="F194" s="6"/>
       <c r="G194" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H194" s="6" t="s">
-        <v>247</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="H194" s="6"/>
       <c r="I194" s="6"/>
       <c r="J194" s="6"/>
       <c r="K194" s="6"/>
@@ -19026,212 +18977,452 @@
       <c r="AB194" s="6"/>
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="B195" s="148"/>
+      <c r="B195" s="143"/>
       <c r="C195" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D195" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E195" s="28"/>
+      <c r="F195" s="28"/>
+      <c r="G195" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H195" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="I195" s="6"/>
+      <c r="J195" s="6"/>
+      <c r="K195" s="6"/>
+      <c r="L195" s="6"/>
+      <c r="M195" s="6"/>
+      <c r="N195" s="6"/>
+      <c r="O195" s="6"/>
+      <c r="P195" s="6"/>
+      <c r="Q195" s="6"/>
+      <c r="R195" s="6"/>
+      <c r="S195" s="6"/>
+      <c r="T195" s="6"/>
+      <c r="U195" s="6"/>
+      <c r="V195" s="6"/>
+      <c r="W195" s="6"/>
+      <c r="X195" s="6"/>
+      <c r="Y195" s="6"/>
+      <c r="Z195" s="6"/>
+      <c r="AA195" s="6"/>
+      <c r="AB195" s="6"/>
+    </row>
+    <row r="196" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B196" s="143"/>
+      <c r="C196" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D196" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E196" s="28"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H196" s="6"/>
+      <c r="I196" s="6"/>
+      <c r="J196" s="6"/>
+      <c r="K196" s="6"/>
+      <c r="L196" s="6"/>
+      <c r="M196" s="6"/>
+      <c r="N196" s="6"/>
+      <c r="O196" s="6"/>
+      <c r="P196" s="6"/>
+      <c r="Q196" s="6"/>
+      <c r="R196" s="6"/>
+      <c r="S196" s="6"/>
+      <c r="T196" s="6"/>
+      <c r="U196" s="6"/>
+      <c r="V196" s="6"/>
+      <c r="W196" s="6"/>
+      <c r="X196" s="6"/>
+      <c r="Y196" s="6"/>
+      <c r="Z196" s="6"/>
+      <c r="AA196" s="6"/>
+      <c r="AB196" s="6"/>
+    </row>
+    <row r="197" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B197" s="143"/>
+      <c r="C197" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D197" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E197" s="28"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
+      <c r="I197" s="6"/>
+      <c r="J197" s="6"/>
+      <c r="K197" s="6"/>
+      <c r="L197" s="6"/>
+      <c r="M197" s="6"/>
+      <c r="N197" s="6"/>
+      <c r="O197" s="6"/>
+      <c r="P197" s="6"/>
+      <c r="Q197" s="6"/>
+      <c r="R197" s="6"/>
+      <c r="S197" s="6"/>
+      <c r="T197" s="6"/>
+      <c r="U197" s="6"/>
+      <c r="V197" s="6"/>
+      <c r="W197" s="6"/>
+      <c r="X197" s="6"/>
+      <c r="Y197" s="6"/>
+      <c r="Z197" s="6"/>
+      <c r="AA197" s="6"/>
+      <c r="AB197" s="6"/>
+    </row>
+    <row r="198" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B198" s="143"/>
+      <c r="C198" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D198" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E198" s="28"/>
+      <c r="F198" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="6"/>
+      <c r="K198" s="6"/>
+      <c r="L198" s="6"/>
+      <c r="M198" s="6"/>
+      <c r="N198" s="6"/>
+      <c r="O198" s="6"/>
+      <c r="P198" s="6"/>
+      <c r="Q198" s="6"/>
+      <c r="R198" s="6"/>
+      <c r="S198" s="6"/>
+      <c r="T198" s="6"/>
+      <c r="U198" s="6"/>
+      <c r="V198" s="6"/>
+      <c r="W198" s="6"/>
+      <c r="X198" s="6"/>
+      <c r="Y198" s="6"/>
+      <c r="Z198" s="6"/>
+      <c r="AA198" s="6"/>
+      <c r="AB198" s="6"/>
+    </row>
+    <row r="199" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B199" s="143"/>
+      <c r="C199" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D199" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E199" s="28"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H199" s="6"/>
+      <c r="I199" s="6"/>
+      <c r="J199" s="6"/>
+      <c r="K199" s="6"/>
+      <c r="L199" s="6"/>
+      <c r="M199" s="6"/>
+      <c r="N199" s="6"/>
+      <c r="O199" s="6"/>
+      <c r="P199" s="6"/>
+      <c r="Q199" s="6"/>
+      <c r="R199" s="6"/>
+      <c r="S199" s="6"/>
+      <c r="T199" s="6"/>
+      <c r="U199" s="6"/>
+      <c r="V199" s="6"/>
+      <c r="W199" s="6"/>
+      <c r="X199" s="6"/>
+      <c r="Y199" s="6"/>
+      <c r="Z199" s="6"/>
+      <c r="AA199" s="6"/>
+      <c r="AB199" s="6"/>
+    </row>
+    <row r="200" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B200" s="143"/>
+      <c r="C200" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D200" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E200" s="28"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H200" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="I200" s="6"/>
+      <c r="J200" s="6"/>
+      <c r="K200" s="6"/>
+      <c r="L200" s="6"/>
+      <c r="M200" s="6"/>
+      <c r="N200" s="6"/>
+      <c r="O200" s="6"/>
+      <c r="P200" s="6"/>
+      <c r="Q200" s="6"/>
+      <c r="R200" s="6"/>
+      <c r="S200" s="6"/>
+      <c r="T200" s="6"/>
+      <c r="U200" s="6"/>
+      <c r="V200" s="6"/>
+      <c r="W200" s="6"/>
+      <c r="X200" s="6"/>
+      <c r="Y200" s="6"/>
+      <c r="Z200" s="6"/>
+      <c r="AA200" s="6"/>
+      <c r="AB200" s="6"/>
+    </row>
+    <row r="201" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B201" s="143"/>
+      <c r="C201" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D195" s="20" t="s">
+      <c r="D201" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="E195" s="110"/>
-      <c r="F195" s="5"/>
-      <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
-      <c r="I195" s="5"/>
-    </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="B196" s="148"/>
-      <c r="C196" s="19" t="s">
+      <c r="E201" s="18"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+    </row>
+    <row r="202" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B202" s="143"/>
+      <c r="C202" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D196" s="20" t="s">
+      <c r="D202" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E196" s="110"/>
-    </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A197" s="114" t="s">
-        <v>914</v>
-      </c>
-      <c r="B197" s="148"/>
-      <c r="C197" s="20" t="s">
-        <v>963</v>
-      </c>
-      <c r="D197" s="20" t="s">
-        <v>964</v>
-      </c>
-      <c r="E197" s="110"/>
-      <c r="I197" s="5"/>
-    </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A198" s="113" t="s">
-        <v>929</v>
-      </c>
-      <c r="B198" s="148"/>
-      <c r="C198" s="124" t="s">
+      <c r="E202" s="18"/>
+    </row>
+    <row r="203" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A203" s="111" t="s">
+        <v>912</v>
+      </c>
+      <c r="B203" s="143"/>
+      <c r="C203" s="20" t="s">
+        <v>961</v>
+      </c>
+      <c r="D203" s="20" t="s">
+        <v>962</v>
+      </c>
+      <c r="E203" s="18"/>
+      <c r="I203" s="5"/>
+    </row>
+    <row r="204" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A204" s="110" t="s">
+        <v>927</v>
+      </c>
+      <c r="B204" s="143"/>
+      <c r="C204" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="D198" s="124" t="s">
+      <c r="D204" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="E198" s="125"/>
-      <c r="F198" s="3" t="s">
+      <c r="E204" s="125"/>
+      <c r="F204" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
-    </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="B199" s="148"/>
-      <c r="C199" s="124" t="s">
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+    </row>
+    <row r="205" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B205" s="143"/>
+      <c r="C205" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="D199" s="124" t="s">
+      <c r="D205" s="121" t="s">
         <v>126</v>
       </c>
-      <c r="E199" s="125"/>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
-    </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="B200" s="148"/>
-      <c r="C200" s="124" t="s">
-        <v>127</v>
-      </c>
-      <c r="D200" s="124" t="s">
+      <c r="E205" s="125"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
+    </row>
+    <row r="206" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B206" s="143"/>
+      <c r="C206" s="121" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D206" s="121" t="s">
         <v>128</v>
       </c>
-      <c r="E200" s="125"/>
-      <c r="F200" s="3" t="s">
+      <c r="E206" s="125"/>
+      <c r="F206" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-    </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="B201" s="149"/>
-      <c r="C201" s="126" t="s">
-        <v>130</v>
-      </c>
-      <c r="D201" s="126" t="s">
-        <v>131</v>
-      </c>
-      <c r="E201" s="127"/>
-      <c r="F201" s="3"/>
-      <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
-    </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="C202" s="2" t="s">
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+    </row>
+    <row r="207" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B207" s="143"/>
+      <c r="C207" s="162" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D207" s="162" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E207" s="125"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="3"/>
+    </row>
+    <row r="208" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B208" s="143"/>
+      <c r="C208" s="163" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D208" s="165" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E208" s="125"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="3"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B209" s="144"/>
+      <c r="C209" s="164" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D209" s="27" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E209" s="125"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="3"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C210" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="D210" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E202" s="6" t="s">
+      <c r="E210" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F202" s="6"/>
-      <c r="G202" s="6"/>
-      <c r="H202" s="6"/>
-      <c r="I202" s="6"/>
-      <c r="J202" s="6"/>
-    </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="C203" s="2" t="s">
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
+      <c r="H210" s="6"/>
+      <c r="I210" s="6"/>
+      <c r="J210" s="6"/>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C211" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D203" s="2" t="s">
+      <c r="D211" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E203" s="6" t="s">
+      <c r="E211" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A204" s="129"/>
-      <c r="B204" s="128"/>
-      <c r="C204" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="E204" s="18"/>
-    </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A205" s="129"/>
-      <c r="B205" s="128"/>
-      <c r="C205" s="23" t="s">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A212" s="123"/>
+      <c r="B212" s="122"/>
+      <c r="C212" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="E212" s="18"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A213" s="123"/>
+      <c r="B213" s="122"/>
+      <c r="C213" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="D205" s="18" t="s">
+      <c r="D213" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="E205" s="18"/>
-    </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A206" s="129"/>
-      <c r="B206" s="128"/>
-      <c r="C206" s="23"/>
-      <c r="D206" s="18"/>
-      <c r="E206" s="18"/>
-    </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="B207" s="1" t="s">
+      <c r="E213" s="18"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A214" s="123"/>
+      <c r="B214" s="122"/>
+      <c r="C214" s="23"/>
+      <c r="D214" s="18"/>
+      <c r="E214" s="18"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B215" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="C208" s="2" t="s">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C216" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C209" s="2" t="s">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C217" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D217" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C210" s="2" t="s">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C218" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D218" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C211" s="2" t="s">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C219" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D211" s="2" t="s">
+      <c r="D219" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C212" s="2" t="s">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C220" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D212" s="2" t="s">
+      <c r="D220" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B213" s="21"/>
-      <c r="C213" s="123" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E213" s="18"/>
-      <c r="F213" s="18"/>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B221" s="21"/>
+      <c r="C221" s="120" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E221" s="18"/>
+      <c r="F221" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B182:B201"/>
+    <mergeCell ref="B188:B209"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19242,15 +19433,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ88"/>
+  <dimension ref="A1:AQ103"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="127" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="A79" zoomScale="127" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="41.875" style="113" customWidth="1"/>
+    <col min="1" max="1" width="41.875" style="110" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
     <col min="3" max="3" width="21" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
@@ -19258,50 +19449,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="128" t="s">
         <v>175</v>
       </c>
       <c r="C1" s="24"/>
-      <c r="D1" s="135"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="130" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="130" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="136" t="s">
+      <c r="D2" s="130" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="136" t="s">
+      <c r="E2" s="130" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="136" t="s">
+      <c r="F2" s="130" t="s">
         <v>181</v>
       </c>
-      <c r="G2" s="137" t="s">
+      <c r="G2" s="131" t="s">
         <v>182</v>
       </c>
-      <c r="H2" s="137" t="s">
+      <c r="H2" s="131" t="s">
         <v>183</v>
       </c>
-      <c r="I2" s="132"/>
-      <c r="J2" s="133"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="127"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="24" t="s">
-        <v>966</v>
+        <v>1093</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>968</v>
+        <v>1094</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>976</v>
+        <v>1095</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
@@ -19310,13 +19501,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="24" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>968</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>972</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>977</v>
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
@@ -19325,13 +19516,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" s="24" t="s">
+        <v>965</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>969</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="24" t="s">
         <v>973</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>978</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
@@ -19340,14 +19531,14 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="132" t="s">
+        <v>966</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>970</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="D6" s="24" t="s">
         <v>974</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>979</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
@@ -19357,13 +19548,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="29" t="s">
+        <v>967</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>971</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="D7" s="24" t="s">
         <v>975</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>980</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -19372,14 +19563,14 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="124" t="s">
         <v>176</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D8" s="130" t="s">
-        <v>981</v>
+      <c r="D8" s="124" t="s">
+        <v>976</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -19388,7 +19579,7 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="124" t="s">
         <v>189</v>
       </c>
       <c r="C9" s="26" t="s">
@@ -19404,10 +19595,10 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="33" x14ac:dyDescent="0.15">
-      <c r="A10" s="114" t="s">
-        <v>909</v>
-      </c>
-      <c r="B10" s="130" t="s">
+      <c r="A10" s="111" t="s">
+        <v>907</v>
+      </c>
+      <c r="B10" s="124" t="s">
         <v>192</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -19423,8 +19614,8 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="115"/>
-      <c r="B11" s="130" t="s">
+      <c r="A11" s="112"/>
+      <c r="B11" s="124" t="s">
         <v>196</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -19440,7 +19631,7 @@
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="119"/>
+      <c r="A12" s="116"/>
       <c r="B12" s="26" t="s">
         <v>201</v>
       </c>
@@ -19450,19 +19641,19 @@
       <c r="D12" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="E12" s="139"/>
+      <c r="E12" s="133"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="119"/>
-      <c r="B13" s="130" t="s">
-        <v>982</v>
+      <c r="A13" s="116"/>
+      <c r="B13" s="124" t="s">
+        <v>977</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>188</v>
@@ -19474,14 +19665,14 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="119"/>
-      <c r="B14" s="123" t="s">
+      <c r="A14" s="116"/>
+      <c r="B14" s="120" t="s">
         <v>203</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="D14" s="130" t="s">
+      <c r="D14" s="124" t="s">
         <v>187</v>
       </c>
       <c r="E14" s="26" t="s">
@@ -19493,14 +19684,14 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="119"/>
+      <c r="A15" s="116"/>
       <c r="B15" s="26" t="s">
         <v>205</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="D15" s="130" t="s">
+      <c r="D15" s="124" t="s">
         <v>187</v>
       </c>
       <c r="E15" s="26" t="s">
@@ -19511,7 +19702,7 @@
       <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="119"/>
+      <c r="A16" s="116"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B17" s="8" t="s">
@@ -19519,27 +19710,27 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="114" t="s">
-        <v>915</v>
+      <c r="A18" s="111" t="s">
+        <v>913</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="114" t="s">
-        <v>916</v>
+      <c r="A19" s="111" t="s">
+        <v>914</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="113" t="s">
-        <v>943</v>
+      <c r="A20" s="110" t="s">
+        <v>941</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>31</v>
@@ -19555,12 +19746,12 @@
         <v>191</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C24" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
@@ -19578,21 +19769,21 @@
         <v>41</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="114" t="s">
-        <v>917</v>
+      <c r="A29" s="111" t="s">
+        <v>915</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>44</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
@@ -19603,32 +19794,32 @@
       <c r="L29" s="24"/>
     </row>
     <row r="30" spans="1:12" ht="33" x14ac:dyDescent="0.15">
-      <c r="A30" s="114" t="s">
-        <v>907</v>
+      <c r="A30" s="111" t="s">
+        <v>905</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="33" x14ac:dyDescent="0.15">
-      <c r="A31" s="114" t="s">
-        <v>918</v>
+      <c r="A31" s="111" t="s">
+        <v>916</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="113" t="s">
-        <v>1045</v>
+    <row r="32" spans="1:12" ht="33" x14ac:dyDescent="0.15">
+      <c r="A32" s="110" t="s">
+        <v>1070</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="113" t="s">
-        <v>1044</v>
+      <c r="A33" s="110" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
@@ -19636,7 +19827,7 @@
         <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -19655,19 +19846,19 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A41" s="114" t="s">
-        <v>927</v>
+      <c r="A41" s="111" t="s">
+        <v>925</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A42" s="114" t="s">
-        <v>919</v>
+      <c r="A42" s="111" t="s">
+        <v>917</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>27</v>
@@ -19684,69 +19875,69 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="114" t="s">
-        <v>908</v>
+      <c r="A45" s="111" t="s">
+        <v>906</v>
       </c>
       <c r="C45" s="9"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A47" s="114" t="s">
-        <v>920</v>
+      <c r="A47" s="111" t="s">
+        <v>918</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="115"/>
+      <c r="A48" s="112"/>
       <c r="C48" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A49" s="114" t="s">
-        <v>921</v>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49" s="111" t="s">
+        <v>919</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A50" s="114" t="s">
-        <v>922</v>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50" s="111" t="s">
+        <v>920</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:43" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="113" t="s">
-        <v>1064</v>
+    <row r="51" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="110" t="s">
+        <v>1057</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B53" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D53" s="140"/>
+        <v>1063</v>
+      </c>
+      <c r="D53" s="134"/>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
       <c r="G53" s="24"/>
@@ -19754,12 +19945,12 @@
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B54" s="24"/>
       <c r="C54" s="24" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D54" s="140"/>
+        <v>1064</v>
+      </c>
+      <c r="D54" s="134"/>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
       <c r="G54" s="24"/>
@@ -19767,12 +19958,12 @@
       <c r="I54" s="24"/>
       <c r="J54" s="24"/>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B55" s="24"/>
       <c r="C55" s="24" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D55" s="140"/>
+        <v>1065</v>
+      </c>
+      <c r="D55" s="134"/>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
       <c r="G55" s="24"/>
@@ -19780,785 +19971,217 @@
       <c r="I55" s="24"/>
       <c r="J55" s="24"/>
     </row>
-    <row r="56" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="119"/>
-      <c r="D56" s="9"/>
-    </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="B57" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="B58" s="24" t="s">
-        <v>1007</v>
-      </c>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="141"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B57" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="24"/>
+      <c r="D57" s="141"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B58" s="24"/>
       <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
+      <c r="D58" s="141"/>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
       <c r="G58" s="24"/>
       <c r="H58" s="24"/>
       <c r="I58" s="24"/>
       <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="24"/>
-      <c r="S58" s="24"/>
-      <c r="T58" s="24"/>
-      <c r="U58" s="24"/>
-      <c r="V58" s="24"/>
-      <c r="W58" s="24"/>
-      <c r="X58" s="24"/>
-      <c r="Y58" s="24"/>
-      <c r="Z58" s="24"/>
-      <c r="AA58" s="24"/>
-      <c r="AB58" s="24"/>
-      <c r="AC58" s="24"/>
-      <c r="AD58" s="24"/>
-      <c r="AE58" s="24"/>
-      <c r="AF58" s="24"/>
-      <c r="AG58" s="24"/>
-      <c r="AH58" s="24"/>
-      <c r="AI58" s="24"/>
-      <c r="AJ58" s="24"/>
-      <c r="AK58" s="24"/>
-      <c r="AL58" s="24"/>
-      <c r="AM58" s="24"/>
-      <c r="AN58" s="24"/>
-      <c r="AO58" s="24"/>
-      <c r="AP58" s="24"/>
-      <c r="AQ58" s="24"/>
-    </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="B59" s="153" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="154"/>
-      <c r="D59" s="154"/>
-      <c r="E59" s="152" t="s">
-        <v>229</v>
-      </c>
-      <c r="F59" s="150"/>
-      <c r="G59" s="150"/>
-      <c r="H59" s="150" t="s">
-        <v>60</v>
-      </c>
-      <c r="I59" s="155" t="s">
-        <v>1006</v>
-      </c>
-      <c r="J59" s="156"/>
-      <c r="K59" s="156"/>
-      <c r="L59" s="150" t="s">
-        <v>60</v>
-      </c>
-      <c r="M59" s="150" t="s">
-        <v>1015</v>
-      </c>
-      <c r="N59" s="150"/>
-      <c r="O59" s="150"/>
-      <c r="P59" s="154" t="s">
-        <v>1014</v>
-      </c>
-      <c r="Q59" s="154" t="s">
-        <v>1016</v>
-      </c>
-      <c r="R59" s="154"/>
-      <c r="S59" s="154"/>
-      <c r="T59" s="150" t="s">
-        <v>60</v>
-      </c>
-      <c r="U59" s="152" t="s">
-        <v>965</v>
-      </c>
-      <c r="V59" s="150"/>
-      <c r="W59" s="150"/>
-      <c r="X59" s="150" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y59" s="150" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z59" s="150"/>
-      <c r="AA59" s="150"/>
-      <c r="AB59" s="24"/>
-      <c r="AC59" s="24"/>
-      <c r="AD59" s="24"/>
-      <c r="AE59" s="24"/>
-      <c r="AF59" s="24"/>
-      <c r="AG59" s="24"/>
-      <c r="AH59" s="24"/>
-      <c r="AI59" s="24"/>
-      <c r="AJ59" s="24"/>
-      <c r="AK59" s="24"/>
-      <c r="AL59" s="24"/>
-      <c r="AM59" s="24"/>
-      <c r="AN59" s="24"/>
-      <c r="AO59" s="24"/>
-      <c r="AP59" s="24"/>
-      <c r="AQ59" s="24"/>
-    </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A60" s="114" t="s">
-        <v>923</v>
-      </c>
-      <c r="B60" s="154"/>
-      <c r="C60" s="154"/>
-      <c r="D60" s="154"/>
-      <c r="E60" s="150"/>
-      <c r="F60" s="150"/>
-      <c r="G60" s="150"/>
-      <c r="H60" s="150"/>
-      <c r="I60" s="156"/>
-      <c r="J60" s="156"/>
-      <c r="K60" s="156"/>
-      <c r="L60" s="150"/>
-      <c r="M60" s="150"/>
-      <c r="N60" s="150"/>
-      <c r="O60" s="150"/>
-      <c r="P60" s="154"/>
-      <c r="Q60" s="154"/>
-      <c r="R60" s="154"/>
-      <c r="S60" s="154"/>
-      <c r="T60" s="150"/>
-      <c r="U60" s="150"/>
-      <c r="V60" s="150"/>
-      <c r="W60" s="150"/>
-      <c r="X60" s="150"/>
-      <c r="Y60" s="150"/>
-      <c r="Z60" s="150"/>
-      <c r="AA60" s="150"/>
-      <c r="AB60" s="24"/>
-      <c r="AC60" s="24"/>
-      <c r="AD60" s="24"/>
-      <c r="AE60" s="24"/>
-      <c r="AF60" s="24"/>
-      <c r="AG60" s="24"/>
-      <c r="AH60" s="24"/>
-      <c r="AI60" s="24"/>
-      <c r="AJ60" s="24"/>
-      <c r="AK60" s="24"/>
-      <c r="AL60" s="24"/>
-      <c r="AM60" s="24"/>
-      <c r="AN60" s="24"/>
-      <c r="AO60" s="24"/>
-      <c r="AP60" s="24"/>
-      <c r="AQ60" s="24"/>
-    </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="B61" s="154"/>
-      <c r="C61" s="154"/>
-      <c r="D61" s="154"/>
-      <c r="E61" s="150"/>
-      <c r="F61" s="150"/>
-      <c r="G61" s="150"/>
-      <c r="H61" s="150"/>
-      <c r="I61" s="156"/>
-      <c r="J61" s="156"/>
-      <c r="K61" s="156"/>
-      <c r="L61" s="150"/>
-      <c r="M61" s="150"/>
-      <c r="N61" s="150"/>
-      <c r="O61" s="150"/>
-      <c r="P61" s="154"/>
-      <c r="Q61" s="154"/>
-      <c r="R61" s="154"/>
-      <c r="S61" s="154"/>
-      <c r="T61" s="150"/>
-      <c r="U61" s="150"/>
-      <c r="V61" s="150"/>
-      <c r="W61" s="150"/>
-      <c r="X61" s="150"/>
-      <c r="Y61" s="150"/>
-      <c r="Z61" s="150"/>
-      <c r="AA61" s="150"/>
-      <c r="AB61" s="24"/>
-      <c r="AC61" s="24"/>
-      <c r="AD61" s="24"/>
-      <c r="AE61" s="24"/>
-      <c r="AF61" s="24"/>
-      <c r="AG61" s="24"/>
-      <c r="AH61" s="24"/>
-      <c r="AI61" s="24"/>
-      <c r="AJ61" s="24"/>
-      <c r="AK61" s="24"/>
-      <c r="AL61" s="24"/>
-      <c r="AM61" s="24"/>
-      <c r="AN61" s="24"/>
-      <c r="AO61" s="24"/>
-      <c r="AP61" s="24"/>
-      <c r="AQ61" s="24"/>
-    </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="B62" s="154"/>
-      <c r="C62" s="154"/>
-      <c r="D62" s="154"/>
-      <c r="E62" s="150"/>
-      <c r="F62" s="150"/>
-      <c r="G62" s="150"/>
-      <c r="H62" s="150"/>
-      <c r="I62" s="156"/>
-      <c r="J62" s="156"/>
-      <c r="K62" s="156"/>
-      <c r="L62" s="150"/>
-      <c r="M62" s="150"/>
-      <c r="N62" s="150"/>
-      <c r="O62" s="150"/>
-      <c r="P62" s="154"/>
-      <c r="Q62" s="154"/>
-      <c r="R62" s="154"/>
-      <c r="S62" s="154"/>
-      <c r="T62" s="150"/>
-      <c r="U62" s="150"/>
-      <c r="V62" s="150"/>
-      <c r="W62" s="150"/>
-      <c r="X62" s="150"/>
-      <c r="Y62" s="150"/>
-      <c r="Z62" s="150"/>
-      <c r="AA62" s="150"/>
-      <c r="AB62" s="24"/>
-      <c r="AC62" s="24"/>
-      <c r="AD62" s="24"/>
-      <c r="AE62" s="24"/>
-      <c r="AF62" s="24"/>
-      <c r="AG62" s="24"/>
-      <c r="AH62" s="24"/>
-      <c r="AI62" s="24"/>
-      <c r="AJ62" s="24"/>
-      <c r="AK62" s="24"/>
-      <c r="AL62" s="24"/>
-      <c r="AM62" s="24"/>
-      <c r="AN62" s="24"/>
-      <c r="AO62" s="24"/>
-      <c r="AP62" s="24"/>
-      <c r="AQ62" s="24"/>
-    </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="141"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="141"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="141"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="141"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="150" t="s">
-        <v>59</v>
-      </c>
-      <c r="F63" s="150"/>
-      <c r="G63" s="150"/>
-      <c r="H63" s="150"/>
-      <c r="I63" s="151" t="s">
-        <v>1005</v>
-      </c>
-      <c r="J63" s="151"/>
-      <c r="K63" s="151"/>
-      <c r="L63" s="150"/>
-      <c r="M63" s="150" t="s">
-        <v>67</v>
-      </c>
-      <c r="N63" s="150"/>
-      <c r="O63" s="150"/>
-      <c r="P63" s="154"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="24"/>
-      <c r="S63" s="24"/>
-      <c r="T63" s="150"/>
-      <c r="U63" s="150" t="s">
-        <v>64</v>
-      </c>
-      <c r="V63" s="150"/>
-      <c r="W63" s="150"/>
-      <c r="X63" s="150"/>
-      <c r="Y63" s="141"/>
-      <c r="Z63" s="141"/>
-      <c r="AA63" s="141"/>
-      <c r="AB63" s="24"/>
-      <c r="AC63" s="24"/>
-      <c r="AD63" s="24"/>
-      <c r="AE63" s="24"/>
-      <c r="AF63" s="24"/>
-      <c r="AG63" s="24"/>
-      <c r="AH63" s="24"/>
-      <c r="AI63" s="24"/>
-      <c r="AJ63" s="24"/>
-      <c r="AK63" s="24"/>
-      <c r="AL63" s="24"/>
-      <c r="AM63" s="24"/>
-      <c r="AN63" s="24"/>
-      <c r="AO63" s="24"/>
-      <c r="AP63" s="24"/>
-      <c r="AQ63" s="24"/>
-    </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="D63" s="141"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B64" s="24"/>
       <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="141"/>
-      <c r="F64" s="141"/>
-      <c r="G64" s="141"/>
-      <c r="H64" s="141"/>
-      <c r="I64" s="142"/>
-      <c r="J64" s="142"/>
-      <c r="K64" s="142"/>
-      <c r="L64" s="141" t="s">
-        <v>1037</v>
-      </c>
-      <c r="M64" s="141"/>
-      <c r="N64" s="141"/>
-      <c r="O64" s="141"/>
-      <c r="P64" s="143"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="24"/>
-      <c r="S64" s="24"/>
-      <c r="T64" s="141"/>
-      <c r="U64" s="141"/>
-      <c r="V64" s="141"/>
-      <c r="W64" s="141"/>
-      <c r="X64" s="141"/>
-      <c r="Y64" s="141"/>
-      <c r="Z64" s="141"/>
-      <c r="AA64" s="141"/>
-      <c r="AB64" s="24"/>
-      <c r="AC64" s="24"/>
-      <c r="AD64" s="24"/>
-      <c r="AE64" s="24"/>
-      <c r="AF64" s="24"/>
-      <c r="AG64" s="24"/>
-      <c r="AH64" s="24"/>
-      <c r="AI64" s="24"/>
-      <c r="AJ64" s="24"/>
-      <c r="AK64" s="24"/>
-      <c r="AL64" s="24"/>
-      <c r="AM64" s="24"/>
-      <c r="AN64" s="24"/>
-      <c r="AO64" s="24"/>
-      <c r="AP64" s="24"/>
-      <c r="AQ64" s="24"/>
-    </row>
-    <row r="65" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="D64" s="141"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+    </row>
+    <row r="65" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="141"/>
-      <c r="F65" s="141"/>
-      <c r="G65" s="141"/>
-      <c r="H65" s="141"/>
-      <c r="I65" s="142"/>
-      <c r="J65" s="142"/>
-      <c r="K65" s="142"/>
-      <c r="L65" s="141"/>
-      <c r="M65" s="141"/>
-      <c r="N65" s="141"/>
-      <c r="O65" s="141"/>
-      <c r="P65" s="143"/>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="24"/>
-      <c r="S65" s="24"/>
-      <c r="T65" s="141"/>
-      <c r="U65" s="141"/>
-      <c r="V65" s="141"/>
-      <c r="W65" s="141"/>
-      <c r="X65" s="141"/>
-      <c r="Y65" s="141"/>
-      <c r="Z65" s="141"/>
-      <c r="AA65" s="141"/>
-      <c r="AB65" s="24"/>
-      <c r="AC65" s="24"/>
-      <c r="AD65" s="24"/>
-      <c r="AE65" s="24"/>
-      <c r="AF65" s="24"/>
-      <c r="AG65" s="24"/>
-      <c r="AH65" s="24"/>
-      <c r="AI65" s="24"/>
-      <c r="AJ65" s="24"/>
-      <c r="AK65" s="24"/>
-      <c r="AL65" s="24"/>
-      <c r="AM65" s="24"/>
-      <c r="AN65" s="24"/>
-      <c r="AO65" s="24"/>
-      <c r="AP65" s="24"/>
-      <c r="AQ65" s="24"/>
-    </row>
-    <row r="66" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B66" s="24" t="s">
-        <v>1011</v>
-      </c>
+      <c r="D65" s="141"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+    </row>
+    <row r="66" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="B66" s="24"/>
       <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="141"/>
-      <c r="F66" s="141"/>
-      <c r="G66" s="141"/>
-      <c r="H66" s="141"/>
-      <c r="I66" s="142"/>
-      <c r="J66" s="142"/>
-      <c r="K66" s="142"/>
-      <c r="L66" s="141"/>
-      <c r="M66" s="141"/>
-      <c r="N66" s="141"/>
-      <c r="O66" s="141"/>
-      <c r="P66" s="141"/>
-      <c r="Q66" s="141"/>
-      <c r="R66" s="141"/>
-      <c r="S66" s="141"/>
-      <c r="T66" s="141"/>
-      <c r="U66" s="141"/>
-      <c r="V66" s="141"/>
-      <c r="W66" s="141"/>
-      <c r="X66" s="24"/>
-      <c r="Y66" s="24"/>
-      <c r="Z66" s="24"/>
-      <c r="AA66" s="24"/>
-      <c r="AB66" s="24"/>
-      <c r="AC66" s="24"/>
-      <c r="AD66" s="24"/>
-      <c r="AE66" s="24"/>
-      <c r="AF66" s="24"/>
-      <c r="AG66" s="24"/>
-      <c r="AH66" s="24"/>
-      <c r="AI66" s="24"/>
-      <c r="AJ66" s="24"/>
-      <c r="AK66" s="24"/>
-      <c r="AL66" s="24"/>
-      <c r="AM66" s="24"/>
-      <c r="AN66" s="24"/>
-      <c r="AO66" s="24"/>
-      <c r="AP66" s="24"/>
-      <c r="AQ66" s="24"/>
-    </row>
-    <row r="67" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B67" s="153" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C67" s="154"/>
-      <c r="D67" s="154"/>
-      <c r="E67" s="152" t="s">
-        <v>229</v>
-      </c>
-      <c r="F67" s="150"/>
-      <c r="G67" s="150"/>
-      <c r="H67" s="150" t="s">
-        <v>60</v>
-      </c>
-      <c r="I67" s="155" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J67" s="156"/>
-      <c r="K67" s="156"/>
-      <c r="L67" s="150" t="s">
-        <v>60</v>
-      </c>
-      <c r="M67" s="150" t="s">
-        <v>1020</v>
-      </c>
-      <c r="N67" s="150"/>
-      <c r="O67" s="150"/>
-      <c r="P67" s="154" t="s">
-        <v>1014</v>
-      </c>
-      <c r="Q67" s="154" t="s">
-        <v>1019</v>
-      </c>
-      <c r="R67" s="154"/>
-      <c r="S67" s="154"/>
-      <c r="T67" s="150" t="s">
-        <v>60</v>
-      </c>
-      <c r="U67" s="153" t="s">
-        <v>1056</v>
-      </c>
-      <c r="V67" s="154"/>
-      <c r="W67" s="154"/>
-      <c r="X67" s="150" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y67" s="152" t="s">
-        <v>965</v>
-      </c>
-      <c r="Z67" s="150"/>
-      <c r="AA67" s="150"/>
-      <c r="AB67" s="150" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC67" s="150" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD67" s="150"/>
-      <c r="AE67" s="150"/>
-      <c r="AF67" s="24"/>
-      <c r="AG67" s="24"/>
-      <c r="AH67" s="24"/>
-      <c r="AI67" s="24"/>
-      <c r="AJ67" s="24"/>
-      <c r="AK67" s="24"/>
-      <c r="AL67" s="24"/>
-      <c r="AM67" s="24"/>
-      <c r="AN67" s="24"/>
-      <c r="AO67" s="24"/>
-      <c r="AP67" s="24"/>
-      <c r="AQ67" s="24"/>
-    </row>
-    <row r="68" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B68" s="154"/>
-      <c r="C68" s="154"/>
-      <c r="D68" s="154"/>
-      <c r="E68" s="150"/>
-      <c r="F68" s="150"/>
-      <c r="G68" s="150"/>
-      <c r="H68" s="150"/>
-      <c r="I68" s="156"/>
-      <c r="J68" s="156"/>
-      <c r="K68" s="156"/>
-      <c r="L68" s="150"/>
-      <c r="M68" s="150"/>
-      <c r="N68" s="150"/>
-      <c r="O68" s="150"/>
-      <c r="P68" s="154"/>
-      <c r="Q68" s="154"/>
-      <c r="R68" s="154"/>
-      <c r="S68" s="154"/>
-      <c r="T68" s="150"/>
-      <c r="U68" s="154"/>
-      <c r="V68" s="154"/>
-      <c r="W68" s="154"/>
-      <c r="X68" s="150"/>
-      <c r="Y68" s="150"/>
-      <c r="Z68" s="150"/>
-      <c r="AA68" s="150"/>
-      <c r="AB68" s="150"/>
-      <c r="AC68" s="150"/>
-      <c r="AD68" s="150"/>
-      <c r="AE68" s="150"/>
-      <c r="AF68" s="24"/>
-      <c r="AG68" s="24"/>
-      <c r="AH68" s="24"/>
-      <c r="AI68" s="24"/>
-      <c r="AJ68" s="24"/>
-      <c r="AK68" s="24"/>
-      <c r="AL68" s="24"/>
-      <c r="AM68" s="24"/>
-      <c r="AN68" s="24"/>
-      <c r="AO68" s="24"/>
-      <c r="AP68" s="24"/>
-      <c r="AQ68" s="24"/>
-    </row>
-    <row r="69" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B69" s="154"/>
-      <c r="C69" s="154"/>
-      <c r="D69" s="154"/>
-      <c r="E69" s="150"/>
-      <c r="F69" s="150"/>
-      <c r="G69" s="150"/>
-      <c r="H69" s="150"/>
-      <c r="I69" s="156"/>
-      <c r="J69" s="156"/>
-      <c r="K69" s="156"/>
-      <c r="L69" s="150"/>
-      <c r="M69" s="150"/>
-      <c r="N69" s="150"/>
-      <c r="O69" s="150"/>
-      <c r="P69" s="154"/>
-      <c r="Q69" s="154"/>
-      <c r="R69" s="154"/>
-      <c r="S69" s="154"/>
-      <c r="T69" s="150"/>
-      <c r="U69" s="154"/>
-      <c r="V69" s="154"/>
-      <c r="W69" s="154"/>
-      <c r="X69" s="150"/>
-      <c r="Y69" s="150"/>
-      <c r="Z69" s="150"/>
-      <c r="AA69" s="150"/>
-      <c r="AB69" s="150"/>
-      <c r="AC69" s="150"/>
-      <c r="AD69" s="150"/>
-      <c r="AE69" s="150"/>
-      <c r="AF69" s="24"/>
-      <c r="AG69" s="24"/>
-      <c r="AH69" s="24"/>
-      <c r="AI69" s="24"/>
-      <c r="AJ69" s="24"/>
-      <c r="AK69" s="24"/>
-      <c r="AL69" s="24"/>
-      <c r="AM69" s="24"/>
-      <c r="AN69" s="24"/>
-      <c r="AO69" s="24"/>
-      <c r="AP69" s="24"/>
-      <c r="AQ69" s="24"/>
-    </row>
-    <row r="70" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B70" s="154"/>
-      <c r="C70" s="154"/>
-      <c r="D70" s="154"/>
-      <c r="E70" s="150"/>
-      <c r="F70" s="150"/>
-      <c r="G70" s="150"/>
-      <c r="H70" s="150"/>
-      <c r="I70" s="156"/>
-      <c r="J70" s="156"/>
-      <c r="K70" s="156"/>
-      <c r="L70" s="150"/>
-      <c r="M70" s="150"/>
-      <c r="N70" s="150"/>
-      <c r="O70" s="150"/>
-      <c r="P70" s="154"/>
-      <c r="Q70" s="154"/>
-      <c r="R70" s="154"/>
-      <c r="S70" s="154"/>
-      <c r="T70" s="150"/>
-      <c r="U70" s="154"/>
-      <c r="V70" s="154"/>
-      <c r="W70" s="154"/>
-      <c r="X70" s="150"/>
-      <c r="Y70" s="150"/>
-      <c r="Z70" s="150"/>
-      <c r="AA70" s="150"/>
-      <c r="AB70" s="150"/>
-      <c r="AC70" s="150"/>
-      <c r="AD70" s="150"/>
-      <c r="AE70" s="150"/>
-      <c r="AF70" s="24"/>
-      <c r="AG70" s="24"/>
-      <c r="AH70" s="24"/>
-      <c r="AI70" s="24"/>
-      <c r="AJ70" s="24"/>
-      <c r="AK70" s="24"/>
-      <c r="AL70" s="24"/>
-      <c r="AM70" s="24"/>
-      <c r="AN70" s="24"/>
-      <c r="AO70" s="24"/>
-      <c r="AP70" s="24"/>
-      <c r="AQ70" s="24"/>
-    </row>
-    <row r="71" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B71" s="143"/>
-      <c r="C71" s="143"/>
-      <c r="D71" s="143"/>
-      <c r="E71" s="150" t="s">
-        <v>59</v>
-      </c>
-      <c r="F71" s="150"/>
-      <c r="G71" s="150"/>
-      <c r="H71" s="150"/>
-      <c r="I71" s="151" t="s">
-        <v>1018</v>
-      </c>
-      <c r="J71" s="151"/>
-      <c r="K71" s="151"/>
-      <c r="L71" s="150"/>
-      <c r="M71" s="150" t="s">
-        <v>67</v>
-      </c>
-      <c r="N71" s="150"/>
-      <c r="O71" s="150"/>
-      <c r="P71" s="154"/>
-      <c r="Q71" s="24"/>
-      <c r="R71" s="24"/>
-      <c r="S71" s="24"/>
-      <c r="T71" s="150"/>
-      <c r="U71" s="154"/>
-      <c r="V71" s="154"/>
-      <c r="W71" s="154"/>
-      <c r="X71" s="150"/>
-      <c r="Y71" s="150" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z71" s="150"/>
-      <c r="AA71" s="150"/>
-      <c r="AB71" s="150"/>
-      <c r="AC71" s="141"/>
-      <c r="AD71" s="141"/>
-      <c r="AE71" s="141"/>
-      <c r="AF71" s="24"/>
-      <c r="AG71" s="24"/>
-      <c r="AH71" s="24"/>
-      <c r="AI71" s="24"/>
-      <c r="AJ71" s="24"/>
-      <c r="AK71" s="24"/>
-      <c r="AL71" s="24"/>
-      <c r="AM71" s="24"/>
-      <c r="AN71" s="24"/>
-      <c r="AO71" s="24"/>
-      <c r="AP71" s="24"/>
-      <c r="AQ71" s="24"/>
-    </row>
-    <row r="72" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B72" s="143"/>
-      <c r="C72" s="143"/>
-      <c r="D72" s="143"/>
-      <c r="E72" s="141"/>
-      <c r="F72" s="141"/>
-      <c r="G72" s="141"/>
-      <c r="H72" s="150"/>
-      <c r="I72" s="142"/>
-      <c r="J72" s="142"/>
-      <c r="K72" s="142"/>
-      <c r="L72" s="135"/>
-      <c r="M72" s="141" t="s">
-        <v>1038</v>
-      </c>
-      <c r="N72" s="141"/>
-      <c r="O72" s="141"/>
-      <c r="P72" s="143"/>
-      <c r="Q72" s="24"/>
-      <c r="R72" s="24"/>
-      <c r="S72" s="24"/>
-      <c r="T72" s="141"/>
-      <c r="U72" s="143"/>
-      <c r="V72" s="143"/>
-      <c r="W72" s="143"/>
-      <c r="X72" s="135"/>
-      <c r="Y72" s="141"/>
-      <c r="Z72" s="141"/>
-      <c r="AA72" s="141"/>
-      <c r="AB72" s="141"/>
-      <c r="AC72" s="141"/>
-      <c r="AD72" s="141"/>
-      <c r="AE72" s="141"/>
-      <c r="AF72" s="24"/>
-      <c r="AG72" s="24"/>
-      <c r="AH72" s="24"/>
-      <c r="AI72" s="24"/>
-      <c r="AJ72" s="24"/>
-      <c r="AK72" s="24"/>
-      <c r="AL72" s="24"/>
-      <c r="AM72" s="24"/>
-      <c r="AN72" s="24"/>
-      <c r="AO72" s="24"/>
-      <c r="AP72" s="24"/>
-      <c r="AQ72" s="24"/>
-    </row>
-    <row r="73" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B73" s="143"/>
-      <c r="C73" s="143"/>
-      <c r="D73" s="143"/>
-      <c r="E73" s="141"/>
-      <c r="F73" s="141"/>
-      <c r="G73" s="141"/>
-      <c r="H73" s="150"/>
-      <c r="I73" s="142"/>
-      <c r="J73" s="142"/>
-      <c r="K73" s="142"/>
-      <c r="L73" s="135"/>
-      <c r="M73" s="141"/>
-      <c r="N73" s="141"/>
-      <c r="O73" s="141"/>
-      <c r="P73" s="143"/>
+      <c r="D66" s="141"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+    </row>
+    <row r="67" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="141"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+    </row>
+    <row r="68" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="141"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+    </row>
+    <row r="69" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="B69" s="24"/>
+      <c r="C69" s="24" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D69" s="141"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+    </row>
+    <row r="70" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="141"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+    </row>
+    <row r="71" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="116"/>
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="B72" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="B73" s="24" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
       <c r="Q73" s="24"/>
       <c r="R73" s="24"/>
       <c r="S73" s="24"/>
-      <c r="T73" s="141"/>
-      <c r="U73" s="143"/>
-      <c r="V73" s="143"/>
-      <c r="W73" s="143"/>
-      <c r="X73" s="135"/>
-      <c r="Y73" s="141"/>
-      <c r="Z73" s="141"/>
-      <c r="AA73" s="141"/>
-      <c r="AB73" s="141"/>
-      <c r="AC73" s="141"/>
-      <c r="AD73" s="141"/>
-      <c r="AE73" s="141"/>
+      <c r="T73" s="24"/>
+      <c r="U73" s="24"/>
+      <c r="V73" s="24"/>
+      <c r="W73" s="24"/>
+      <c r="X73" s="24"/>
+      <c r="Y73" s="24"/>
+      <c r="Z73" s="24"/>
+      <c r="AA73" s="24"/>
+      <c r="AB73" s="24"/>
+      <c r="AC73" s="24"/>
+      <c r="AD73" s="24"/>
+      <c r="AE73" s="24"/>
       <c r="AF73" s="24"/>
       <c r="AG73" s="24"/>
       <c r="AH73" s="24"/>
@@ -20572,39 +20195,61 @@
       <c r="AP73" s="24"/>
       <c r="AQ73" s="24"/>
     </row>
-    <row r="74" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B74" s="24" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="150"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="135"/>
-      <c r="M74" s="24"/>
-      <c r="N74" s="24"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="24"/>
-      <c r="R74" s="24"/>
-      <c r="S74" s="24"/>
-      <c r="T74" s="24"/>
-      <c r="U74" s="24"/>
-      <c r="V74" s="24"/>
-      <c r="W74" s="24"/>
-      <c r="X74" s="135"/>
-      <c r="Y74" s="24"/>
-      <c r="Z74" s="24"/>
-      <c r="AA74" s="24"/>
-      <c r="AB74" s="141"/>
-      <c r="AC74" s="141"/>
-      <c r="AD74" s="141"/>
-      <c r="AE74" s="141"/>
+    <row r="74" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="B74" s="148" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" s="149"/>
+      <c r="D74" s="149"/>
+      <c r="E74" s="147" t="s">
+        <v>229</v>
+      </c>
+      <c r="F74" s="145"/>
+      <c r="G74" s="145"/>
+      <c r="H74" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="I74" s="150" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J74" s="151"/>
+      <c r="K74" s="151"/>
+      <c r="L74" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="M74" s="145" t="s">
+        <v>1010</v>
+      </c>
+      <c r="N74" s="145"/>
+      <c r="O74" s="145"/>
+      <c r="P74" s="149" t="s">
+        <v>1009</v>
+      </c>
+      <c r="Q74" s="149" t="s">
+        <v>1011</v>
+      </c>
+      <c r="R74" s="149"/>
+      <c r="S74" s="149"/>
+      <c r="T74" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="U74" s="147" t="s">
+        <v>963</v>
+      </c>
+      <c r="V74" s="145"/>
+      <c r="W74" s="145"/>
+      <c r="X74" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y74" s="145" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z74" s="145"/>
+      <c r="AA74" s="145"/>
+      <c r="AB74" s="24"/>
+      <c r="AC74" s="24"/>
+      <c r="AD74" s="24"/>
+      <c r="AE74" s="24"/>
       <c r="AF74" s="24"/>
       <c r="AG74" s="24"/>
       <c r="AH74" s="24"/>
@@ -20618,625 +20263,1340 @@
       <c r="AP74" s="24"/>
       <c r="AQ74" s="24"/>
     </row>
-    <row r="75" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="153" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C75" s="154"/>
-      <c r="D75" s="154"/>
-      <c r="E75" s="152" t="s">
-        <v>229</v>
-      </c>
-      <c r="F75" s="150"/>
-      <c r="G75" s="150"/>
-      <c r="H75" s="150" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I75" s="155" t="s">
-        <v>1006</v>
-      </c>
-      <c r="J75" s="156"/>
-      <c r="K75" s="156"/>
-      <c r="L75" s="150" t="s">
-        <v>60</v>
-      </c>
-      <c r="M75" s="150" t="s">
-        <v>1015</v>
-      </c>
-      <c r="N75" s="150"/>
-      <c r="O75" s="150"/>
-      <c r="P75" s="154" t="s">
-        <v>1014</v>
-      </c>
-      <c r="Q75" s="154" t="s">
-        <v>1016</v>
-      </c>
-      <c r="R75" s="154"/>
-      <c r="S75" s="154"/>
-      <c r="T75" s="154" t="s">
-        <v>1014</v>
-      </c>
-      <c r="U75" s="155" t="s">
-        <v>1017</v>
-      </c>
-      <c r="V75" s="156"/>
-      <c r="W75" s="156"/>
-      <c r="X75" s="150" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y75" s="150" t="s">
-        <v>1020</v>
-      </c>
-      <c r="Z75" s="150"/>
-      <c r="AA75" s="150"/>
-      <c r="AB75" s="154" t="s">
-        <v>1014</v>
-      </c>
-      <c r="AC75" s="154" t="s">
-        <v>1019</v>
-      </c>
-      <c r="AD75" s="154"/>
-      <c r="AE75" s="154"/>
-      <c r="AF75" s="150" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG75" s="153" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AH75" s="154"/>
-      <c r="AI75" s="154"/>
-      <c r="AJ75" s="150" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK75" s="152" t="s">
-        <v>965</v>
-      </c>
-      <c r="AL75" s="150"/>
-      <c r="AM75" s="150"/>
-      <c r="AN75" s="150" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO75" s="150" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP75" s="150"/>
-      <c r="AQ75" s="150"/>
-    </row>
-    <row r="76" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B76" s="154"/>
-      <c r="C76" s="154"/>
-      <c r="D76" s="154"/>
-      <c r="E76" s="150"/>
-      <c r="F76" s="150"/>
-      <c r="G76" s="150"/>
-      <c r="H76" s="150"/>
-      <c r="I76" s="156"/>
-      <c r="J76" s="156"/>
-      <c r="K76" s="156"/>
-      <c r="L76" s="150"/>
-      <c r="M76" s="150"/>
-      <c r="N76" s="150"/>
-      <c r="O76" s="150"/>
-      <c r="P76" s="154"/>
-      <c r="Q76" s="154"/>
-      <c r="R76" s="154"/>
-      <c r="S76" s="154"/>
-      <c r="T76" s="154"/>
-      <c r="U76" s="156"/>
-      <c r="V76" s="156"/>
-      <c r="W76" s="156"/>
-      <c r="X76" s="150"/>
-      <c r="Y76" s="150"/>
-      <c r="Z76" s="150"/>
-      <c r="AA76" s="150"/>
-      <c r="AB76" s="154"/>
-      <c r="AC76" s="154"/>
-      <c r="AD76" s="154"/>
-      <c r="AE76" s="154"/>
-      <c r="AF76" s="150"/>
-      <c r="AG76" s="154"/>
-      <c r="AH76" s="154"/>
-      <c r="AI76" s="154"/>
-      <c r="AJ76" s="150"/>
-      <c r="AK76" s="150"/>
-      <c r="AL76" s="150"/>
-      <c r="AM76" s="150"/>
-      <c r="AN76" s="150"/>
-      <c r="AO76" s="150"/>
-      <c r="AP76" s="150"/>
-      <c r="AQ76" s="150"/>
-    </row>
-    <row r="77" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B77" s="154"/>
-      <c r="C77" s="154"/>
-      <c r="D77" s="154"/>
-      <c r="E77" s="150"/>
-      <c r="F77" s="150"/>
-      <c r="G77" s="150"/>
-      <c r="H77" s="150"/>
-      <c r="I77" s="156"/>
-      <c r="J77" s="156"/>
-      <c r="K77" s="156"/>
-      <c r="L77" s="150"/>
-      <c r="M77" s="150"/>
-      <c r="N77" s="150"/>
-      <c r="O77" s="150"/>
-      <c r="P77" s="154"/>
-      <c r="Q77" s="154"/>
-      <c r="R77" s="154"/>
-      <c r="S77" s="154"/>
-      <c r="T77" s="154"/>
-      <c r="U77" s="156"/>
-      <c r="V77" s="156"/>
-      <c r="W77" s="156"/>
-      <c r="X77" s="150"/>
-      <c r="Y77" s="150"/>
-      <c r="Z77" s="150"/>
-      <c r="AA77" s="150"/>
-      <c r="AB77" s="154"/>
-      <c r="AC77" s="154"/>
-      <c r="AD77" s="154"/>
-      <c r="AE77" s="154"/>
-      <c r="AF77" s="150"/>
-      <c r="AG77" s="154"/>
-      <c r="AH77" s="154"/>
-      <c r="AI77" s="154"/>
-      <c r="AJ77" s="150"/>
-      <c r="AK77" s="150"/>
-      <c r="AL77" s="150"/>
-      <c r="AM77" s="150"/>
-      <c r="AN77" s="150"/>
-      <c r="AO77" s="150"/>
-      <c r="AP77" s="150"/>
-      <c r="AQ77" s="150"/>
-    </row>
-    <row r="78" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B78" s="154"/>
-      <c r="C78" s="154"/>
-      <c r="D78" s="154"/>
-      <c r="E78" s="150"/>
-      <c r="F78" s="150"/>
-      <c r="G78" s="150"/>
-      <c r="H78" s="150"/>
-      <c r="I78" s="156"/>
-      <c r="J78" s="156"/>
-      <c r="K78" s="156"/>
-      <c r="L78" s="150"/>
-      <c r="M78" s="150"/>
-      <c r="N78" s="150"/>
-      <c r="O78" s="150"/>
-      <c r="P78" s="154"/>
-      <c r="Q78" s="154"/>
-      <c r="R78" s="154"/>
-      <c r="S78" s="154"/>
-      <c r="T78" s="154"/>
-      <c r="U78" s="156"/>
-      <c r="V78" s="156"/>
-      <c r="W78" s="156"/>
-      <c r="X78" s="150"/>
-      <c r="Y78" s="150"/>
-      <c r="Z78" s="150"/>
-      <c r="AA78" s="150"/>
-      <c r="AB78" s="154"/>
-      <c r="AC78" s="154"/>
-      <c r="AD78" s="154"/>
-      <c r="AE78" s="154"/>
-      <c r="AF78" s="150"/>
-      <c r="AG78" s="154"/>
-      <c r="AH78" s="154"/>
-      <c r="AI78" s="154"/>
-      <c r="AJ78" s="150"/>
-      <c r="AK78" s="150"/>
-      <c r="AL78" s="150"/>
-      <c r="AM78" s="150"/>
-      <c r="AN78" s="150"/>
-      <c r="AO78" s="150"/>
-      <c r="AP78" s="150"/>
-      <c r="AQ78" s="150"/>
-    </row>
-    <row r="79" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B79" s="143"/>
-      <c r="C79" s="143"/>
-      <c r="D79" s="143"/>
-      <c r="E79" s="150" t="s">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A75" s="111" t="s">
+        <v>921</v>
+      </c>
+      <c r="B75" s="149"/>
+      <c r="C75" s="149"/>
+      <c r="D75" s="149"/>
+      <c r="E75" s="145"/>
+      <c r="F75" s="145"/>
+      <c r="G75" s="145"/>
+      <c r="H75" s="145"/>
+      <c r="I75" s="151"/>
+      <c r="J75" s="151"/>
+      <c r="K75" s="151"/>
+      <c r="L75" s="145"/>
+      <c r="M75" s="145"/>
+      <c r="N75" s="145"/>
+      <c r="O75" s="145"/>
+      <c r="P75" s="149"/>
+      <c r="Q75" s="149"/>
+      <c r="R75" s="149"/>
+      <c r="S75" s="149"/>
+      <c r="T75" s="145"/>
+      <c r="U75" s="145"/>
+      <c r="V75" s="145"/>
+      <c r="W75" s="145"/>
+      <c r="X75" s="145"/>
+      <c r="Y75" s="145"/>
+      <c r="Z75" s="145"/>
+      <c r="AA75" s="145"/>
+      <c r="AB75" s="24"/>
+      <c r="AC75" s="24"/>
+      <c r="AD75" s="24"/>
+      <c r="AE75" s="24"/>
+      <c r="AF75" s="24"/>
+      <c r="AG75" s="24"/>
+      <c r="AH75" s="24"/>
+      <c r="AI75" s="24"/>
+      <c r="AJ75" s="24"/>
+      <c r="AK75" s="24"/>
+      <c r="AL75" s="24"/>
+      <c r="AM75" s="24"/>
+      <c r="AN75" s="24"/>
+      <c r="AO75" s="24"/>
+      <c r="AP75" s="24"/>
+      <c r="AQ75" s="24"/>
+    </row>
+    <row r="76" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="B76" s="149"/>
+      <c r="C76" s="149"/>
+      <c r="D76" s="149"/>
+      <c r="E76" s="145"/>
+      <c r="F76" s="145"/>
+      <c r="G76" s="145"/>
+      <c r="H76" s="145"/>
+      <c r="I76" s="151"/>
+      <c r="J76" s="151"/>
+      <c r="K76" s="151"/>
+      <c r="L76" s="145"/>
+      <c r="M76" s="145"/>
+      <c r="N76" s="145"/>
+      <c r="O76" s="145"/>
+      <c r="P76" s="149"/>
+      <c r="Q76" s="149"/>
+      <c r="R76" s="149"/>
+      <c r="S76" s="149"/>
+      <c r="T76" s="145"/>
+      <c r="U76" s="145"/>
+      <c r="V76" s="145"/>
+      <c r="W76" s="145"/>
+      <c r="X76" s="145"/>
+      <c r="Y76" s="145"/>
+      <c r="Z76" s="145"/>
+      <c r="AA76" s="145"/>
+      <c r="AB76" s="24"/>
+      <c r="AC76" s="24"/>
+      <c r="AD76" s="24"/>
+      <c r="AE76" s="24"/>
+      <c r="AF76" s="24"/>
+      <c r="AG76" s="24"/>
+      <c r="AH76" s="24"/>
+      <c r="AI76" s="24"/>
+      <c r="AJ76" s="24"/>
+      <c r="AK76" s="24"/>
+      <c r="AL76" s="24"/>
+      <c r="AM76" s="24"/>
+      <c r="AN76" s="24"/>
+      <c r="AO76" s="24"/>
+      <c r="AP76" s="24"/>
+      <c r="AQ76" s="24"/>
+    </row>
+    <row r="77" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="B77" s="149"/>
+      <c r="C77" s="149"/>
+      <c r="D77" s="149"/>
+      <c r="E77" s="145"/>
+      <c r="F77" s="145"/>
+      <c r="G77" s="145"/>
+      <c r="H77" s="145"/>
+      <c r="I77" s="151"/>
+      <c r="J77" s="151"/>
+      <c r="K77" s="151"/>
+      <c r="L77" s="145"/>
+      <c r="M77" s="145"/>
+      <c r="N77" s="145"/>
+      <c r="O77" s="145"/>
+      <c r="P77" s="149"/>
+      <c r="Q77" s="149"/>
+      <c r="R77" s="149"/>
+      <c r="S77" s="149"/>
+      <c r="T77" s="145"/>
+      <c r="U77" s="145"/>
+      <c r="V77" s="145"/>
+      <c r="W77" s="145"/>
+      <c r="X77" s="145"/>
+      <c r="Y77" s="145"/>
+      <c r="Z77" s="145"/>
+      <c r="AA77" s="145"/>
+      <c r="AB77" s="24"/>
+      <c r="AC77" s="24"/>
+      <c r="AD77" s="24"/>
+      <c r="AE77" s="24"/>
+      <c r="AF77" s="24"/>
+      <c r="AG77" s="24"/>
+      <c r="AH77" s="24"/>
+      <c r="AI77" s="24"/>
+      <c r="AJ77" s="24"/>
+      <c r="AK77" s="24"/>
+      <c r="AL77" s="24"/>
+      <c r="AM77" s="24"/>
+      <c r="AN77" s="24"/>
+      <c r="AO77" s="24"/>
+      <c r="AP77" s="24"/>
+      <c r="AQ77" s="24"/>
+    </row>
+    <row r="78" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="F79" s="150"/>
-      <c r="G79" s="150"/>
-      <c r="H79" s="150"/>
-      <c r="I79" s="151" t="s">
-        <v>1005</v>
-      </c>
-      <c r="J79" s="151"/>
-      <c r="K79" s="151"/>
-      <c r="L79" s="150"/>
-      <c r="M79" s="150" t="s">
+      <c r="F78" s="145"/>
+      <c r="G78" s="145"/>
+      <c r="H78" s="145"/>
+      <c r="I78" s="146" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J78" s="146"/>
+      <c r="K78" s="146"/>
+      <c r="L78" s="145"/>
+      <c r="M78" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="N79" s="150"/>
-      <c r="O79" s="150"/>
-      <c r="P79" s="154"/>
+      <c r="N78" s="145"/>
+      <c r="O78" s="145"/>
+      <c r="P78" s="149"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24"/>
+      <c r="S78" s="24"/>
+      <c r="T78" s="145"/>
+      <c r="U78" s="145" t="s">
+        <v>64</v>
+      </c>
+      <c r="V78" s="145"/>
+      <c r="W78" s="145"/>
+      <c r="X78" s="145"/>
+      <c r="Y78" s="135"/>
+      <c r="Z78" s="135"/>
+      <c r="AA78" s="135"/>
+      <c r="AB78" s="24"/>
+      <c r="AC78" s="24"/>
+      <c r="AD78" s="24"/>
+      <c r="AE78" s="24"/>
+      <c r="AF78" s="24"/>
+      <c r="AG78" s="24"/>
+      <c r="AH78" s="24"/>
+      <c r="AI78" s="24"/>
+      <c r="AJ78" s="24"/>
+      <c r="AK78" s="24"/>
+      <c r="AL78" s="24"/>
+      <c r="AM78" s="24"/>
+      <c r="AN78" s="24"/>
+      <c r="AO78" s="24"/>
+      <c r="AP78" s="24"/>
+      <c r="AQ78" s="24"/>
+    </row>
+    <row r="79" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="135"/>
+      <c r="F79" s="135"/>
+      <c r="G79" s="135"/>
+      <c r="H79" s="135"/>
+      <c r="I79" s="136"/>
+      <c r="J79" s="136"/>
+      <c r="K79" s="136"/>
+      <c r="L79" s="135" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M79" s="135"/>
+      <c r="N79" s="135"/>
+      <c r="O79" s="135"/>
+      <c r="P79" s="137"/>
       <c r="Q79" s="24"/>
       <c r="R79" s="24"/>
       <c r="S79" s="24"/>
-      <c r="T79" s="154"/>
-      <c r="U79" s="151" t="s">
-        <v>1018</v>
-      </c>
-      <c r="V79" s="151"/>
-      <c r="W79" s="151"/>
-      <c r="X79" s="150"/>
-      <c r="Y79" s="150" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z79" s="150"/>
-      <c r="AA79" s="150"/>
-      <c r="AB79" s="154"/>
+      <c r="T79" s="135"/>
+      <c r="U79" s="135"/>
+      <c r="V79" s="135"/>
+      <c r="W79" s="135"/>
+      <c r="X79" s="135"/>
+      <c r="Y79" s="135"/>
+      <c r="Z79" s="135"/>
+      <c r="AA79" s="135"/>
+      <c r="AB79" s="24"/>
       <c r="AC79" s="24"/>
       <c r="AD79" s="24"/>
       <c r="AE79" s="24"/>
-      <c r="AF79" s="150"/>
-      <c r="AG79" s="154"/>
-      <c r="AH79" s="154"/>
-      <c r="AI79" s="154"/>
-      <c r="AJ79" s="150"/>
-      <c r="AK79" s="150" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL79" s="150"/>
-      <c r="AM79" s="150"/>
-      <c r="AN79" s="150"/>
-      <c r="AO79" s="141"/>
-      <c r="AP79" s="141"/>
-      <c r="AQ79" s="141"/>
-    </row>
-    <row r="80" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B80" s="143"/>
-      <c r="C80" s="143"/>
-      <c r="D80" s="143"/>
-      <c r="E80" s="141"/>
-      <c r="F80" s="141"/>
-      <c r="G80" s="141"/>
-      <c r="H80" s="141"/>
-      <c r="I80" s="142"/>
-      <c r="J80" s="142"/>
-      <c r="K80" s="142"/>
-      <c r="L80" s="141"/>
-      <c r="M80" s="141"/>
-      <c r="N80" s="141"/>
-      <c r="O80" s="141"/>
-      <c r="P80" s="143"/>
-      <c r="Q80" s="24" t="s">
-        <v>1039</v>
-      </c>
+      <c r="AF79" s="24"/>
+      <c r="AG79" s="24"/>
+      <c r="AH79" s="24"/>
+      <c r="AI79" s="24"/>
+      <c r="AJ79" s="24"/>
+      <c r="AK79" s="24"/>
+      <c r="AL79" s="24"/>
+      <c r="AM79" s="24"/>
+      <c r="AN79" s="24"/>
+      <c r="AO79" s="24"/>
+      <c r="AP79" s="24"/>
+      <c r="AQ79" s="24"/>
+    </row>
+    <row r="80" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="135"/>
+      <c r="F80" s="135"/>
+      <c r="G80" s="135"/>
+      <c r="H80" s="135"/>
+      <c r="I80" s="136"/>
+      <c r="J80" s="136"/>
+      <c r="K80" s="136"/>
+      <c r="L80" s="135"/>
+      <c r="M80" s="135"/>
+      <c r="N80" s="135"/>
+      <c r="O80" s="135"/>
+      <c r="P80" s="137"/>
+      <c r="Q80" s="24"/>
       <c r="R80" s="24"/>
       <c r="S80" s="24"/>
-      <c r="T80" s="143"/>
-      <c r="U80" s="142"/>
-      <c r="V80" s="142"/>
-      <c r="W80" s="142"/>
-      <c r="X80" s="141"/>
-      <c r="Y80" s="141"/>
-      <c r="Z80" s="141"/>
-      <c r="AA80" s="141"/>
-      <c r="AB80" s="143"/>
+      <c r="T80" s="135"/>
+      <c r="U80" s="135"/>
+      <c r="V80" s="135"/>
+      <c r="W80" s="135"/>
+      <c r="X80" s="135"/>
+      <c r="Y80" s="135"/>
+      <c r="Z80" s="135"/>
+      <c r="AA80" s="135"/>
+      <c r="AB80" s="24"/>
       <c r="AC80" s="24"/>
       <c r="AD80" s="24"/>
       <c r="AE80" s="24"/>
-      <c r="AF80" s="141"/>
-      <c r="AG80" s="143"/>
-      <c r="AH80" s="143"/>
-      <c r="AI80" s="143"/>
-      <c r="AJ80" s="141"/>
-      <c r="AK80" s="141"/>
-      <c r="AL80" s="141"/>
-      <c r="AM80" s="141"/>
-      <c r="AN80" s="141"/>
-      <c r="AO80" s="141"/>
-      <c r="AP80" s="141"/>
-      <c r="AQ80" s="141"/>
-    </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B81" s="134" t="s">
-        <v>990</v>
+      <c r="AF80" s="24"/>
+      <c r="AG80" s="24"/>
+      <c r="AH80" s="24"/>
+      <c r="AI80" s="24"/>
+      <c r="AJ80" s="24"/>
+      <c r="AK80" s="24"/>
+      <c r="AL80" s="24"/>
+      <c r="AM80" s="24"/>
+      <c r="AN80" s="24"/>
+      <c r="AO80" s="24"/>
+      <c r="AP80" s="24"/>
+      <c r="AQ80" s="24"/>
+    </row>
+    <row r="81" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B81" s="24" t="s">
+        <v>1006</v>
       </c>
       <c r="C81" s="24"/>
       <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="24"/>
-      <c r="N81" s="24"/>
-      <c r="O81" s="24"/>
-      <c r="P81" s="24"/>
-      <c r="Q81" s="24"/>
-      <c r="R81" s="24"/>
-      <c r="S81" s="24"/>
-      <c r="T81" s="24"/>
-      <c r="U81" s="24"/>
-      <c r="V81" s="24"/>
-      <c r="W81" s="24"/>
-    </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B82" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="24"/>
-      <c r="M82" s="24"/>
-      <c r="N82" s="24"/>
-      <c r="O82" s="24"/>
-      <c r="P82" s="24"/>
-      <c r="Q82" s="24"/>
-      <c r="R82" s="24"/>
-      <c r="S82" s="24"/>
-      <c r="T82" s="24"/>
-      <c r="U82" s="24"/>
-      <c r="V82" s="24"/>
-      <c r="W82" s="24"/>
-    </row>
-    <row r="83" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="153" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C83" s="154"/>
-      <c r="D83" s="154"/>
-      <c r="E83" s="154">
-        <v>1</v>
-      </c>
-      <c r="F83" s="154"/>
-      <c r="G83" s="154"/>
-      <c r="H83" s="150" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I83" s="155" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J83" s="156"/>
-      <c r="K83" s="156"/>
-      <c r="L83" s="150" t="s">
+      <c r="E81" s="135"/>
+      <c r="F81" s="135"/>
+      <c r="G81" s="135"/>
+      <c r="H81" s="135"/>
+      <c r="I81" s="136"/>
+      <c r="J81" s="136"/>
+      <c r="K81" s="136"/>
+      <c r="L81" s="135"/>
+      <c r="M81" s="135"/>
+      <c r="N81" s="135"/>
+      <c r="O81" s="135"/>
+      <c r="P81" s="135"/>
+      <c r="Q81" s="135"/>
+      <c r="R81" s="135"/>
+      <c r="S81" s="135"/>
+      <c r="T81" s="135"/>
+      <c r="U81" s="135"/>
+      <c r="V81" s="135"/>
+      <c r="W81" s="135"/>
+      <c r="X81" s="24"/>
+      <c r="Y81" s="24"/>
+      <c r="Z81" s="24"/>
+      <c r="AA81" s="24"/>
+      <c r="AB81" s="24"/>
+      <c r="AC81" s="24"/>
+      <c r="AD81" s="24"/>
+      <c r="AE81" s="24"/>
+      <c r="AF81" s="24"/>
+      <c r="AG81" s="24"/>
+      <c r="AH81" s="24"/>
+      <c r="AI81" s="24"/>
+      <c r="AJ81" s="24"/>
+      <c r="AK81" s="24"/>
+      <c r="AL81" s="24"/>
+      <c r="AM81" s="24"/>
+      <c r="AN81" s="24"/>
+      <c r="AO81" s="24"/>
+      <c r="AP81" s="24"/>
+      <c r="AQ81" s="24"/>
+    </row>
+    <row r="82" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B82" s="148" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C82" s="149"/>
+      <c r="D82" s="149"/>
+      <c r="E82" s="147" t="s">
+        <v>229</v>
+      </c>
+      <c r="F82" s="145"/>
+      <c r="G82" s="145"/>
+      <c r="H82" s="145" t="s">
         <v>60</v>
       </c>
-      <c r="M83" s="150" t="s">
-        <v>1027</v>
-      </c>
-      <c r="N83" s="150"/>
-      <c r="O83" s="150"/>
-      <c r="P83" s="154" t="s">
+      <c r="I82" s="150" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J82" s="151"/>
+      <c r="K82" s="151"/>
+      <c r="L82" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="M82" s="145" t="s">
+        <v>1015</v>
+      </c>
+      <c r="N82" s="145"/>
+      <c r="O82" s="145"/>
+      <c r="P82" s="149" t="s">
+        <v>1009</v>
+      </c>
+      <c r="Q82" s="149" t="s">
         <v>1014</v>
       </c>
-      <c r="Q83" s="154" t="s">
-        <v>1029</v>
-      </c>
-      <c r="R83" s="154"/>
-      <c r="S83" s="154"/>
-      <c r="T83" s="150" t="s">
+      <c r="R82" s="149"/>
+      <c r="S82" s="149"/>
+      <c r="T82" s="145" t="s">
         <v>60</v>
       </c>
-      <c r="U83" s="152" t="s">
-        <v>965</v>
-      </c>
-      <c r="V83" s="150"/>
-      <c r="W83" s="150"/>
-    </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B84" s="154"/>
-      <c r="C84" s="154"/>
-      <c r="D84" s="154"/>
-      <c r="E84" s="154"/>
-      <c r="F84" s="154"/>
-      <c r="G84" s="154"/>
-      <c r="H84" s="150"/>
-      <c r="I84" s="156"/>
-      <c r="J84" s="156"/>
-      <c r="K84" s="156"/>
-      <c r="L84" s="150"/>
-      <c r="M84" s="150"/>
-      <c r="N84" s="150"/>
-      <c r="O84" s="150"/>
-      <c r="P84" s="154"/>
-      <c r="Q84" s="154"/>
-      <c r="R84" s="154"/>
-      <c r="S84" s="154"/>
-      <c r="T84" s="150"/>
-      <c r="U84" s="150"/>
-      <c r="V84" s="150"/>
-      <c r="W84" s="150"/>
-    </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B85" s="154"/>
-      <c r="C85" s="154"/>
-      <c r="D85" s="154"/>
-      <c r="E85" s="154"/>
-      <c r="F85" s="154"/>
-      <c r="G85" s="154"/>
-      <c r="H85" s="150"/>
-      <c r="I85" s="156"/>
-      <c r="J85" s="156"/>
-      <c r="K85" s="156"/>
-      <c r="L85" s="150"/>
-      <c r="M85" s="150"/>
-      <c r="N85" s="150"/>
-      <c r="O85" s="150"/>
-      <c r="P85" s="154"/>
-      <c r="Q85" s="154"/>
-      <c r="R85" s="154"/>
-      <c r="S85" s="154"/>
-      <c r="T85" s="150"/>
-      <c r="U85" s="150"/>
-      <c r="V85" s="150"/>
-      <c r="W85" s="150"/>
-    </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B86" s="154"/>
-      <c r="C86" s="154"/>
-      <c r="D86" s="154"/>
-      <c r="E86" s="154"/>
-      <c r="F86" s="154"/>
-      <c r="G86" s="154"/>
-      <c r="H86" s="150"/>
-      <c r="I86" s="156"/>
-      <c r="J86" s="156"/>
-      <c r="K86" s="156"/>
-      <c r="L86" s="150"/>
-      <c r="M86" s="150"/>
-      <c r="N86" s="150"/>
-      <c r="O86" s="150"/>
-      <c r="P86" s="154"/>
-      <c r="Q86" s="154"/>
-      <c r="R86" s="154"/>
-      <c r="S86" s="154"/>
-      <c r="T86" s="150"/>
-      <c r="U86" s="150"/>
-      <c r="V86" s="150"/>
-      <c r="W86" s="150"/>
-    </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B87" s="24"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="150"/>
-      <c r="I87" s="151" t="s">
-        <v>1018</v>
-      </c>
-      <c r="J87" s="151"/>
-      <c r="K87" s="151"/>
-      <c r="L87" s="150"/>
-      <c r="M87" s="150" t="s">
-        <v>1028</v>
-      </c>
-      <c r="N87" s="150"/>
-      <c r="O87" s="150"/>
-      <c r="P87" s="154"/>
+      <c r="U82" s="148" t="s">
+        <v>1049</v>
+      </c>
+      <c r="V82" s="149"/>
+      <c r="W82" s="149"/>
+      <c r="X82" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y82" s="147" t="s">
+        <v>963</v>
+      </c>
+      <c r="Z82" s="145"/>
+      <c r="AA82" s="145"/>
+      <c r="AB82" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC82" s="145" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD82" s="145"/>
+      <c r="AE82" s="145"/>
+      <c r="AF82" s="24"/>
+      <c r="AG82" s="24"/>
+      <c r="AH82" s="24"/>
+      <c r="AI82" s="24"/>
+      <c r="AJ82" s="24"/>
+      <c r="AK82" s="24"/>
+      <c r="AL82" s="24"/>
+      <c r="AM82" s="24"/>
+      <c r="AN82" s="24"/>
+      <c r="AO82" s="24"/>
+      <c r="AP82" s="24"/>
+      <c r="AQ82" s="24"/>
+    </row>
+    <row r="83" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B83" s="149"/>
+      <c r="C83" s="149"/>
+      <c r="D83" s="149"/>
+      <c r="E83" s="145"/>
+      <c r="F83" s="145"/>
+      <c r="G83" s="145"/>
+      <c r="H83" s="145"/>
+      <c r="I83" s="151"/>
+      <c r="J83" s="151"/>
+      <c r="K83" s="151"/>
+      <c r="L83" s="145"/>
+      <c r="M83" s="145"/>
+      <c r="N83" s="145"/>
+      <c r="O83" s="145"/>
+      <c r="P83" s="149"/>
+      <c r="Q83" s="149"/>
+      <c r="R83" s="149"/>
+      <c r="S83" s="149"/>
+      <c r="T83" s="145"/>
+      <c r="U83" s="149"/>
+      <c r="V83" s="149"/>
+      <c r="W83" s="149"/>
+      <c r="X83" s="145"/>
+      <c r="Y83" s="145"/>
+      <c r="Z83" s="145"/>
+      <c r="AA83" s="145"/>
+      <c r="AB83" s="145"/>
+      <c r="AC83" s="145"/>
+      <c r="AD83" s="145"/>
+      <c r="AE83" s="145"/>
+      <c r="AF83" s="24"/>
+      <c r="AG83" s="24"/>
+      <c r="AH83" s="24"/>
+      <c r="AI83" s="24"/>
+      <c r="AJ83" s="24"/>
+      <c r="AK83" s="24"/>
+      <c r="AL83" s="24"/>
+      <c r="AM83" s="24"/>
+      <c r="AN83" s="24"/>
+      <c r="AO83" s="24"/>
+      <c r="AP83" s="24"/>
+      <c r="AQ83" s="24"/>
+    </row>
+    <row r="84" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B84" s="149"/>
+      <c r="C84" s="149"/>
+      <c r="D84" s="149"/>
+      <c r="E84" s="145"/>
+      <c r="F84" s="145"/>
+      <c r="G84" s="145"/>
+      <c r="H84" s="145"/>
+      <c r="I84" s="151"/>
+      <c r="J84" s="151"/>
+      <c r="K84" s="151"/>
+      <c r="L84" s="145"/>
+      <c r="M84" s="145"/>
+      <c r="N84" s="145"/>
+      <c r="O84" s="145"/>
+      <c r="P84" s="149"/>
+      <c r="Q84" s="149"/>
+      <c r="R84" s="149"/>
+      <c r="S84" s="149"/>
+      <c r="T84" s="145"/>
+      <c r="U84" s="149"/>
+      <c r="V84" s="149"/>
+      <c r="W84" s="149"/>
+      <c r="X84" s="145"/>
+      <c r="Y84" s="145"/>
+      <c r="Z84" s="145"/>
+      <c r="AA84" s="145"/>
+      <c r="AB84" s="145"/>
+      <c r="AC84" s="145"/>
+      <c r="AD84" s="145"/>
+      <c r="AE84" s="145"/>
+      <c r="AF84" s="24"/>
+      <c r="AG84" s="24"/>
+      <c r="AH84" s="24"/>
+      <c r="AI84" s="24"/>
+      <c r="AJ84" s="24"/>
+      <c r="AK84" s="24"/>
+      <c r="AL84" s="24"/>
+      <c r="AM84" s="24"/>
+      <c r="AN84" s="24"/>
+      <c r="AO84" s="24"/>
+      <c r="AP84" s="24"/>
+      <c r="AQ84" s="24"/>
+    </row>
+    <row r="85" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B85" s="149"/>
+      <c r="C85" s="149"/>
+      <c r="D85" s="149"/>
+      <c r="E85" s="145"/>
+      <c r="F85" s="145"/>
+      <c r="G85" s="145"/>
+      <c r="H85" s="145"/>
+      <c r="I85" s="151"/>
+      <c r="J85" s="151"/>
+      <c r="K85" s="151"/>
+      <c r="L85" s="145"/>
+      <c r="M85" s="145"/>
+      <c r="N85" s="145"/>
+      <c r="O85" s="145"/>
+      <c r="P85" s="149"/>
+      <c r="Q85" s="149"/>
+      <c r="R85" s="149"/>
+      <c r="S85" s="149"/>
+      <c r="T85" s="145"/>
+      <c r="U85" s="149"/>
+      <c r="V85" s="149"/>
+      <c r="W85" s="149"/>
+      <c r="X85" s="145"/>
+      <c r="Y85" s="145"/>
+      <c r="Z85" s="145"/>
+      <c r="AA85" s="145"/>
+      <c r="AB85" s="145"/>
+      <c r="AC85" s="145"/>
+      <c r="AD85" s="145"/>
+      <c r="AE85" s="145"/>
+      <c r="AF85" s="24"/>
+      <c r="AG85" s="24"/>
+      <c r="AH85" s="24"/>
+      <c r="AI85" s="24"/>
+      <c r="AJ85" s="24"/>
+      <c r="AK85" s="24"/>
+      <c r="AL85" s="24"/>
+      <c r="AM85" s="24"/>
+      <c r="AN85" s="24"/>
+      <c r="AO85" s="24"/>
+      <c r="AP85" s="24"/>
+      <c r="AQ85" s="24"/>
+    </row>
+    <row r="86" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B86" s="137"/>
+      <c r="C86" s="137"/>
+      <c r="D86" s="137"/>
+      <c r="E86" s="145" t="s">
+        <v>59</v>
+      </c>
+      <c r="F86" s="145"/>
+      <c r="G86" s="145"/>
+      <c r="H86" s="145"/>
+      <c r="I86" s="146" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J86" s="146"/>
+      <c r="K86" s="146"/>
+      <c r="L86" s="145"/>
+      <c r="M86" s="145" t="s">
+        <v>67</v>
+      </c>
+      <c r="N86" s="145"/>
+      <c r="O86" s="145"/>
+      <c r="P86" s="149"/>
+      <c r="Q86" s="24"/>
+      <c r="R86" s="24"/>
+      <c r="S86" s="24"/>
+      <c r="T86" s="145"/>
+      <c r="U86" s="149"/>
+      <c r="V86" s="149"/>
+      <c r="W86" s="149"/>
+      <c r="X86" s="145"/>
+      <c r="Y86" s="145" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z86" s="145"/>
+      <c r="AA86" s="145"/>
+      <c r="AB86" s="145"/>
+      <c r="AC86" s="135"/>
+      <c r="AD86" s="135"/>
+      <c r="AE86" s="135"/>
+      <c r="AF86" s="24"/>
+      <c r="AG86" s="24"/>
+      <c r="AH86" s="24"/>
+      <c r="AI86" s="24"/>
+      <c r="AJ86" s="24"/>
+      <c r="AK86" s="24"/>
+      <c r="AL86" s="24"/>
+      <c r="AM86" s="24"/>
+      <c r="AN86" s="24"/>
+      <c r="AO86" s="24"/>
+      <c r="AP86" s="24"/>
+      <c r="AQ86" s="24"/>
+    </row>
+    <row r="87" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B87" s="137"/>
+      <c r="C87" s="137"/>
+      <c r="D87" s="137"/>
+      <c r="E87" s="135"/>
+      <c r="F87" s="135"/>
+      <c r="G87" s="135"/>
+      <c r="H87" s="145"/>
+      <c r="I87" s="136"/>
+      <c r="J87" s="136"/>
+      <c r="K87" s="136"/>
+      <c r="L87" s="129"/>
+      <c r="M87" s="135" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N87" s="135"/>
+      <c r="O87" s="135"/>
+      <c r="P87" s="137"/>
       <c r="Q87" s="24"/>
       <c r="R87" s="24"/>
       <c r="S87" s="24"/>
-      <c r="T87" s="150"/>
-      <c r="U87" s="150" t="s">
-        <v>64</v>
-      </c>
-      <c r="V87" s="150"/>
-      <c r="W87" s="150"/>
-    </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="24"/>
-      <c r="L88" s="24" t="s">
-        <v>1040</v>
-      </c>
-      <c r="M88" s="24"/>
-      <c r="N88" s="24"/>
-      <c r="O88" s="24"/>
-      <c r="P88" s="24"/>
+      <c r="T87" s="135"/>
+      <c r="U87" s="137"/>
+      <c r="V87" s="137"/>
+      <c r="W87" s="137"/>
+      <c r="X87" s="129"/>
+      <c r="Y87" s="135"/>
+      <c r="Z87" s="135"/>
+      <c r="AA87" s="135"/>
+      <c r="AB87" s="135"/>
+      <c r="AC87" s="135"/>
+      <c r="AD87" s="135"/>
+      <c r="AE87" s="135"/>
+      <c r="AF87" s="24"/>
+      <c r="AG87" s="24"/>
+      <c r="AH87" s="24"/>
+      <c r="AI87" s="24"/>
+      <c r="AJ87" s="24"/>
+      <c r="AK87" s="24"/>
+      <c r="AL87" s="24"/>
+      <c r="AM87" s="24"/>
+      <c r="AN87" s="24"/>
+      <c r="AO87" s="24"/>
+      <c r="AP87" s="24"/>
+      <c r="AQ87" s="24"/>
+    </row>
+    <row r="88" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B88" s="137"/>
+      <c r="C88" s="137"/>
+      <c r="D88" s="137"/>
+      <c r="E88" s="135"/>
+      <c r="F88" s="135"/>
+      <c r="G88" s="135"/>
+      <c r="H88" s="145"/>
+      <c r="I88" s="136"/>
+      <c r="J88" s="136"/>
+      <c r="K88" s="136"/>
+      <c r="L88" s="129"/>
+      <c r="M88" s="135"/>
+      <c r="N88" s="135"/>
+      <c r="O88" s="135"/>
+      <c r="P88" s="137"/>
       <c r="Q88" s="24"/>
       <c r="R88" s="24"/>
       <c r="S88" s="24"/>
-      <c r="T88" s="24"/>
-      <c r="U88" s="24"/>
-      <c r="V88" s="24"/>
-      <c r="W88" s="24"/>
+      <c r="T88" s="135"/>
+      <c r="U88" s="137"/>
+      <c r="V88" s="137"/>
+      <c r="W88" s="137"/>
+      <c r="X88" s="129"/>
+      <c r="Y88" s="135"/>
+      <c r="Z88" s="135"/>
+      <c r="AA88" s="135"/>
+      <c r="AB88" s="135"/>
+      <c r="AC88" s="135"/>
+      <c r="AD88" s="135"/>
+      <c r="AE88" s="135"/>
+      <c r="AF88" s="24"/>
+      <c r="AG88" s="24"/>
+      <c r="AH88" s="24"/>
+      <c r="AI88" s="24"/>
+      <c r="AJ88" s="24"/>
+      <c r="AK88" s="24"/>
+      <c r="AL88" s="24"/>
+      <c r="AM88" s="24"/>
+      <c r="AN88" s="24"/>
+      <c r="AO88" s="24"/>
+      <c r="AP88" s="24"/>
+      <c r="AQ88" s="24"/>
+    </row>
+    <row r="89" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B89" s="24" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="145"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="129"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
+      <c r="S89" s="24"/>
+      <c r="T89" s="24"/>
+      <c r="U89" s="24"/>
+      <c r="V89" s="24"/>
+      <c r="W89" s="24"/>
+      <c r="X89" s="129"/>
+      <c r="Y89" s="24"/>
+      <c r="Z89" s="24"/>
+      <c r="AA89" s="24"/>
+      <c r="AB89" s="135"/>
+      <c r="AC89" s="135"/>
+      <c r="AD89" s="135"/>
+      <c r="AE89" s="135"/>
+      <c r="AF89" s="24"/>
+      <c r="AG89" s="24"/>
+      <c r="AH89" s="24"/>
+      <c r="AI89" s="24"/>
+      <c r="AJ89" s="24"/>
+      <c r="AK89" s="24"/>
+      <c r="AL89" s="24"/>
+      <c r="AM89" s="24"/>
+      <c r="AN89" s="24"/>
+      <c r="AO89" s="24"/>
+      <c r="AP89" s="24"/>
+      <c r="AQ89" s="24"/>
+    </row>
+    <row r="90" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="148" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C90" s="149"/>
+      <c r="D90" s="149"/>
+      <c r="E90" s="147" t="s">
+        <v>229</v>
+      </c>
+      <c r="F90" s="145"/>
+      <c r="G90" s="145"/>
+      <c r="H90" s="145" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I90" s="150" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J90" s="151"/>
+      <c r="K90" s="151"/>
+      <c r="L90" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="M90" s="145" t="s">
+        <v>1010</v>
+      </c>
+      <c r="N90" s="145"/>
+      <c r="O90" s="145"/>
+      <c r="P90" s="149" t="s">
+        <v>1009</v>
+      </c>
+      <c r="Q90" s="149" t="s">
+        <v>1011</v>
+      </c>
+      <c r="R90" s="149"/>
+      <c r="S90" s="149"/>
+      <c r="T90" s="149" t="s">
+        <v>1009</v>
+      </c>
+      <c r="U90" s="150" t="s">
+        <v>1012</v>
+      </c>
+      <c r="V90" s="151"/>
+      <c r="W90" s="151"/>
+      <c r="X90" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y90" s="145" t="s">
+        <v>1015</v>
+      </c>
+      <c r="Z90" s="145"/>
+      <c r="AA90" s="145"/>
+      <c r="AB90" s="149" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AC90" s="149" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AD90" s="149"/>
+      <c r="AE90" s="149"/>
+      <c r="AF90" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG90" s="148" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AH90" s="149"/>
+      <c r="AI90" s="149"/>
+      <c r="AJ90" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK90" s="147" t="s">
+        <v>963</v>
+      </c>
+      <c r="AL90" s="145"/>
+      <c r="AM90" s="145"/>
+      <c r="AN90" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO90" s="145" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP90" s="145"/>
+      <c r="AQ90" s="145"/>
+    </row>
+    <row r="91" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B91" s="149"/>
+      <c r="C91" s="149"/>
+      <c r="D91" s="149"/>
+      <c r="E91" s="145"/>
+      <c r="F91" s="145"/>
+      <c r="G91" s="145"/>
+      <c r="H91" s="145"/>
+      <c r="I91" s="151"/>
+      <c r="J91" s="151"/>
+      <c r="K91" s="151"/>
+      <c r="L91" s="145"/>
+      <c r="M91" s="145"/>
+      <c r="N91" s="145"/>
+      <c r="O91" s="145"/>
+      <c r="P91" s="149"/>
+      <c r="Q91" s="149"/>
+      <c r="R91" s="149"/>
+      <c r="S91" s="149"/>
+      <c r="T91" s="149"/>
+      <c r="U91" s="151"/>
+      <c r="V91" s="151"/>
+      <c r="W91" s="151"/>
+      <c r="X91" s="145"/>
+      <c r="Y91" s="145"/>
+      <c r="Z91" s="145"/>
+      <c r="AA91" s="145"/>
+      <c r="AB91" s="149"/>
+      <c r="AC91" s="149"/>
+      <c r="AD91" s="149"/>
+      <c r="AE91" s="149"/>
+      <c r="AF91" s="145"/>
+      <c r="AG91" s="149"/>
+      <c r="AH91" s="149"/>
+      <c r="AI91" s="149"/>
+      <c r="AJ91" s="145"/>
+      <c r="AK91" s="145"/>
+      <c r="AL91" s="145"/>
+      <c r="AM91" s="145"/>
+      <c r="AN91" s="145"/>
+      <c r="AO91" s="145"/>
+      <c r="AP91" s="145"/>
+      <c r="AQ91" s="145"/>
+    </row>
+    <row r="92" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B92" s="149"/>
+      <c r="C92" s="149"/>
+      <c r="D92" s="149"/>
+      <c r="E92" s="145"/>
+      <c r="F92" s="145"/>
+      <c r="G92" s="145"/>
+      <c r="H92" s="145"/>
+      <c r="I92" s="151"/>
+      <c r="J92" s="151"/>
+      <c r="K92" s="151"/>
+      <c r="L92" s="145"/>
+      <c r="M92" s="145"/>
+      <c r="N92" s="145"/>
+      <c r="O92" s="145"/>
+      <c r="P92" s="149"/>
+      <c r="Q92" s="149"/>
+      <c r="R92" s="149"/>
+      <c r="S92" s="149"/>
+      <c r="T92" s="149"/>
+      <c r="U92" s="151"/>
+      <c r="V92" s="151"/>
+      <c r="W92" s="151"/>
+      <c r="X92" s="145"/>
+      <c r="Y92" s="145"/>
+      <c r="Z92" s="145"/>
+      <c r="AA92" s="145"/>
+      <c r="AB92" s="149"/>
+      <c r="AC92" s="149"/>
+      <c r="AD92" s="149"/>
+      <c r="AE92" s="149"/>
+      <c r="AF92" s="145"/>
+      <c r="AG92" s="149"/>
+      <c r="AH92" s="149"/>
+      <c r="AI92" s="149"/>
+      <c r="AJ92" s="145"/>
+      <c r="AK92" s="145"/>
+      <c r="AL92" s="145"/>
+      <c r="AM92" s="145"/>
+      <c r="AN92" s="145"/>
+      <c r="AO92" s="145"/>
+      <c r="AP92" s="145"/>
+      <c r="AQ92" s="145"/>
+    </row>
+    <row r="93" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B93" s="149"/>
+      <c r="C93" s="149"/>
+      <c r="D93" s="149"/>
+      <c r="E93" s="145"/>
+      <c r="F93" s="145"/>
+      <c r="G93" s="145"/>
+      <c r="H93" s="145"/>
+      <c r="I93" s="151"/>
+      <c r="J93" s="151"/>
+      <c r="K93" s="151"/>
+      <c r="L93" s="145"/>
+      <c r="M93" s="145"/>
+      <c r="N93" s="145"/>
+      <c r="O93" s="145"/>
+      <c r="P93" s="149"/>
+      <c r="Q93" s="149"/>
+      <c r="R93" s="149"/>
+      <c r="S93" s="149"/>
+      <c r="T93" s="149"/>
+      <c r="U93" s="151"/>
+      <c r="V93" s="151"/>
+      <c r="W93" s="151"/>
+      <c r="X93" s="145"/>
+      <c r="Y93" s="145"/>
+      <c r="Z93" s="145"/>
+      <c r="AA93" s="145"/>
+      <c r="AB93" s="149"/>
+      <c r="AC93" s="149"/>
+      <c r="AD93" s="149"/>
+      <c r="AE93" s="149"/>
+      <c r="AF93" s="145"/>
+      <c r="AG93" s="149"/>
+      <c r="AH93" s="149"/>
+      <c r="AI93" s="149"/>
+      <c r="AJ93" s="145"/>
+      <c r="AK93" s="145"/>
+      <c r="AL93" s="145"/>
+      <c r="AM93" s="145"/>
+      <c r="AN93" s="145"/>
+      <c r="AO93" s="145"/>
+      <c r="AP93" s="145"/>
+      <c r="AQ93" s="145"/>
+    </row>
+    <row r="94" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B94" s="137"/>
+      <c r="C94" s="137"/>
+      <c r="D94" s="137"/>
+      <c r="E94" s="145" t="s">
+        <v>59</v>
+      </c>
+      <c r="F94" s="145"/>
+      <c r="G94" s="145"/>
+      <c r="H94" s="145"/>
+      <c r="I94" s="146" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J94" s="146"/>
+      <c r="K94" s="146"/>
+      <c r="L94" s="145"/>
+      <c r="M94" s="145" t="s">
+        <v>67</v>
+      </c>
+      <c r="N94" s="145"/>
+      <c r="O94" s="145"/>
+      <c r="P94" s="149"/>
+      <c r="Q94" s="24"/>
+      <c r="R94" s="24"/>
+      <c r="S94" s="24"/>
+      <c r="T94" s="149"/>
+      <c r="U94" s="146" t="s">
+        <v>1013</v>
+      </c>
+      <c r="V94" s="146"/>
+      <c r="W94" s="146"/>
+      <c r="X94" s="145"/>
+      <c r="Y94" s="145" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z94" s="145"/>
+      <c r="AA94" s="145"/>
+      <c r="AB94" s="149"/>
+      <c r="AC94" s="24"/>
+      <c r="AD94" s="24"/>
+      <c r="AE94" s="24"/>
+      <c r="AF94" s="145"/>
+      <c r="AG94" s="149"/>
+      <c r="AH94" s="149"/>
+      <c r="AI94" s="149"/>
+      <c r="AJ94" s="145"/>
+      <c r="AK94" s="145" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL94" s="145"/>
+      <c r="AM94" s="145"/>
+      <c r="AN94" s="145"/>
+      <c r="AO94" s="135"/>
+      <c r="AP94" s="135"/>
+      <c r="AQ94" s="135"/>
+    </row>
+    <row r="95" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B95" s="137"/>
+      <c r="C95" s="137"/>
+      <c r="D95" s="137"/>
+      <c r="E95" s="135"/>
+      <c r="F95" s="135"/>
+      <c r="G95" s="135"/>
+      <c r="H95" s="135"/>
+      <c r="I95" s="136"/>
+      <c r="J95" s="136"/>
+      <c r="K95" s="136"/>
+      <c r="L95" s="135"/>
+      <c r="M95" s="135"/>
+      <c r="N95" s="135"/>
+      <c r="O95" s="135"/>
+      <c r="P95" s="137"/>
+      <c r="Q95" s="24" t="s">
+        <v>1034</v>
+      </c>
+      <c r="R95" s="24"/>
+      <c r="S95" s="24"/>
+      <c r="T95" s="137"/>
+      <c r="U95" s="136"/>
+      <c r="V95" s="136"/>
+      <c r="W95" s="136"/>
+      <c r="X95" s="135"/>
+      <c r="Y95" s="135"/>
+      <c r="Z95" s="135"/>
+      <c r="AA95" s="135"/>
+      <c r="AB95" s="137"/>
+      <c r="AC95" s="24"/>
+      <c r="AD95" s="24"/>
+      <c r="AE95" s="24"/>
+      <c r="AF95" s="135"/>
+      <c r="AG95" s="137"/>
+      <c r="AH95" s="137"/>
+      <c r="AI95" s="137"/>
+      <c r="AJ95" s="135"/>
+      <c r="AK95" s="135"/>
+      <c r="AL95" s="135"/>
+      <c r="AM95" s="135"/>
+      <c r="AN95" s="135"/>
+      <c r="AO95" s="135"/>
+      <c r="AP95" s="135"/>
+      <c r="AQ95" s="135"/>
+    </row>
+    <row r="96" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B96" s="128" t="s">
+        <v>985</v>
+      </c>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="24"/>
+      <c r="O96" s="24"/>
+      <c r="P96" s="24"/>
+      <c r="Q96" s="24"/>
+      <c r="R96" s="24"/>
+      <c r="S96" s="24"/>
+      <c r="T96" s="24"/>
+      <c r="U96" s="24"/>
+      <c r="V96" s="24"/>
+      <c r="W96" s="24"/>
+    </row>
+    <row r="97" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B97" s="24" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="24"/>
+      <c r="O97" s="24"/>
+      <c r="P97" s="24"/>
+      <c r="Q97" s="24"/>
+      <c r="R97" s="24"/>
+      <c r="S97" s="24"/>
+      <c r="T97" s="24"/>
+      <c r="U97" s="24"/>
+      <c r="V97" s="24"/>
+      <c r="W97" s="24"/>
+    </row>
+    <row r="98" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="148" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C98" s="149"/>
+      <c r="D98" s="149"/>
+      <c r="E98" s="149">
+        <v>1</v>
+      </c>
+      <c r="F98" s="149"/>
+      <c r="G98" s="149"/>
+      <c r="H98" s="145" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I98" s="150" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J98" s="151"/>
+      <c r="K98" s="151"/>
+      <c r="L98" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="M98" s="145" t="s">
+        <v>1022</v>
+      </c>
+      <c r="N98" s="145"/>
+      <c r="O98" s="145"/>
+      <c r="P98" s="149" t="s">
+        <v>1009</v>
+      </c>
+      <c r="Q98" s="149" t="s">
+        <v>1024</v>
+      </c>
+      <c r="R98" s="149"/>
+      <c r="S98" s="149"/>
+      <c r="T98" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="U98" s="147" t="s">
+        <v>963</v>
+      </c>
+      <c r="V98" s="145"/>
+      <c r="W98" s="145"/>
+    </row>
+    <row r="99" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B99" s="149"/>
+      <c r="C99" s="149"/>
+      <c r="D99" s="149"/>
+      <c r="E99" s="149"/>
+      <c r="F99" s="149"/>
+      <c r="G99" s="149"/>
+      <c r="H99" s="145"/>
+      <c r="I99" s="151"/>
+      <c r="J99" s="151"/>
+      <c r="K99" s="151"/>
+      <c r="L99" s="145"/>
+      <c r="M99" s="145"/>
+      <c r="N99" s="145"/>
+      <c r="O99" s="145"/>
+      <c r="P99" s="149"/>
+      <c r="Q99" s="149"/>
+      <c r="R99" s="149"/>
+      <c r="S99" s="149"/>
+      <c r="T99" s="145"/>
+      <c r="U99" s="145"/>
+      <c r="V99" s="145"/>
+      <c r="W99" s="145"/>
+    </row>
+    <row r="100" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B100" s="149"/>
+      <c r="C100" s="149"/>
+      <c r="D100" s="149"/>
+      <c r="E100" s="149"/>
+      <c r="F100" s="149"/>
+      <c r="G100" s="149"/>
+      <c r="H100" s="145"/>
+      <c r="I100" s="151"/>
+      <c r="J100" s="151"/>
+      <c r="K100" s="151"/>
+      <c r="L100" s="145"/>
+      <c r="M100" s="145"/>
+      <c r="N100" s="145"/>
+      <c r="O100" s="145"/>
+      <c r="P100" s="149"/>
+      <c r="Q100" s="149"/>
+      <c r="R100" s="149"/>
+      <c r="S100" s="149"/>
+      <c r="T100" s="145"/>
+      <c r="U100" s="145"/>
+      <c r="V100" s="145"/>
+      <c r="W100" s="145"/>
+    </row>
+    <row r="101" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B101" s="149"/>
+      <c r="C101" s="149"/>
+      <c r="D101" s="149"/>
+      <c r="E101" s="149"/>
+      <c r="F101" s="149"/>
+      <c r="G101" s="149"/>
+      <c r="H101" s="145"/>
+      <c r="I101" s="151"/>
+      <c r="J101" s="151"/>
+      <c r="K101" s="151"/>
+      <c r="L101" s="145"/>
+      <c r="M101" s="145"/>
+      <c r="N101" s="145"/>
+      <c r="O101" s="145"/>
+      <c r="P101" s="149"/>
+      <c r="Q101" s="149"/>
+      <c r="R101" s="149"/>
+      <c r="S101" s="149"/>
+      <c r="T101" s="145"/>
+      <c r="U101" s="145"/>
+      <c r="V101" s="145"/>
+      <c r="W101" s="145"/>
+    </row>
+    <row r="102" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="145"/>
+      <c r="I102" s="146" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J102" s="146"/>
+      <c r="K102" s="146"/>
+      <c r="L102" s="145"/>
+      <c r="M102" s="145" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N102" s="145"/>
+      <c r="O102" s="145"/>
+      <c r="P102" s="149"/>
+      <c r="Q102" s="24"/>
+      <c r="R102" s="24"/>
+      <c r="S102" s="24"/>
+      <c r="T102" s="145"/>
+      <c r="U102" s="145" t="s">
+        <v>64</v>
+      </c>
+      <c r="V102" s="145"/>
+      <c r="W102" s="145"/>
+    </row>
+    <row r="103" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B103" s="24"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="24"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="24" t="s">
+        <v>1035</v>
+      </c>
+      <c r="M103" s="24"/>
+      <c r="N103" s="24"/>
+      <c r="O103" s="24"/>
+      <c r="P103" s="24"/>
+      <c r="Q103" s="24"/>
+      <c r="R103" s="24"/>
+      <c r="S103" s="24"/>
+      <c r="T103" s="24"/>
+      <c r="U103" s="24"/>
+      <c r="V103" s="24"/>
+      <c r="W103" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="T83:T87"/>
-    <mergeCell ref="U83:W86"/>
-    <mergeCell ref="U87:W87"/>
-    <mergeCell ref="L83:L87"/>
-    <mergeCell ref="M83:O86"/>
-    <mergeCell ref="P83:P87"/>
-    <mergeCell ref="Q83:S86"/>
-    <mergeCell ref="I87:K87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="B83:D86"/>
-    <mergeCell ref="H83:H87"/>
-    <mergeCell ref="E83:G86"/>
-    <mergeCell ref="I83:K86"/>
-    <mergeCell ref="AJ75:AJ79"/>
-    <mergeCell ref="AK75:AM78"/>
-    <mergeCell ref="AN75:AN79"/>
-    <mergeCell ref="AO75:AQ78"/>
-    <mergeCell ref="AK79:AM79"/>
-    <mergeCell ref="AF75:AF79"/>
-    <mergeCell ref="AG75:AI78"/>
-    <mergeCell ref="AG79:AI79"/>
-    <mergeCell ref="X67:X71"/>
-    <mergeCell ref="U75:W78"/>
-    <mergeCell ref="X75:X79"/>
-    <mergeCell ref="Y75:AA78"/>
-    <mergeCell ref="AB75:AB79"/>
-    <mergeCell ref="AC75:AE78"/>
-    <mergeCell ref="U79:W79"/>
-    <mergeCell ref="Y79:AA79"/>
-    <mergeCell ref="AB67:AB71"/>
-    <mergeCell ref="AC67:AE70"/>
-    <mergeCell ref="Y67:AA70"/>
-    <mergeCell ref="Y71:AA71"/>
-    <mergeCell ref="P67:P71"/>
-    <mergeCell ref="Q67:S70"/>
-    <mergeCell ref="T67:T71"/>
-    <mergeCell ref="U71:W71"/>
-    <mergeCell ref="B75:D78"/>
-    <mergeCell ref="U67:W70"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="B67:D70"/>
-    <mergeCell ref="E67:G70"/>
-    <mergeCell ref="H67:H74"/>
-    <mergeCell ref="I67:K70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="I71:K71"/>
-    <mergeCell ref="L67:L71"/>
-    <mergeCell ref="X59:X63"/>
-    <mergeCell ref="Y59:AA62"/>
-    <mergeCell ref="P59:P63"/>
-    <mergeCell ref="Q59:S62"/>
-    <mergeCell ref="E75:G78"/>
-    <mergeCell ref="H75:H79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="I75:K78"/>
-    <mergeCell ref="L75:L79"/>
-    <mergeCell ref="M75:O78"/>
-    <mergeCell ref="P75:P79"/>
-    <mergeCell ref="Q75:S78"/>
-    <mergeCell ref="I79:K79"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="T75:T79"/>
-    <mergeCell ref="M67:O70"/>
-    <mergeCell ref="B59:D62"/>
-    <mergeCell ref="E59:G62"/>
-    <mergeCell ref="H59:H63"/>
-    <mergeCell ref="I59:K62"/>
-    <mergeCell ref="L59:L63"/>
-    <mergeCell ref="M59:O62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="U63:W63"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="U59:W62"/>
-    <mergeCell ref="T59:T63"/>
+    <mergeCell ref="T98:T102"/>
+    <mergeCell ref="U98:W101"/>
+    <mergeCell ref="U102:W102"/>
+    <mergeCell ref="L98:L102"/>
+    <mergeCell ref="M98:O101"/>
+    <mergeCell ref="P98:P102"/>
+    <mergeCell ref="Q98:S101"/>
+    <mergeCell ref="I102:K102"/>
+    <mergeCell ref="M102:O102"/>
+    <mergeCell ref="B98:D101"/>
+    <mergeCell ref="H98:H102"/>
+    <mergeCell ref="E98:G101"/>
+    <mergeCell ref="I98:K101"/>
+    <mergeCell ref="AJ90:AJ94"/>
+    <mergeCell ref="AK90:AM93"/>
+    <mergeCell ref="AN90:AN94"/>
+    <mergeCell ref="AO90:AQ93"/>
+    <mergeCell ref="AK94:AM94"/>
+    <mergeCell ref="AF90:AF94"/>
+    <mergeCell ref="AG90:AI93"/>
+    <mergeCell ref="AG94:AI94"/>
+    <mergeCell ref="X82:X86"/>
+    <mergeCell ref="U90:W93"/>
+    <mergeCell ref="X90:X94"/>
+    <mergeCell ref="Y90:AA93"/>
+    <mergeCell ref="AB90:AB94"/>
+    <mergeCell ref="AC90:AE93"/>
+    <mergeCell ref="U94:W94"/>
+    <mergeCell ref="Y94:AA94"/>
+    <mergeCell ref="AB82:AB86"/>
+    <mergeCell ref="AC82:AE85"/>
+    <mergeCell ref="Y82:AA85"/>
+    <mergeCell ref="Y86:AA86"/>
+    <mergeCell ref="P82:P86"/>
+    <mergeCell ref="Q82:S85"/>
+    <mergeCell ref="T82:T86"/>
+    <mergeCell ref="U86:W86"/>
+    <mergeCell ref="B90:D93"/>
+    <mergeCell ref="U82:W85"/>
+    <mergeCell ref="M86:O86"/>
+    <mergeCell ref="B82:D85"/>
+    <mergeCell ref="E82:G85"/>
+    <mergeCell ref="H82:H89"/>
+    <mergeCell ref="I82:K85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="I86:K86"/>
+    <mergeCell ref="L82:L86"/>
+    <mergeCell ref="X74:X78"/>
+    <mergeCell ref="Y74:AA77"/>
+    <mergeCell ref="P74:P78"/>
+    <mergeCell ref="Q74:S77"/>
+    <mergeCell ref="E90:G93"/>
+    <mergeCell ref="H90:H94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="I90:K93"/>
+    <mergeCell ref="L90:L94"/>
+    <mergeCell ref="M90:O93"/>
+    <mergeCell ref="P90:P94"/>
+    <mergeCell ref="Q90:S93"/>
+    <mergeCell ref="I94:K94"/>
+    <mergeCell ref="M94:O94"/>
+    <mergeCell ref="T90:T94"/>
+    <mergeCell ref="M82:O85"/>
+    <mergeCell ref="B74:D77"/>
+    <mergeCell ref="E74:G77"/>
+    <mergeCell ref="H74:H78"/>
+    <mergeCell ref="I74:K77"/>
+    <mergeCell ref="L74:L78"/>
+    <mergeCell ref="M74:O77"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="U78:W78"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="U74:W77"/>
+    <mergeCell ref="T74:T78"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21250,7 +21610,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -21267,7 +21627,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" s="57" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>234</v>
@@ -21275,9 +21635,9 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="C3" s="157" t="s">
+        <v>987</v>
+      </c>
+      <c r="C3" s="152" t="s">
         <v>236</v>
       </c>
     </row>
@@ -21285,18 +21645,18 @@
       <c r="B4" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="157"/>
+      <c r="C4" s="152"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C5" s="157"/>
+      <c r="C5" s="152"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C6" s="157" t="s">
+      <c r="C6" s="152" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C7" s="157"/>
+      <c r="C7" s="152"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
@@ -21331,25 +21691,25 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B12" s="2" t="s">
-        <v>1066</v>
+      <c r="B12" s="24" t="s">
+        <v>1086</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="K12" s="112" t="s">
-        <v>910</v>
+        <v>986</v>
+      </c>
+      <c r="K12" s="109" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B13" s="14" t="s">
-        <v>893</v>
+      <c r="B13" s="132" t="s">
+        <v>1087</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>788</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -21382,6 +21742,14 @@
       </c>
       <c r="C17" s="3" t="s">
         <v>780</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="24" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
@@ -21462,18 +21830,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB637"/>
   <sheetViews>
-    <sheetView topLeftCell="A222" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
-      <selection activeCell="I237" sqref="I237"/>
+    <sheetView topLeftCell="A235" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="35" style="113" customWidth="1"/>
+    <col min="1" max="1" width="35" style="110" customWidth="1"/>
     <col min="2" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A1" s="117"/>
+      <c r="A1" s="114"/>
       <c r="B1" s="1" t="s">
         <v>249</v>
       </c>
@@ -21508,8 +21876,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C7" s="122" t="s">
-        <v>1067</v>
+      <c r="C7" s="119" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
@@ -21560,8 +21928,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.15">
-      <c r="A17" s="114" t="s">
-        <v>911</v>
+      <c r="A17" s="111" t="s">
+        <v>909</v>
       </c>
       <c r="C17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -21569,16 +21937,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="113" t="s">
-        <v>942</v>
+      <c r="A18" s="110" t="s">
+        <v>940</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D19" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -21665,7 +22033,7 @@
       <c r="E57" s="46"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="117"/>
+      <c r="A59" s="114"/>
       <c r="B59" s="1" t="s">
         <v>318</v>
       </c>
@@ -21837,7 +22205,7 @@
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A97" s="118"/>
+      <c r="A97" s="115"/>
       <c r="B97" s="57"/>
       <c r="C97" s="57" t="s">
         <v>350</v>
@@ -21869,7 +22237,7 @@
       <c r="AB97" s="57"/>
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A98" s="118"/>
+      <c r="A98" s="115"/>
       <c r="B98" s="57"/>
       <c r="C98" s="57"/>
       <c r="D98" s="57" t="s">
@@ -21901,7 +22269,7 @@
       <c r="AB98" s="57"/>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A99" s="118"/>
+      <c r="A99" s="115"/>
       <c r="B99" s="57"/>
       <c r="C99" s="57"/>
       <c r="D99" s="57"/>
@@ -21933,7 +22301,7 @@
       <c r="AB99" s="57"/>
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A100" s="118"/>
+      <c r="A100" s="115"/>
       <c r="B100" s="57"/>
       <c r="C100" s="57"/>
       <c r="D100" s="57"/>
@@ -21965,7 +22333,7 @@
       <c r="AB100" s="57"/>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A101" s="118"/>
+      <c r="A101" s="115"/>
       <c r="B101" s="57"/>
       <c r="C101" s="57"/>
       <c r="D101" s="57"/>
@@ -22007,7 +22375,7 @@
       </c>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A106" s="117"/>
+      <c r="A106" s="114"/>
       <c r="B106" s="1" t="s">
         <v>357</v>
       </c>
@@ -23318,20 +23686,20 @@
     </row>
     <row r="227" spans="4:10" x14ac:dyDescent="0.15">
       <c r="F227" s="13" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="G227" s="3"/>
     </row>
     <row r="228" spans="4:10" x14ac:dyDescent="0.15">
       <c r="F228" s="58"/>
       <c r="G228" s="3" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="229" spans="4:10" x14ac:dyDescent="0.15">
       <c r="F229" s="3"/>
       <c r="G229" s="3" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="230" spans="4:10" x14ac:dyDescent="0.15">
@@ -23363,7 +23731,7 @@
     </row>
     <row r="237" spans="4:10" x14ac:dyDescent="0.15">
       <c r="F237" s="24" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="239" spans="4:10" x14ac:dyDescent="0.15">
@@ -23431,7 +23799,7 @@
     <row r="245" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D245" s="3"/>
       <c r="E245" s="24" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="F245" s="24"/>
       <c r="G245" s="24"/>
@@ -23449,7 +23817,7 @@
       <c r="D246" s="3"/>
       <c r="E246" s="24"/>
       <c r="F246" s="24" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="G246" s="24"/>
       <c r="H246" s="24"/>
@@ -23467,7 +23835,7 @@
       <c r="E247" s="24"/>
       <c r="F247" s="24"/>
       <c r="G247" s="24" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="H247" s="24"/>
       <c r="I247" s="24"/>
@@ -23485,7 +23853,7 @@
       <c r="F248" s="24"/>
       <c r="G248" s="24"/>
       <c r="H248" s="24" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="I248" s="24"/>
       <c r="J248" s="24"/>
@@ -23500,7 +23868,7 @@
       <c r="E249" s="24"/>
       <c r="F249" s="24"/>
       <c r="G249" s="24" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="H249" s="24"/>
       <c r="I249" s="24"/>
@@ -23517,10 +23885,10 @@
       <c r="F250" s="24"/>
       <c r="G250" s="24"/>
       <c r="H250" s="24" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="I250" s="24" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="J250" s="24"/>
       <c r="K250" s="24"/>
@@ -23531,43 +23899,43 @@
       <c r="P250" s="24"/>
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A251" s="114" t="s">
-        <v>924</v>
+      <c r="A251" s="111" t="s">
+        <v>922</v>
       </c>
       <c r="E251" s="24"/>
       <c r="F251" s="24"/>
       <c r="G251" s="24"/>
       <c r="H251" s="24" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="I251" s="24" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="J251" s="24" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="K251" s="24" t="s">
+        <v>994</v>
+      </c>
+      <c r="L251" s="24" t="s">
         <v>999</v>
       </c>
-      <c r="L251" s="24" t="s">
+      <c r="M251" s="24" t="s">
         <v>1004</v>
-      </c>
-      <c r="M251" s="24" t="s">
-        <v>1009</v>
       </c>
       <c r="N251" s="24"/>
       <c r="O251" s="24"/>
       <c r="P251" s="24"/>
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A252" s="113" t="s">
-        <v>936</v>
+      <c r="A252" s="110" t="s">
+        <v>934</v>
       </c>
       <c r="E252" s="24"/>
       <c r="F252" s="24"/>
       <c r="G252" s="24"/>
       <c r="H252" s="24" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="I252" s="24"/>
       <c r="J252" s="24"/>
@@ -23582,7 +23950,7 @@
       <c r="E253" s="24"/>
       <c r="F253" s="24"/>
       <c r="G253" s="24" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="H253" s="24"/>
       <c r="I253" s="24"/>
@@ -23598,7 +23966,7 @@
       <c r="E254" s="24"/>
       <c r="F254" s="24"/>
       <c r="G254" s="24" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="H254" s="24"/>
       <c r="I254" s="24"/>
@@ -23867,7 +24235,7 @@
       <c r="G289" s="13"/>
     </row>
     <row r="290" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A290" s="117"/>
+      <c r="A290" s="114"/>
       <c r="B290" s="1" t="s">
         <v>504</v>
       </c>
@@ -23974,8 +24342,8 @@
       <c r="Q297" s="3"/>
     </row>
     <row r="298" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A298" s="114" t="s">
-        <v>925</v>
+      <c r="A298" s="111" t="s">
+        <v>923</v>
       </c>
       <c r="C298" s="3"/>
       <c r="D298" s="62" t="s">
@@ -23999,7 +24367,7 @@
       <c r="C299" s="3"/>
       <c r="D299" s="62"/>
       <c r="E299" s="62" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
@@ -24075,7 +24443,7 @@
       <c r="C303" s="3"/>
       <c r="D303" s="62"/>
       <c r="E303" s="62" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
@@ -24837,8 +25205,8 @@
       <c r="B350" s="30"/>
       <c r="C350" s="29"/>
       <c r="D350" s="29"/>
-      <c r="E350" s="130" t="s">
-        <v>1031</v>
+      <c r="E350" s="124" t="s">
+        <v>1026</v>
       </c>
       <c r="F350" s="29"/>
       <c r="G350" s="29"/>
@@ -24873,8 +25241,8 @@
       <c r="B352" s="30"/>
       <c r="C352" s="29"/>
       <c r="D352" s="29"/>
-      <c r="E352" s="130" t="s">
-        <v>1032</v>
+      <c r="E352" s="124" t="s">
+        <v>1027</v>
       </c>
       <c r="F352" s="29"/>
       <c r="G352" s="29"/>
@@ -24888,7 +25256,7 @@
       <c r="O352" s="29"/>
     </row>
     <row r="353" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B353" s="131"/>
+      <c r="B353" s="125"/>
       <c r="C353" s="29"/>
       <c r="D353" s="29"/>
       <c r="E353" s="29"/>
@@ -24909,8 +25277,8 @@
       <c r="B354" s="30"/>
       <c r="C354" s="29"/>
       <c r="D354" s="29"/>
-      <c r="E354" s="130" t="s">
-        <v>1033</v>
+      <c r="E354" s="124" t="s">
+        <v>1028</v>
       </c>
       <c r="F354" s="29"/>
       <c r="G354" s="29"/>
@@ -24942,11 +25310,11 @@
       <c r="O355" s="29"/>
     </row>
     <row r="356" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B356" s="131"/>
+      <c r="B356" s="125"/>
       <c r="C356" s="29"/>
       <c r="D356" s="29"/>
-      <c r="E356" s="123" t="s">
-        <v>1034</v>
+      <c r="E356" s="120" t="s">
+        <v>1029</v>
       </c>
       <c r="F356" s="29"/>
       <c r="G356" s="29"/>
@@ -24965,7 +25333,7 @@
       <c r="D357" s="29"/>
       <c r="E357" s="29"/>
       <c r="F357" s="29" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G357" s="29"/>
       <c r="H357" s="29"/>
@@ -25012,7 +25380,7 @@
       <c r="O359" s="29"/>
     </row>
     <row r="360" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="C360" s="144"/>
+      <c r="C360" s="138"/>
       <c r="D360" s="29"/>
       <c r="E360" s="29" t="s">
         <v>82</v>
@@ -25029,7 +25397,7 @@
       <c r="O360" s="29"/>
     </row>
     <row r="361" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="C361" s="144"/>
+      <c r="C361" s="138"/>
       <c r="D361" s="29"/>
       <c r="E361" s="29"/>
       <c r="F361" s="29" t="s">
@@ -25046,13 +25414,13 @@
       <c r="O361" s="29"/>
     </row>
     <row r="362" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A362" s="114" t="s">
-        <v>926</v>
+      <c r="A362" s="111" t="s">
+        <v>924</v>
       </c>
       <c r="C362" s="29"/>
       <c r="D362" s="29"/>
-      <c r="E362" s="130" t="s">
-        <v>1035</v>
+      <c r="E362" s="124" t="s">
+        <v>1030</v>
       </c>
       <c r="F362" s="29"/>
       <c r="G362" s="29"/>
@@ -25066,14 +25434,14 @@
       <c r="O362" s="29"/>
     </row>
     <row r="363" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A363" s="115" t="s">
-        <v>937</v>
+      <c r="A363" s="112" t="s">
+        <v>935</v>
       </c>
       <c r="C363" s="29"/>
       <c r="D363" s="29"/>
       <c r="E363" s="29"/>
       <c r="F363" s="29" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="G363" s="29"/>
       <c r="H363" s="29"/>
@@ -26399,7 +26767,7 @@
       </c>
     </row>
     <row r="446" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A446" s="119"/>
+      <c r="A446" s="116"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
@@ -26416,7 +26784,7 @@
       <c r="M446" s="3"/>
     </row>
     <row r="447" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A447" s="119"/>
+      <c r="A447" s="116"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
@@ -26433,7 +26801,7 @@
       <c r="M447" s="3"/>
     </row>
     <row r="448" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A448" s="119"/>
+      <c r="A448" s="116"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
       <c r="D448" s="3" t="s">
@@ -26450,7 +26818,7 @@
       <c r="M448" s="3"/>
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A449" s="119"/>
+      <c r="A449" s="116"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
@@ -26467,7 +26835,7 @@
       <c r="M449" s="3"/>
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A450" s="119"/>
+      <c r="A450" s="116"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
@@ -26484,7 +26852,7 @@
       <c r="M450" s="3"/>
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A451" s="119"/>
+      <c r="A451" s="116"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
@@ -26501,7 +26869,7 @@
       <c r="M451" s="3"/>
     </row>
     <row r="452" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A452" s="119"/>
+      <c r="A452" s="116"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
@@ -26518,7 +26886,7 @@
       <c r="M452" s="3"/>
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A453" s="119"/>
+      <c r="A453" s="116"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
       <c r="D453" s="3" t="s">
@@ -26535,7 +26903,7 @@
       <c r="M453" s="3"/>
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A454" s="119"/>
+      <c r="A454" s="116"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
@@ -26552,7 +26920,7 @@
       <c r="M454" s="3"/>
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A455" s="119"/>
+      <c r="A455" s="116"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
       <c r="D455" s="3" t="s">
@@ -26569,7 +26937,7 @@
       <c r="M455" s="3"/>
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A456" s="119"/>
+      <c r="A456" s="116"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
@@ -26586,7 +26954,7 @@
       <c r="M456" s="3"/>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A457" s="119"/>
+      <c r="A457" s="116"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
       <c r="D457" s="3" t="s">
@@ -26603,7 +26971,7 @@
       <c r="M457" s="3"/>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A458" s="119"/>
+      <c r="A458" s="116"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
@@ -26620,7 +26988,7 @@
       <c r="M458" s="3"/>
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A459" s="119"/>
+      <c r="A459" s="116"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
       <c r="D459" s="3" t="s">
@@ -26637,7 +27005,7 @@
       <c r="M459" s="3"/>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A460" s="119"/>
+      <c r="A460" s="116"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
@@ -26654,7 +27022,7 @@
       <c r="M460" s="3"/>
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A461" s="119"/>
+      <c r="A461" s="116"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
@@ -26671,7 +27039,7 @@
       <c r="M461" s="3"/>
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A462" s="119"/>
+      <c r="A462" s="116"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
@@ -26688,7 +27056,7 @@
       <c r="M462" s="3"/>
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A463" s="119"/>
+      <c r="A463" s="116"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
@@ -26705,7 +27073,7 @@
       <c r="M463" s="3"/>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A464" s="119"/>
+      <c r="A464" s="116"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
       <c r="D464" s="3" t="s">
@@ -26722,7 +27090,7 @@
       <c r="M464" s="3"/>
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A465" s="119"/>
+      <c r="A465" s="116"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
@@ -26739,7 +27107,7 @@
       <c r="M465" s="3"/>
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A466" s="119"/>
+      <c r="A466" s="116"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
@@ -26756,7 +27124,7 @@
       <c r="M466" s="3"/>
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A467" s="119"/>
+      <c r="A467" s="116"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
@@ -26771,7 +27139,7 @@
       <c r="M467" s="3"/>
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A468" s="119"/>
+      <c r="A468" s="116"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
       <c r="D468" s="3" t="s">
@@ -26788,7 +27156,7 @@
       <c r="M468" s="3"/>
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A469" s="119"/>
+      <c r="A469" s="116"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
       <c r="D469" s="3" t="s">
@@ -26805,7 +27173,7 @@
       <c r="M469" s="3"/>
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A470" s="119"/>
+      <c r="A470" s="116"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
@@ -26890,7 +27258,7 @@
       </c>
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A481" s="119"/>
+      <c r="A481" s="116"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
@@ -26907,7 +27275,7 @@
       <c r="M481" s="3"/>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A482" s="119"/>
+      <c r="A482" s="116"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
@@ -26924,7 +27292,7 @@
       <c r="M482" s="3"/>
     </row>
     <row r="483" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A483" s="119"/>
+      <c r="A483" s="116"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
@@ -26941,7 +27309,7 @@
       <c r="M483" s="3"/>
     </row>
     <row r="484" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A484" s="119"/>
+      <c r="A484" s="116"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
@@ -26958,7 +27326,7 @@
       <c r="M484" s="3"/>
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A485" s="119"/>
+      <c r="A485" s="116"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
@@ -26975,7 +27343,7 @@
       <c r="M485" s="3"/>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A486" s="119"/>
+      <c r="A486" s="116"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
@@ -26992,7 +27360,7 @@
       <c r="M486" s="3"/>
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A487" s="119"/>
+      <c r="A487" s="116"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
@@ -27007,7 +27375,7 @@
       <c r="M487" s="3"/>
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A488" s="119"/>
+      <c r="A488" s="116"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
       <c r="D488" s="3" t="s">
@@ -27024,7 +27392,7 @@
       <c r="M488" s="3"/>
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A489" s="119"/>
+      <c r="A489" s="116"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
@@ -27041,7 +27409,7 @@
       <c r="M489" s="3"/>
     </row>
     <row r="490" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A490" s="119"/>
+      <c r="A490" s="116"/>
       <c r="B490" s="3"/>
       <c r="C490" s="103"/>
       <c r="D490" s="103" t="s">
@@ -27058,7 +27426,7 @@
       <c r="M490" s="3"/>
     </row>
     <row r="491" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A491" s="119"/>
+      <c r="A491" s="116"/>
       <c r="B491" s="3"/>
       <c r="C491" s="103"/>
       <c r="D491" s="103"/>
@@ -27073,7 +27441,7 @@
       <c r="M491" s="3"/>
     </row>
     <row r="492" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A492" s="119"/>
+      <c r="A492" s="116"/>
       <c r="B492" s="3"/>
       <c r="C492" s="103"/>
       <c r="D492" s="103"/>
@@ -27090,7 +27458,7 @@
       <c r="M492" s="3"/>
     </row>
     <row r="493" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A493" s="119"/>
+      <c r="A493" s="116"/>
       <c r="B493" s="3"/>
       <c r="C493" s="103"/>
       <c r="D493" s="103"/>
@@ -27107,7 +27475,7 @@
       <c r="M493" s="3"/>
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A494" s="119"/>
+      <c r="A494" s="116"/>
       <c r="B494" s="3"/>
       <c r="C494" s="103"/>
       <c r="D494" s="103"/>
@@ -27124,7 +27492,7 @@
       <c r="M494" s="3"/>
     </row>
     <row r="495" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A495" s="119"/>
+      <c r="A495" s="116"/>
       <c r="B495" s="3"/>
       <c r="C495" s="103"/>
       <c r="D495" s="103"/>
@@ -27141,7 +27509,7 @@
       <c r="M495" s="3"/>
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A496" s="119"/>
+      <c r="A496" s="116"/>
       <c r="B496" s="3"/>
       <c r="C496" s="103"/>
       <c r="D496" s="103"/>
@@ -27156,7 +27524,7 @@
       <c r="M496" s="3"/>
     </row>
     <row r="497" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A497" s="119"/>
+      <c r="A497" s="116"/>
       <c r="B497" s="3"/>
       <c r="C497" s="103"/>
       <c r="D497" s="3" t="s">
@@ -27173,7 +27541,7 @@
       <c r="M497" s="3"/>
     </row>
     <row r="498" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A498" s="119"/>
+      <c r="A498" s="116"/>
       <c r="B498" s="3"/>
       <c r="C498" s="103"/>
       <c r="D498" s="3" t="s">
@@ -27190,7 +27558,7 @@
       <c r="M498" s="3"/>
     </row>
     <row r="499" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A499" s="119"/>
+      <c r="A499" s="116"/>
       <c r="B499" s="3"/>
       <c r="C499" s="103"/>
       <c r="D499" s="103"/>
@@ -27205,7 +27573,7 @@
       <c r="M499" s="3"/>
     </row>
     <row r="500" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A500" s="119"/>
+      <c r="A500" s="116"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3" t="s">
         <v>675</v>
@@ -27222,7 +27590,7 @@
       <c r="M500" s="3"/>
     </row>
     <row r="501" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A501" s="119"/>
+      <c r="A501" s="116"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
       <c r="D501" s="3" t="s">
@@ -27239,7 +27607,7 @@
       <c r="M501" s="3"/>
     </row>
     <row r="502" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A502" s="119"/>
+      <c r="A502" s="116"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
@@ -27256,7 +27624,7 @@
       <c r="M502" s="3"/>
     </row>
     <row r="503" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A503" s="119"/>
+      <c r="A503" s="116"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
@@ -27273,7 +27641,7 @@
       <c r="M503" s="3"/>
     </row>
     <row r="504" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A504" s="119"/>
+      <c r="A504" s="116"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
@@ -27290,7 +27658,7 @@
       <c r="M504" s="3"/>
     </row>
     <row r="505" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A505" s="119"/>
+      <c r="A505" s="116"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
@@ -27305,7 +27673,7 @@
       <c r="M505" s="3"/>
     </row>
     <row r="506" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A506" s="119"/>
+      <c r="A506" s="116"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
@@ -27322,7 +27690,7 @@
       <c r="M506" s="3"/>
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A507" s="119"/>
+      <c r="A507" s="116"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
@@ -27339,7 +27707,7 @@
       <c r="M507" s="3"/>
     </row>
     <row r="508" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A508" s="119"/>
+      <c r="A508" s="116"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
@@ -27356,7 +27724,7 @@
       <c r="M508" s="3"/>
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A509" s="119"/>
+      <c r="A509" s="116"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
@@ -27373,7 +27741,7 @@
       <c r="M509" s="3"/>
     </row>
     <row r="510" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A510" s="119"/>
+      <c r="A510" s="116"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
@@ -27388,7 +27756,7 @@
       <c r="M510" s="3"/>
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A511" s="119"/>
+      <c r="A511" s="116"/>
       <c r="B511" s="3"/>
       <c r="C511" s="88" t="s">
         <v>684</v>
@@ -27506,7 +27874,7 @@
       <c r="I521" s="62"/>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A523" s="120"/>
+      <c r="A523" s="117"/>
       <c r="B523" s="92"/>
       <c r="C523" s="46"/>
       <c r="D523" s="46"/>
@@ -27517,7 +27885,7 @@
       <c r="I523" s="46"/>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A524" s="121"/>
+      <c r="A524" s="118"/>
       <c r="B524" s="46"/>
       <c r="C524" s="70"/>
       <c r="D524" s="46"/>
@@ -27528,7 +27896,7 @@
       <c r="I524" s="46"/>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A525" s="121"/>
+      <c r="A525" s="118"/>
       <c r="B525" s="46"/>
       <c r="C525" s="46"/>
       <c r="D525" s="46"/>
@@ -27886,7 +28254,7 @@
       <c r="I581" s="46"/>
     </row>
     <row r="582" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A582" s="119"/>
+      <c r="A582" s="116"/>
       <c r="C582" s="62"/>
       <c r="D582" s="61"/>
       <c r="E582" s="61"/>
@@ -27896,7 +28264,7 @@
       <c r="I582" s="62"/>
     </row>
     <row r="583" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A583" s="119"/>
+      <c r="A583" s="116"/>
       <c r="C583" s="62"/>
       <c r="D583" s="61"/>
       <c r="E583" s="61"/>
@@ -27906,7 +28274,7 @@
       <c r="I583" s="62"/>
     </row>
     <row r="584" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A584" s="119"/>
+      <c r="A584" s="116"/>
       <c r="C584" s="62"/>
       <c r="D584" s="61"/>
       <c r="E584" s="61"/>
@@ -27916,7 +28284,7 @@
       <c r="I584" s="62"/>
     </row>
     <row r="585" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A585" s="119"/>
+      <c r="A585" s="116"/>
       <c r="C585" s="62"/>
       <c r="D585" s="61"/>
       <c r="E585" s="61"/>
@@ -27926,7 +28294,7 @@
       <c r="I585" s="62"/>
     </row>
     <row r="586" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A586" s="119"/>
+      <c r="A586" s="116"/>
       <c r="C586" s="62"/>
       <c r="D586" s="61"/>
       <c r="E586" s="61"/>
@@ -27936,7 +28304,7 @@
       <c r="I586" s="62"/>
     </row>
     <row r="587" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A587" s="119"/>
+      <c r="A587" s="116"/>
       <c r="C587" s="62"/>
       <c r="D587" s="101"/>
       <c r="E587" s="61"/>
@@ -27946,7 +28314,7 @@
       <c r="I587" s="62"/>
     </row>
     <row r="588" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A588" s="119"/>
+      <c r="A588" s="116"/>
       <c r="C588" s="62"/>
       <c r="D588" s="61"/>
       <c r="E588" s="61"/>
@@ -27956,7 +28324,7 @@
       <c r="I588" s="62"/>
     </row>
     <row r="589" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A589" s="119"/>
+      <c r="A589" s="116"/>
       <c r="C589" s="62"/>
       <c r="D589" s="61"/>
       <c r="E589" s="61"/>
@@ -27966,7 +28334,7 @@
       <c r="I589" s="62"/>
     </row>
     <row r="590" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A590" s="119"/>
+      <c r="A590" s="116"/>
       <c r="C590" s="62"/>
       <c r="D590" s="61"/>
       <c r="E590" s="61"/>
@@ -27976,7 +28344,7 @@
       <c r="I590" s="62"/>
     </row>
     <row r="591" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A591" s="119"/>
+      <c r="A591" s="116"/>
       <c r="C591" s="62"/>
       <c r="D591" s="61"/>
       <c r="E591" s="61"/>
@@ -27986,7 +28354,7 @@
       <c r="I591" s="62"/>
     </row>
     <row r="592" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A592" s="119"/>
+      <c r="A592" s="116"/>
       <c r="C592" s="62"/>
       <c r="D592" s="61"/>
       <c r="E592" s="61"/>
@@ -27996,7 +28364,7 @@
       <c r="I592" s="62"/>
     </row>
     <row r="593" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A593" s="119"/>
+      <c r="A593" s="116"/>
       <c r="C593" s="62"/>
       <c r="D593" s="61"/>
       <c r="E593" s="61"/>
@@ -28006,7 +28374,7 @@
       <c r="I593" s="62"/>
     </row>
     <row r="594" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A594" s="119"/>
+      <c r="A594" s="116"/>
       <c r="C594" s="62"/>
       <c r="D594" s="61"/>
       <c r="E594" s="61"/>
@@ -28016,7 +28384,7 @@
       <c r="I594" s="62"/>
     </row>
     <row r="595" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A595" s="119"/>
+      <c r="A595" s="116"/>
       <c r="C595" s="62"/>
       <c r="D595" s="61"/>
       <c r="E595" s="61"/>
@@ -28026,7 +28394,7 @@
       <c r="I595" s="62"/>
     </row>
     <row r="596" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A596" s="119"/>
+      <c r="A596" s="116"/>
       <c r="C596" s="62"/>
       <c r="D596" s="61"/>
       <c r="E596" s="61"/>
@@ -28036,7 +28404,7 @@
       <c r="I596" s="62"/>
     </row>
     <row r="597" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A597" s="119"/>
+      <c r="A597" s="116"/>
       <c r="C597" s="62"/>
       <c r="D597" s="61"/>
       <c r="E597" s="61"/>
@@ -28046,7 +28414,7 @@
       <c r="I597" s="62"/>
     </row>
     <row r="598" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A598" s="119"/>
+      <c r="A598" s="116"/>
       <c r="C598" s="62"/>
       <c r="D598" s="61"/>
       <c r="E598" s="61"/>
@@ -28056,7 +28424,7 @@
       <c r="I598" s="62"/>
     </row>
     <row r="599" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A599" s="119"/>
+      <c r="A599" s="116"/>
       <c r="C599" s="62"/>
       <c r="D599" s="61"/>
       <c r="E599" s="61"/>
@@ -28066,7 +28434,7 @@
       <c r="I599" s="62"/>
     </row>
     <row r="600" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A600" s="119"/>
+      <c r="A600" s="116"/>
       <c r="C600" s="62"/>
       <c r="D600" s="61"/>
       <c r="E600" s="61"/>
@@ -28076,7 +28444,7 @@
       <c r="I600" s="62"/>
     </row>
     <row r="601" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A601" s="119"/>
+      <c r="A601" s="116"/>
       <c r="C601" s="62"/>
       <c r="D601" s="61"/>
       <c r="E601" s="61"/>
@@ -28086,7 +28454,7 @@
       <c r="I601" s="62"/>
     </row>
     <row r="602" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A602" s="119"/>
+      <c r="A602" s="116"/>
       <c r="C602" s="62"/>
       <c r="D602" s="61"/>
       <c r="E602" s="61"/>
@@ -28096,7 +28464,7 @@
       <c r="I602" s="62"/>
     </row>
     <row r="603" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A603" s="119"/>
+      <c r="A603" s="116"/>
       <c r="C603" s="62"/>
       <c r="D603" s="61"/>
       <c r="E603" s="61"/>
@@ -28106,7 +28474,7 @@
       <c r="I603" s="62"/>
     </row>
     <row r="604" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A604" s="119"/>
+      <c r="A604" s="116"/>
       <c r="C604" s="62"/>
       <c r="D604" s="61"/>
       <c r="E604" s="61"/>
@@ -28116,7 +28484,7 @@
       <c r="I604" s="62"/>
     </row>
     <row r="605" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A605" s="119"/>
+      <c r="A605" s="116"/>
       <c r="C605" s="62"/>
       <c r="D605" s="61"/>
       <c r="E605" s="61"/>
@@ -28126,7 +28494,7 @@
       <c r="I605" s="62"/>
     </row>
     <row r="606" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A606" s="119"/>
+      <c r="A606" s="116"/>
       <c r="C606" s="62"/>
       <c r="D606" s="101"/>
       <c r="E606" s="61"/>
@@ -28136,7 +28504,7 @@
       <c r="I606" s="62"/>
     </row>
     <row r="607" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A607" s="119"/>
+      <c r="A607" s="116"/>
       <c r="D607" s="61"/>
       <c r="E607" s="61"/>
       <c r="F607" s="61"/>
@@ -28145,7 +28513,7 @@
       <c r="I607" s="62"/>
     </row>
     <row r="608" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A608" s="119"/>
+      <c r="A608" s="116"/>
       <c r="D608" s="61"/>
       <c r="E608" s="61"/>
       <c r="F608" s="61"/>
@@ -28154,7 +28522,7 @@
       <c r="I608" s="62"/>
     </row>
     <row r="609" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A609" s="119"/>
+      <c r="A609" s="116"/>
       <c r="D609" s="61"/>
       <c r="E609" s="61"/>
       <c r="F609" s="61"/>
@@ -28163,7 +28531,7 @@
       <c r="I609" s="62"/>
     </row>
     <row r="610" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A610" s="119"/>
+      <c r="A610" s="116"/>
       <c r="D610" s="61"/>
       <c r="E610" s="61"/>
       <c r="F610" s="61"/>
@@ -28172,7 +28540,7 @@
       <c r="I610" s="62"/>
     </row>
     <row r="611" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A611" s="119"/>
+      <c r="A611" s="116"/>
       <c r="D611" s="61"/>
       <c r="E611" s="61"/>
       <c r="G611" s="61"/>
@@ -28180,7 +28548,7 @@
       <c r="I611" s="62"/>
     </row>
     <row r="612" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A612" s="119"/>
+      <c r="A612" s="116"/>
       <c r="D612" s="61"/>
       <c r="E612" s="61"/>
       <c r="F612" s="61"/>
@@ -28189,7 +28557,7 @@
       <c r="I612" s="62"/>
     </row>
     <row r="613" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A613" s="119"/>
+      <c r="A613" s="116"/>
       <c r="D613" s="61"/>
       <c r="E613" s="61"/>
       <c r="F613" s="61"/>
@@ -28198,7 +28566,7 @@
       <c r="I613" s="62"/>
     </row>
     <row r="614" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A614" s="119"/>
+      <c r="A614" s="116"/>
       <c r="D614" s="101"/>
       <c r="E614" s="61"/>
       <c r="F614" s="61"/>
@@ -28207,7 +28575,7 @@
       <c r="I614" s="62"/>
     </row>
     <row r="615" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A615" s="119"/>
+      <c r="A615" s="116"/>
       <c r="D615" s="61"/>
       <c r="E615" s="61"/>
       <c r="F615" s="61"/>
@@ -28216,7 +28584,7 @@
       <c r="I615" s="62"/>
     </row>
     <row r="616" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A616" s="119"/>
+      <c r="A616" s="116"/>
       <c r="D616" s="61"/>
       <c r="E616" s="61"/>
       <c r="F616" s="61"/>
@@ -28225,7 +28593,7 @@
       <c r="I616" s="62"/>
     </row>
     <row r="617" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A617" s="119"/>
+      <c r="A617" s="116"/>
       <c r="D617" s="101"/>
       <c r="E617" s="61"/>
       <c r="F617" s="61"/>
@@ -28234,7 +28602,7 @@
       <c r="I617" s="62"/>
     </row>
     <row r="618" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A618" s="119"/>
+      <c r="A618" s="116"/>
       <c r="D618" s="61"/>
       <c r="E618" s="61"/>
       <c r="F618" s="61"/>
@@ -28243,7 +28611,7 @@
       <c r="I618" s="62"/>
     </row>
     <row r="619" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A619" s="119"/>
+      <c r="A619" s="116"/>
       <c r="D619" s="61"/>
       <c r="E619" s="61"/>
       <c r="F619" s="61"/>
@@ -28252,7 +28620,7 @@
       <c r="I619" s="62"/>
     </row>
     <row r="620" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A620" s="119"/>
+      <c r="A620" s="116"/>
       <c r="D620" s="61"/>
       <c r="E620" s="61"/>
       <c r="F620" s="61"/>
@@ -28261,7 +28629,7 @@
       <c r="I620" s="62"/>
     </row>
     <row r="621" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A621" s="119"/>
+      <c r="A621" s="116"/>
       <c r="D621" s="61"/>
       <c r="E621" s="61"/>
       <c r="F621" s="61"/>
@@ -28270,7 +28638,7 @@
       <c r="I621" s="62"/>
     </row>
     <row r="622" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A622" s="119"/>
+      <c r="A622" s="116"/>
       <c r="D622" s="61"/>
       <c r="E622" s="61"/>
       <c r="F622" s="61"/>
@@ -28279,7 +28647,7 @@
       <c r="I622" s="62"/>
     </row>
     <row r="623" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A623" s="119"/>
+      <c r="A623" s="116"/>
       <c r="D623" s="61"/>
       <c r="E623" s="61"/>
       <c r="F623" s="61"/>
@@ -28288,7 +28656,7 @@
       <c r="I623" s="62"/>
     </row>
     <row r="624" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A624" s="119"/>
+      <c r="A624" s="116"/>
       <c r="D624" s="61"/>
       <c r="E624" s="61"/>
       <c r="F624" s="61"/>
@@ -28297,7 +28665,7 @@
       <c r="I624" s="62"/>
     </row>
     <row r="625" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A625" s="119"/>
+      <c r="A625" s="116"/>
       <c r="D625" s="61"/>
       <c r="E625" s="61"/>
       <c r="F625" s="61"/>
@@ -28306,7 +28674,7 @@
       <c r="I625" s="62"/>
     </row>
     <row r="626" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A626" s="119"/>
+      <c r="A626" s="116"/>
       <c r="D626" s="61"/>
       <c r="E626" s="61"/>
       <c r="F626" s="61"/>
@@ -28315,7 +28683,7 @@
       <c r="I626" s="62"/>
     </row>
     <row r="627" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A627" s="119"/>
+      <c r="A627" s="116"/>
       <c r="D627" s="61"/>
       <c r="E627" s="61"/>
       <c r="F627" s="61"/>
@@ -28324,7 +28692,7 @@
       <c r="I627" s="62"/>
     </row>
     <row r="628" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A628" s="119"/>
+      <c r="A628" s="116"/>
       <c r="D628" s="61"/>
       <c r="E628" s="61"/>
       <c r="F628" s="61"/>
@@ -28333,7 +28701,7 @@
       <c r="I628" s="62"/>
     </row>
     <row r="629" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A629" s="119"/>
+      <c r="A629" s="116"/>
       <c r="D629" s="61"/>
       <c r="E629" s="61"/>
       <c r="F629" s="61"/>
@@ -28342,7 +28710,7 @@
       <c r="I629" s="62"/>
     </row>
     <row r="630" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A630" s="119"/>
+      <c r="A630" s="116"/>
       <c r="D630" s="62"/>
       <c r="E630" s="62"/>
       <c r="F630" s="61"/>
@@ -28351,26 +28719,26 @@
       <c r="I630" s="62"/>
     </row>
     <row r="631" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A631" s="119"/>
+      <c r="A631" s="116"/>
       <c r="D631" s="47"/>
     </row>
     <row r="632" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A632" s="119"/>
+      <c r="A632" s="116"/>
     </row>
     <row r="633" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A633" s="119"/>
+      <c r="A633" s="116"/>
     </row>
     <row r="634" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A634" s="119"/>
+      <c r="A634" s="116"/>
     </row>
     <row r="635" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A635" s="119"/>
+      <c r="A635" s="116"/>
     </row>
     <row r="636" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A636" s="119"/>
+      <c r="A636" s="116"/>
     </row>
     <row r="637" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A637" s="119"/>
+      <c r="A637" s="116"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -28384,13 +28752,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I160"/>
   <sheetViews>
-    <sheetView topLeftCell="B151" zoomScale="132" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+    <sheetView topLeftCell="B1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.125" style="113" customWidth="1"/>
+    <col min="1" max="1" width="40.125" style="110" customWidth="1"/>
     <col min="2" max="3" width="8.875" style="2"/>
     <col min="4" max="4" width="16.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="12" style="2" customWidth="1"/>
@@ -28398,22 +28766,22 @@
     <col min="7" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C4" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D5" s="2" t="s">
         <v>789</v>
       </c>
@@ -28421,20 +28789,20 @@
         <v>820</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="114" t="s">
-        <v>912</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="111" t="s">
+        <v>910</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="113" t="s">
-        <v>938</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="110" t="s">
+        <v>936</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>790</v>
@@ -28443,23 +28811,23 @@
         <v>801</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="114" t="s">
-        <v>939</v>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="111" t="s">
+        <v>937</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>791</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="113" t="s">
-        <v>938</v>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="110" t="s">
+        <v>936</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>826</v>
@@ -28468,9 +28836,9 @@
         <v>824</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.15">
-      <c r="A10" s="114" t="s">
-        <v>933</v>
+    <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A10" s="111" t="s">
+        <v>931</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>267</v>
@@ -28479,9 +28847,9 @@
         <v>794</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.15">
-      <c r="A11" s="113" t="s">
-        <v>945</v>
+    <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A11" s="110" t="s">
+        <v>943</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>792</v>
@@ -28489,8 +28857,17 @@
       <c r="F11" s="2" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G11" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E12" s="2" t="s">
         <v>793</v>
       </c>
@@ -28498,7 +28875,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D13" s="2" t="s">
         <v>289</v>
       </c>
@@ -28506,7 +28883,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D14" s="2" t="s">
         <v>75</v>
       </c>
@@ -28514,7 +28891,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D15" s="2" t="s">
         <v>799</v>
       </c>
@@ -28522,7 +28899,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C16" s="2" t="s">
         <v>802</v>
       </c>
@@ -28539,8 +28916,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A18" s="114" t="s">
-        <v>913</v>
+      <c r="A18" s="111" t="s">
+        <v>911</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>806</v>
@@ -28550,8 +28927,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="113" t="s">
-        <v>951</v>
+      <c r="A19" s="110" t="s">
+        <v>949</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>808</v>
@@ -28601,7 +28978,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="115"/>
+      <c r="A52" s="112"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C54" s="2" t="s">
@@ -28696,7 +29073,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="116"/>
+      <c r="A133" s="113"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C135" s="2" t="s">
@@ -28825,7 +29202,7 @@
       <c r="G154" s="12"/>
     </row>
     <row r="156" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="115"/>
+      <c r="A156" s="112"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C158" s="2" t="s">
@@ -28858,47 +29235,60 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="66" x14ac:dyDescent="0.15">
-      <c r="A5" s="113" t="s">
-        <v>948</v>
+      <c r="A5" s="110" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="20" spans="14:14" x14ac:dyDescent="0.15">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>1067</v>
+      </c>
       <c r="N20" t="s">
-        <v>1071</v>
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
@@ -29967,149 +30357,149 @@
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A134" s="159" t="s">
+      <c r="A134" s="154" t="s">
         <v>58</v>
       </c>
-      <c r="B134" s="157"/>
-      <c r="C134" s="157"/>
-      <c r="D134" s="165" t="s">
+      <c r="B134" s="152"/>
+      <c r="C134" s="152"/>
+      <c r="D134" s="160" t="s">
         <v>229</v>
       </c>
-      <c r="E134" s="158"/>
-      <c r="F134" s="158"/>
-      <c r="G134" s="158" t="s">
+      <c r="E134" s="153"/>
+      <c r="F134" s="153"/>
+      <c r="G134" s="153" t="s">
         <v>60</v>
       </c>
-      <c r="H134" s="162" t="s">
+      <c r="H134" s="157" t="s">
         <v>230</v>
       </c>
-      <c r="I134" s="163"/>
-      <c r="J134" s="163"/>
-      <c r="K134" s="158" t="s">
+      <c r="I134" s="158"/>
+      <c r="J134" s="158"/>
+      <c r="K134" s="153" t="s">
         <v>60</v>
       </c>
-      <c r="L134" s="165" t="s">
+      <c r="L134" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="M134" s="158"/>
-      <c r="N134" s="158"/>
-      <c r="O134" s="158" t="s">
+      <c r="M134" s="153"/>
+      <c r="N134" s="153"/>
+      <c r="O134" s="153" t="s">
         <v>60</v>
       </c>
-      <c r="P134" s="158" t="s">
+      <c r="P134" s="153" t="s">
         <v>65</v>
       </c>
-      <c r="Q134" s="158"/>
-      <c r="R134" s="158"/>
-      <c r="S134" s="158" t="s">
+      <c r="Q134" s="153"/>
+      <c r="R134" s="153"/>
+      <c r="S134" s="153" t="s">
         <v>60</v>
       </c>
-      <c r="T134" s="160" t="s">
+      <c r="T134" s="155" t="s">
         <v>66</v>
       </c>
-      <c r="U134" s="160"/>
-      <c r="V134" s="160"/>
+      <c r="U134" s="155"/>
+      <c r="V134" s="155"/>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A135" s="157"/>
-      <c r="B135" s="157"/>
-      <c r="C135" s="157"/>
-      <c r="D135" s="158"/>
-      <c r="E135" s="158"/>
-      <c r="F135" s="158"/>
-      <c r="G135" s="158"/>
-      <c r="H135" s="163"/>
-      <c r="I135" s="163"/>
-      <c r="J135" s="163"/>
-      <c r="K135" s="158"/>
-      <c r="L135" s="158"/>
-      <c r="M135" s="158"/>
-      <c r="N135" s="158"/>
-      <c r="O135" s="158"/>
-      <c r="P135" s="158"/>
-      <c r="Q135" s="158"/>
-      <c r="R135" s="158"/>
-      <c r="S135" s="158"/>
-      <c r="T135" s="160"/>
-      <c r="U135" s="160"/>
-      <c r="V135" s="160"/>
+      <c r="A135" s="152"/>
+      <c r="B135" s="152"/>
+      <c r="C135" s="152"/>
+      <c r="D135" s="153"/>
+      <c r="E135" s="153"/>
+      <c r="F135" s="153"/>
+      <c r="G135" s="153"/>
+      <c r="H135" s="158"/>
+      <c r="I135" s="158"/>
+      <c r="J135" s="158"/>
+      <c r="K135" s="153"/>
+      <c r="L135" s="153"/>
+      <c r="M135" s="153"/>
+      <c r="N135" s="153"/>
+      <c r="O135" s="153"/>
+      <c r="P135" s="153"/>
+      <c r="Q135" s="153"/>
+      <c r="R135" s="153"/>
+      <c r="S135" s="153"/>
+      <c r="T135" s="155"/>
+      <c r="U135" s="155"/>
+      <c r="V135" s="155"/>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A136" s="157"/>
-      <c r="B136" s="157"/>
-      <c r="C136" s="157"/>
-      <c r="D136" s="158"/>
-      <c r="E136" s="158"/>
-      <c r="F136" s="158"/>
-      <c r="G136" s="158"/>
-      <c r="H136" s="163"/>
-      <c r="I136" s="163"/>
-      <c r="J136" s="163"/>
-      <c r="K136" s="158"/>
-      <c r="L136" s="158"/>
-      <c r="M136" s="158"/>
-      <c r="N136" s="158"/>
-      <c r="O136" s="158"/>
-      <c r="P136" s="158"/>
-      <c r="Q136" s="158"/>
-      <c r="R136" s="158"/>
-      <c r="S136" s="158"/>
-      <c r="T136" s="160"/>
-      <c r="U136" s="160"/>
-      <c r="V136" s="160"/>
+      <c r="A136" s="152"/>
+      <c r="B136" s="152"/>
+      <c r="C136" s="152"/>
+      <c r="D136" s="153"/>
+      <c r="E136" s="153"/>
+      <c r="F136" s="153"/>
+      <c r="G136" s="153"/>
+      <c r="H136" s="158"/>
+      <c r="I136" s="158"/>
+      <c r="J136" s="158"/>
+      <c r="K136" s="153"/>
+      <c r="L136" s="153"/>
+      <c r="M136" s="153"/>
+      <c r="N136" s="153"/>
+      <c r="O136" s="153"/>
+      <c r="P136" s="153"/>
+      <c r="Q136" s="153"/>
+      <c r="R136" s="153"/>
+      <c r="S136" s="153"/>
+      <c r="T136" s="155"/>
+      <c r="U136" s="155"/>
+      <c r="V136" s="155"/>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A137" s="157"/>
-      <c r="B137" s="157"/>
-      <c r="C137" s="157"/>
-      <c r="D137" s="158"/>
-      <c r="E137" s="158"/>
-      <c r="F137" s="158"/>
-      <c r="G137" s="158"/>
-      <c r="H137" s="163"/>
-      <c r="I137" s="163"/>
-      <c r="J137" s="163"/>
-      <c r="K137" s="158"/>
-      <c r="L137" s="158"/>
-      <c r="M137" s="158"/>
-      <c r="N137" s="158"/>
-      <c r="O137" s="158"/>
-      <c r="P137" s="158"/>
-      <c r="Q137" s="158"/>
-      <c r="R137" s="158"/>
-      <c r="S137" s="158"/>
-      <c r="T137" s="160"/>
-      <c r="U137" s="160"/>
-      <c r="V137" s="160"/>
+      <c r="A137" s="152"/>
+      <c r="B137" s="152"/>
+      <c r="C137" s="152"/>
+      <c r="D137" s="153"/>
+      <c r="E137" s="153"/>
+      <c r="F137" s="153"/>
+      <c r="G137" s="153"/>
+      <c r="H137" s="158"/>
+      <c r="I137" s="158"/>
+      <c r="J137" s="158"/>
+      <c r="K137" s="153"/>
+      <c r="L137" s="153"/>
+      <c r="M137" s="153"/>
+      <c r="N137" s="153"/>
+      <c r="O137" s="153"/>
+      <c r="P137" s="153"/>
+      <c r="Q137" s="153"/>
+      <c r="R137" s="153"/>
+      <c r="S137" s="153"/>
+      <c r="T137" s="155"/>
+      <c r="U137" s="155"/>
+      <c r="V137" s="155"/>
     </row>
     <row r="138" spans="1:22" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D138" s="161" t="s">
+      <c r="D138" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="E138" s="161"/>
-      <c r="F138" s="161"/>
-      <c r="G138" s="158"/>
-      <c r="H138" s="164" t="s">
+      <c r="E138" s="156"/>
+      <c r="F138" s="156"/>
+      <c r="G138" s="153"/>
+      <c r="H138" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="I138" s="164"/>
-      <c r="J138" s="164"/>
-      <c r="K138" s="158"/>
-      <c r="L138" s="158" t="s">
+      <c r="I138" s="159"/>
+      <c r="J138" s="159"/>
+      <c r="K138" s="153"/>
+      <c r="L138" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="M138" s="158"/>
-      <c r="N138" s="158"/>
-      <c r="O138" s="158"/>
-      <c r="P138" s="158"/>
-      <c r="Q138" s="158"/>
-      <c r="R138" s="158"/>
-      <c r="S138" s="158"/>
-      <c r="T138" s="158" t="s">
+      <c r="M138" s="153"/>
+      <c r="N138" s="153"/>
+      <c r="O138" s="153"/>
+      <c r="P138" s="153"/>
+      <c r="Q138" s="153"/>
+      <c r="R138" s="153"/>
+      <c r="S138" s="153"/>
+      <c r="T138" s="153" t="s">
         <v>67</v>
       </c>
-      <c r="U138" s="158"/>
-      <c r="V138" s="158"/>
+      <c r="U138" s="153"/>
+      <c r="V138" s="153"/>
     </row>
     <row r="139" spans="1:22" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D139" s="43"/>
@@ -30484,7 +30874,7 @@
       <c r="H220" s="14"/>
     </row>
     <row r="221" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="147" t="s">
+      <c r="A221" s="142" t="s">
         <v>104</v>
       </c>
       <c r="B221" s="16" t="s">
@@ -30496,7 +30886,7 @@
       <c r="D221" s="18"/>
     </row>
     <row r="222" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A222" s="148"/>
+      <c r="A222" s="143"/>
       <c r="B222" s="19" t="s">
         <v>106</v>
       </c>
@@ -30506,7 +30896,7 @@
       <c r="D222" s="18"/>
     </row>
     <row r="223" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A223" s="148"/>
+      <c r="A223" s="143"/>
       <c r="B223" s="19" t="s">
         <v>107</v>
       </c>
@@ -30539,7 +30929,7 @@
       <c r="AA223" s="6"/>
     </row>
     <row r="224" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A224" s="148"/>
+      <c r="A224" s="143"/>
       <c r="B224" s="19" t="s">
         <v>146</v>
       </c>
@@ -30574,7 +30964,7 @@
       <c r="AA224" s="6"/>
     </row>
     <row r="225" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A225" s="148"/>
+      <c r="A225" s="143"/>
       <c r="B225" s="19" t="s">
         <v>147</v>
       </c>
@@ -30609,7 +30999,7 @@
       <c r="AA225" s="6"/>
     </row>
     <row r="226" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A226" s="148"/>
+      <c r="A226" s="143"/>
       <c r="B226" s="19" t="s">
         <v>155</v>
       </c>
@@ -30644,7 +31034,7 @@
       <c r="AA226" s="6"/>
     </row>
     <row r="227" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A227" s="148"/>
+      <c r="A227" s="143"/>
       <c r="B227" s="19" t="s">
         <v>156</v>
       </c>
@@ -30679,7 +31069,7 @@
       <c r="AA227" s="6"/>
     </row>
     <row r="228" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A228" s="148"/>
+      <c r="A228" s="143"/>
       <c r="B228" s="19" t="s">
         <v>158</v>
       </c>
@@ -30716,7 +31106,7 @@
       <c r="AA228" s="6"/>
     </row>
     <row r="229" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A229" s="148"/>
+      <c r="A229" s="143"/>
       <c r="B229" s="19" t="s">
         <v>159</v>
       </c>
@@ -30751,7 +31141,7 @@
       <c r="AA229" s="6"/>
     </row>
     <row r="230" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A230" s="148"/>
+      <c r="A230" s="143"/>
       <c r="B230" s="19" t="s">
         <v>153</v>
       </c>
@@ -30784,7 +31174,7 @@
       <c r="AA230" s="6"/>
     </row>
     <row r="231" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A231" s="148"/>
+      <c r="A231" s="143"/>
       <c r="B231" s="19" t="s">
         <v>154</v>
       </c>
@@ -30819,7 +31209,7 @@
       <c r="AA231" s="6"/>
     </row>
     <row r="232" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A232" s="148"/>
+      <c r="A232" s="143"/>
       <c r="B232" s="19" t="s">
         <v>168</v>
       </c>
@@ -30854,7 +31244,7 @@
       <c r="AA232" s="6"/>
     </row>
     <row r="233" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A233" s="148"/>
+      <c r="A233" s="143"/>
       <c r="B233" s="19" t="s">
         <v>169</v>
       </c>
@@ -30891,7 +31281,7 @@
       <c r="AA233" s="6"/>
     </row>
     <row r="234" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A234" s="148"/>
+      <c r="A234" s="143"/>
       <c r="B234" s="19" t="s">
         <v>114</v>
       </c>
@@ -30905,7 +31295,7 @@
       <c r="H234" s="5"/>
     </row>
     <row r="235" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A235" s="148"/>
+      <c r="A235" s="143"/>
       <c r="B235" s="19" t="s">
         <v>115</v>
       </c>
@@ -30915,7 +31305,7 @@
       <c r="D235" s="18"/>
     </row>
     <row r="236" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A236" s="148"/>
+      <c r="A236" s="143"/>
       <c r="B236" s="20" t="s">
         <v>120</v>
       </c>
@@ -30926,7 +31316,7 @@
       <c r="H236" s="5"/>
     </row>
     <row r="237" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A237" s="148"/>
+      <c r="A237" s="143"/>
       <c r="B237" s="25" t="s">
         <v>122</v>
       </c>
@@ -30942,7 +31332,7 @@
       <c r="H237" s="24"/>
     </row>
     <row r="238" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A238" s="148"/>
+      <c r="A238" s="143"/>
       <c r="B238" s="25" t="s">
         <v>125</v>
       </c>
@@ -30956,7 +31346,7 @@
       <c r="H238" s="24"/>
     </row>
     <row r="239" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A239" s="148"/>
+      <c r="A239" s="143"/>
       <c r="B239" s="25" t="s">
         <v>127</v>
       </c>
@@ -30972,7 +31362,7 @@
       <c r="H239" s="24"/>
     </row>
     <row r="240" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A240" s="149"/>
+      <c r="A240" s="144"/>
       <c r="B240" s="27" t="s">
         <v>130</v>
       </c>
@@ -31100,7 +31490,7 @@
       <c r="B256" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C256" s="157" t="s">
+      <c r="C256" s="152" t="s">
         <v>236</v>
       </c>
     </row>
@@ -31108,18 +31498,18 @@
       <c r="B257" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C257" s="157"/>
+      <c r="C257" s="152"/>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C258" s="157"/>
+      <c r="C258" s="152"/>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C259" s="157" t="s">
+      <c r="C259" s="152" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C260" s="157"/>
+      <c r="C260" s="152"/>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B261" s="2" t="s">
@@ -35533,7 +35923,7 @@
       <c r="G897" s="68"/>
       <c r="H897" s="65"/>
     </row>
-    <row r="898" spans="2:8" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="898" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B898" s="46"/>
       <c r="C898" s="70"/>
       <c r="D898" s="70"/>

--- a/gd/数值规划/手游数值结构规划.xlsx
+++ b/gd/数值规划/手游数值结构规划.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="1206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="1252">
   <si>
     <t>一级属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4802,6 +4802,190 @@
   </si>
   <si>
     <t>按照上场顺序存储玩家携带怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>puid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hairColor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>career</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recharge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vipLevel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>device</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resetTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼睛样式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头发样式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头发颜色样式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vip等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物钻石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleMonster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前携带装备ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>logoutTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家账号信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏平台（安卓/ios）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家最近一次登录时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家最近一次登出时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家建号时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家最近一次修改数据库时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatigue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（目前未添加，等确定PL值系统后添加）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前携带怪物ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(第六只其实是管好友借的)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5701,6 +5885,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5713,17 +5900,20 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5732,30 +5922,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5773,8 +5948,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -6499,11 +6683,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="597612544"/>
-        <c:axId val="597613104"/>
+        <c:axId val="280036752"/>
+        <c:axId val="641352048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="597612544"/>
+        <c:axId val="280036752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6545,7 +6729,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597613104"/>
+        <c:crossAx val="641352048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6553,7 +6737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="597613104"/>
+        <c:axId val="641352048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6604,7 +6788,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597612544"/>
+        <c:crossAx val="280036752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9964,13 +10148,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>6641</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>304578</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -19305,7 +19489,7 @@
       <c r="I195" s="14"/>
     </row>
     <row r="196" spans="2:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B196" s="155" t="s">
+      <c r="B196" s="156" t="s">
         <v>1073</v>
       </c>
       <c r="C196" s="129" t="s">
@@ -19317,7 +19501,7 @@
       <c r="E196" s="113"/>
     </row>
     <row r="197" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B197" s="156"/>
+      <c r="B197" s="157"/>
       <c r="C197" s="111" t="s">
         <v>1082</v>
       </c>
@@ -19350,7 +19534,7 @@
       <c r="AB197" s="6"/>
     </row>
     <row r="198" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B198" s="156"/>
+      <c r="B198" s="157"/>
       <c r="C198" s="137" t="s">
         <v>1086</v>
       </c>
@@ -19385,7 +19569,7 @@
       <c r="AB198" s="6"/>
     </row>
     <row r="199" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B199" s="156"/>
+      <c r="B199" s="157"/>
       <c r="C199" s="111" t="s">
         <v>146</v>
       </c>
@@ -19419,7 +19603,7 @@
       <c r="AB199" s="6"/>
     </row>
     <row r="200" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B200" s="156"/>
+      <c r="B200" s="157"/>
       <c r="C200" s="111" t="s">
         <v>155</v>
       </c>
@@ -19435,7 +19619,7 @@
       <c r="AB200" s="6"/>
     </row>
     <row r="201" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B201" s="156"/>
+      <c r="B201" s="157"/>
       <c r="C201" s="111" t="s">
         <v>158</v>
       </c>
@@ -19460,7 +19644,7 @@
       <c r="X201" s="6"/>
     </row>
     <row r="202" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B202" s="156"/>
+      <c r="B202" s="157"/>
       <c r="C202" s="111" t="s">
         <v>153</v>
       </c>
@@ -19485,7 +19669,7 @@
       <c r="X202" s="6"/>
     </row>
     <row r="203" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B203" s="156"/>
+      <c r="B203" s="157"/>
       <c r="C203" s="111" t="s">
         <v>168</v>
       </c>
@@ -19510,7 +19694,7 @@
       <c r="X203" s="6"/>
     </row>
     <row r="204" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B204" s="156"/>
+      <c r="B204" s="157"/>
       <c r="C204" s="111" t="s">
         <v>114</v>
       </c>
@@ -19537,7 +19721,7 @@
       <c r="X204" s="6"/>
     </row>
     <row r="205" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B205" s="156"/>
+      <c r="B205" s="157"/>
       <c r="C205" s="111" t="s">
         <v>115</v>
       </c>
@@ -19562,7 +19746,7 @@
       <c r="X205" s="6"/>
     </row>
     <row r="206" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B206" s="156"/>
+      <c r="B206" s="157"/>
       <c r="C206" s="126" t="s">
         <v>914</v>
       </c>
@@ -19585,7 +19769,7 @@
       <c r="X206" s="6"/>
     </row>
     <row r="207" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B207" s="156"/>
+      <c r="B207" s="157"/>
       <c r="C207" s="111" t="s">
         <v>122</v>
       </c>
@@ -19613,7 +19797,7 @@
       <c r="X207" s="6"/>
     </row>
     <row r="208" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B208" s="156"/>
+      <c r="B208" s="157"/>
       <c r="C208" s="111" t="s">
         <v>979</v>
       </c>
@@ -19641,7 +19825,7 @@
       <c r="X208" s="6"/>
     </row>
     <row r="209" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B209" s="157"/>
+      <c r="B209" s="158"/>
       <c r="C209" s="131" t="s">
         <v>980</v>
       </c>
@@ -21056,56 +21240,56 @@
       <c r="AQ82" s="24"/>
     </row>
     <row r="83" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B83" s="161" t="s">
+      <c r="B83" s="164" t="s">
         <v>58</v>
       </c>
-      <c r="C83" s="162"/>
-      <c r="D83" s="162"/>
+      <c r="C83" s="161"/>
+      <c r="D83" s="161"/>
       <c r="E83" s="160" t="s">
         <v>1049</v>
       </c>
-      <c r="F83" s="158"/>
-      <c r="G83" s="158"/>
-      <c r="H83" s="158" t="s">
+      <c r="F83" s="159"/>
+      <c r="G83" s="159"/>
+      <c r="H83" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="I83" s="163" t="s">
+      <c r="I83" s="165" t="s">
         <v>937</v>
       </c>
-      <c r="J83" s="164"/>
-      <c r="K83" s="164"/>
-      <c r="L83" s="158" t="s">
+      <c r="J83" s="166"/>
+      <c r="K83" s="166"/>
+      <c r="L83" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="M83" s="158" t="s">
+      <c r="M83" s="159" t="s">
         <v>942</v>
       </c>
-      <c r="N83" s="158"/>
-      <c r="O83" s="158"/>
-      <c r="P83" s="162" t="s">
+      <c r="N83" s="159"/>
+      <c r="O83" s="159"/>
+      <c r="P83" s="161" t="s">
         <v>941</v>
       </c>
-      <c r="Q83" s="165" t="s">
+      <c r="Q83" s="162" t="s">
         <v>943</v>
       </c>
-      <c r="R83" s="165"/>
-      <c r="S83" s="165"/>
-      <c r="T83" s="158" t="s">
+      <c r="R83" s="162"/>
+      <c r="S83" s="162"/>
+      <c r="T83" s="159" t="s">
         <v>60</v>
       </c>
       <c r="U83" s="160" t="s">
         <v>916</v>
       </c>
-      <c r="V83" s="158"/>
-      <c r="W83" s="158"/>
-      <c r="X83" s="158" t="s">
+      <c r="V83" s="159"/>
+      <c r="W83" s="159"/>
+      <c r="X83" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="Y83" s="158" t="s">
+      <c r="Y83" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="Z83" s="158"/>
-      <c r="AA83" s="158"/>
+      <c r="Z83" s="159"/>
+      <c r="AA83" s="159"/>
       <c r="AB83" s="24"/>
       <c r="AC83" s="24"/>
       <c r="AD83" s="24"/>
@@ -21124,32 +21308,32 @@
       <c r="AQ83" s="24"/>
     </row>
     <row r="84" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B84" s="162"/>
-      <c r="C84" s="162"/>
-      <c r="D84" s="162"/>
-      <c r="E84" s="158"/>
-      <c r="F84" s="158"/>
-      <c r="G84" s="158"/>
-      <c r="H84" s="158"/>
-      <c r="I84" s="164"/>
-      <c r="J84" s="164"/>
-      <c r="K84" s="164"/>
-      <c r="L84" s="158"/>
-      <c r="M84" s="158"/>
-      <c r="N84" s="158"/>
-      <c r="O84" s="158"/>
-      <c r="P84" s="162"/>
-      <c r="Q84" s="165"/>
-      <c r="R84" s="165"/>
-      <c r="S84" s="165"/>
-      <c r="T84" s="158"/>
-      <c r="U84" s="158"/>
-      <c r="V84" s="158"/>
-      <c r="W84" s="158"/>
-      <c r="X84" s="158"/>
-      <c r="Y84" s="158"/>
-      <c r="Z84" s="158"/>
-      <c r="AA84" s="158"/>
+      <c r="B84" s="161"/>
+      <c r="C84" s="161"/>
+      <c r="D84" s="161"/>
+      <c r="E84" s="159"/>
+      <c r="F84" s="159"/>
+      <c r="G84" s="159"/>
+      <c r="H84" s="159"/>
+      <c r="I84" s="166"/>
+      <c r="J84" s="166"/>
+      <c r="K84" s="166"/>
+      <c r="L84" s="159"/>
+      <c r="M84" s="159"/>
+      <c r="N84" s="159"/>
+      <c r="O84" s="159"/>
+      <c r="P84" s="161"/>
+      <c r="Q84" s="162"/>
+      <c r="R84" s="162"/>
+      <c r="S84" s="162"/>
+      <c r="T84" s="159"/>
+      <c r="U84" s="159"/>
+      <c r="V84" s="159"/>
+      <c r="W84" s="159"/>
+      <c r="X84" s="159"/>
+      <c r="Y84" s="159"/>
+      <c r="Z84" s="159"/>
+      <c r="AA84" s="159"/>
       <c r="AB84" s="24"/>
       <c r="AC84" s="24"/>
       <c r="AD84" s="24"/>
@@ -21168,32 +21352,32 @@
       <c r="AQ84" s="24"/>
     </row>
     <row r="85" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B85" s="162"/>
-      <c r="C85" s="162"/>
-      <c r="D85" s="162"/>
-      <c r="E85" s="158"/>
-      <c r="F85" s="158"/>
-      <c r="G85" s="158"/>
-      <c r="H85" s="158"/>
-      <c r="I85" s="164"/>
-      <c r="J85" s="164"/>
-      <c r="K85" s="164"/>
-      <c r="L85" s="158"/>
-      <c r="M85" s="158"/>
-      <c r="N85" s="158"/>
-      <c r="O85" s="158"/>
-      <c r="P85" s="162"/>
-      <c r="Q85" s="165"/>
-      <c r="R85" s="165"/>
-      <c r="S85" s="165"/>
-      <c r="T85" s="158"/>
-      <c r="U85" s="158"/>
-      <c r="V85" s="158"/>
-      <c r="W85" s="158"/>
-      <c r="X85" s="158"/>
-      <c r="Y85" s="158"/>
-      <c r="Z85" s="158"/>
-      <c r="AA85" s="158"/>
+      <c r="B85" s="161"/>
+      <c r="C85" s="161"/>
+      <c r="D85" s="161"/>
+      <c r="E85" s="159"/>
+      <c r="F85" s="159"/>
+      <c r="G85" s="159"/>
+      <c r="H85" s="159"/>
+      <c r="I85" s="166"/>
+      <c r="J85" s="166"/>
+      <c r="K85" s="166"/>
+      <c r="L85" s="159"/>
+      <c r="M85" s="159"/>
+      <c r="N85" s="159"/>
+      <c r="O85" s="159"/>
+      <c r="P85" s="161"/>
+      <c r="Q85" s="162"/>
+      <c r="R85" s="162"/>
+      <c r="S85" s="162"/>
+      <c r="T85" s="159"/>
+      <c r="U85" s="159"/>
+      <c r="V85" s="159"/>
+      <c r="W85" s="159"/>
+      <c r="X85" s="159"/>
+      <c r="Y85" s="159"/>
+      <c r="Z85" s="159"/>
+      <c r="AA85" s="159"/>
       <c r="AB85" s="24"/>
       <c r="AC85" s="24"/>
       <c r="AD85" s="24"/>
@@ -21212,32 +21396,32 @@
       <c r="AQ85" s="24"/>
     </row>
     <row r="86" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B86" s="162"/>
-      <c r="C86" s="162"/>
-      <c r="D86" s="162"/>
-      <c r="E86" s="158"/>
-      <c r="F86" s="158"/>
-      <c r="G86" s="158"/>
-      <c r="H86" s="158"/>
-      <c r="I86" s="164"/>
-      <c r="J86" s="164"/>
-      <c r="K86" s="164"/>
-      <c r="L86" s="158"/>
-      <c r="M86" s="158"/>
-      <c r="N86" s="158"/>
-      <c r="O86" s="158"/>
-      <c r="P86" s="162"/>
-      <c r="Q86" s="165"/>
-      <c r="R86" s="165"/>
-      <c r="S86" s="165"/>
-      <c r="T86" s="158"/>
-      <c r="U86" s="158"/>
-      <c r="V86" s="158"/>
-      <c r="W86" s="158"/>
-      <c r="X86" s="158"/>
-      <c r="Y86" s="158"/>
-      <c r="Z86" s="158"/>
-      <c r="AA86" s="158"/>
+      <c r="B86" s="161"/>
+      <c r="C86" s="161"/>
+      <c r="D86" s="161"/>
+      <c r="E86" s="159"/>
+      <c r="F86" s="159"/>
+      <c r="G86" s="159"/>
+      <c r="H86" s="159"/>
+      <c r="I86" s="166"/>
+      <c r="J86" s="166"/>
+      <c r="K86" s="166"/>
+      <c r="L86" s="159"/>
+      <c r="M86" s="159"/>
+      <c r="N86" s="159"/>
+      <c r="O86" s="159"/>
+      <c r="P86" s="161"/>
+      <c r="Q86" s="162"/>
+      <c r="R86" s="162"/>
+      <c r="S86" s="162"/>
+      <c r="T86" s="159"/>
+      <c r="U86" s="159"/>
+      <c r="V86" s="159"/>
+      <c r="W86" s="159"/>
+      <c r="X86" s="159"/>
+      <c r="Y86" s="159"/>
+      <c r="Z86" s="159"/>
+      <c r="AA86" s="159"/>
       <c r="AB86" s="24"/>
       <c r="AC86" s="24"/>
       <c r="AD86" s="24"/>
@@ -21259,34 +21443,34 @@
       <c r="B87" s="24"/>
       <c r="C87" s="24"/>
       <c r="D87" s="24"/>
-      <c r="E87" s="158" t="s">
+      <c r="E87" s="159" t="s">
         <v>59</v>
       </c>
-      <c r="F87" s="158"/>
-      <c r="G87" s="158"/>
-      <c r="H87" s="158"/>
-      <c r="I87" s="159" t="s">
+      <c r="F87" s="159"/>
+      <c r="G87" s="159"/>
+      <c r="H87" s="159"/>
+      <c r="I87" s="163" t="s">
         <v>936</v>
       </c>
-      <c r="J87" s="159"/>
-      <c r="K87" s="159"/>
-      <c r="L87" s="158"/>
-      <c r="M87" s="158" t="s">
+      <c r="J87" s="163"/>
+      <c r="K87" s="163"/>
+      <c r="L87" s="159"/>
+      <c r="M87" s="159" t="s">
         <v>67</v>
       </c>
-      <c r="N87" s="158"/>
-      <c r="O87" s="158"/>
-      <c r="P87" s="162"/>
+      <c r="N87" s="159"/>
+      <c r="O87" s="159"/>
+      <c r="P87" s="161"/>
       <c r="Q87" s="24"/>
       <c r="R87" s="24"/>
       <c r="S87" s="24"/>
-      <c r="T87" s="158"/>
-      <c r="U87" s="158" t="s">
+      <c r="T87" s="159"/>
+      <c r="U87" s="159" t="s">
         <v>64</v>
       </c>
-      <c r="V87" s="158"/>
-      <c r="W87" s="158"/>
-      <c r="X87" s="158"/>
+      <c r="V87" s="159"/>
+      <c r="W87" s="159"/>
+      <c r="X87" s="159"/>
       <c r="Y87" s="120"/>
       <c r="Z87" s="120"/>
       <c r="AA87" s="120"/>
@@ -21444,64 +21628,64 @@
       <c r="AQ90" s="24"/>
     </row>
     <row r="91" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B91" s="161" t="s">
+      <c r="B91" s="164" t="s">
         <v>940</v>
       </c>
-      <c r="C91" s="162"/>
-      <c r="D91" s="162"/>
+      <c r="C91" s="161"/>
+      <c r="D91" s="161"/>
       <c r="E91" s="160" t="s">
         <v>229</v>
       </c>
-      <c r="F91" s="158"/>
-      <c r="G91" s="158"/>
-      <c r="H91" s="158" t="s">
+      <c r="F91" s="159"/>
+      <c r="G91" s="159"/>
+      <c r="H91" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="I91" s="163" t="s">
+      <c r="I91" s="165" t="s">
         <v>944</v>
       </c>
-      <c r="J91" s="164"/>
-      <c r="K91" s="164"/>
-      <c r="L91" s="158" t="s">
+      <c r="J91" s="166"/>
+      <c r="K91" s="166"/>
+      <c r="L91" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="M91" s="158" t="s">
+      <c r="M91" s="159" t="s">
         <v>947</v>
       </c>
-      <c r="N91" s="158"/>
-      <c r="O91" s="158"/>
-      <c r="P91" s="162" t="s">
+      <c r="N91" s="159"/>
+      <c r="O91" s="159"/>
+      <c r="P91" s="161" t="s">
         <v>941</v>
       </c>
-      <c r="Q91" s="165" t="s">
+      <c r="Q91" s="162" t="s">
         <v>946</v>
       </c>
-      <c r="R91" s="165"/>
-      <c r="S91" s="165"/>
-      <c r="T91" s="158" t="s">
+      <c r="R91" s="162"/>
+      <c r="S91" s="162"/>
+      <c r="T91" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="U91" s="166" t="s">
+      <c r="U91" s="167" t="s">
         <v>1017</v>
       </c>
-      <c r="V91" s="165"/>
-      <c r="W91" s="165"/>
-      <c r="X91" s="158" t="s">
+      <c r="V91" s="162"/>
+      <c r="W91" s="162"/>
+      <c r="X91" s="159" t="s">
         <v>60</v>
       </c>
       <c r="Y91" s="160" t="s">
         <v>916</v>
       </c>
-      <c r="Z91" s="158"/>
-      <c r="AA91" s="158"/>
-      <c r="AB91" s="158" t="s">
+      <c r="Z91" s="159"/>
+      <c r="AA91" s="159"/>
+      <c r="AB91" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="AC91" s="158" t="s">
+      <c r="AC91" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="AD91" s="158"/>
-      <c r="AE91" s="158"/>
+      <c r="AD91" s="159"/>
+      <c r="AE91" s="159"/>
       <c r="AF91" s="24"/>
       <c r="AG91" s="24"/>
       <c r="AH91" s="24"/>
@@ -21516,36 +21700,36 @@
       <c r="AQ91" s="24"/>
     </row>
     <row r="92" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B92" s="162"/>
-      <c r="C92" s="162"/>
-      <c r="D92" s="162"/>
-      <c r="E92" s="158"/>
-      <c r="F92" s="158"/>
-      <c r="G92" s="158"/>
-      <c r="H92" s="158"/>
-      <c r="I92" s="164"/>
-      <c r="J92" s="164"/>
-      <c r="K92" s="164"/>
-      <c r="L92" s="158"/>
-      <c r="M92" s="158"/>
-      <c r="N92" s="158"/>
-      <c r="O92" s="158"/>
-      <c r="P92" s="162"/>
-      <c r="Q92" s="165"/>
-      <c r="R92" s="165"/>
-      <c r="S92" s="165"/>
-      <c r="T92" s="158"/>
-      <c r="U92" s="165"/>
-      <c r="V92" s="165"/>
-      <c r="W92" s="165"/>
-      <c r="X92" s="158"/>
-      <c r="Y92" s="158"/>
-      <c r="Z92" s="158"/>
-      <c r="AA92" s="158"/>
-      <c r="AB92" s="158"/>
-      <c r="AC92" s="158"/>
-      <c r="AD92" s="158"/>
-      <c r="AE92" s="158"/>
+      <c r="B92" s="161"/>
+      <c r="C92" s="161"/>
+      <c r="D92" s="161"/>
+      <c r="E92" s="159"/>
+      <c r="F92" s="159"/>
+      <c r="G92" s="159"/>
+      <c r="H92" s="159"/>
+      <c r="I92" s="166"/>
+      <c r="J92" s="166"/>
+      <c r="K92" s="166"/>
+      <c r="L92" s="159"/>
+      <c r="M92" s="159"/>
+      <c r="N92" s="159"/>
+      <c r="O92" s="159"/>
+      <c r="P92" s="161"/>
+      <c r="Q92" s="162"/>
+      <c r="R92" s="162"/>
+      <c r="S92" s="162"/>
+      <c r="T92" s="159"/>
+      <c r="U92" s="162"/>
+      <c r="V92" s="162"/>
+      <c r="W92" s="162"/>
+      <c r="X92" s="159"/>
+      <c r="Y92" s="159"/>
+      <c r="Z92" s="159"/>
+      <c r="AA92" s="159"/>
+      <c r="AB92" s="159"/>
+      <c r="AC92" s="159"/>
+      <c r="AD92" s="159"/>
+      <c r="AE92" s="159"/>
       <c r="AF92" s="24"/>
       <c r="AG92" s="24"/>
       <c r="AH92" s="24"/>
@@ -21560,36 +21744,36 @@
       <c r="AQ92" s="24"/>
     </row>
     <row r="93" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B93" s="162"/>
-      <c r="C93" s="162"/>
-      <c r="D93" s="162"/>
-      <c r="E93" s="158"/>
-      <c r="F93" s="158"/>
-      <c r="G93" s="158"/>
-      <c r="H93" s="158"/>
-      <c r="I93" s="164"/>
-      <c r="J93" s="164"/>
-      <c r="K93" s="164"/>
-      <c r="L93" s="158"/>
-      <c r="M93" s="158"/>
-      <c r="N93" s="158"/>
-      <c r="O93" s="158"/>
-      <c r="P93" s="162"/>
-      <c r="Q93" s="165"/>
-      <c r="R93" s="165"/>
-      <c r="S93" s="165"/>
-      <c r="T93" s="158"/>
-      <c r="U93" s="165"/>
-      <c r="V93" s="165"/>
-      <c r="W93" s="165"/>
-      <c r="X93" s="158"/>
-      <c r="Y93" s="158"/>
-      <c r="Z93" s="158"/>
-      <c r="AA93" s="158"/>
-      <c r="AB93" s="158"/>
-      <c r="AC93" s="158"/>
-      <c r="AD93" s="158"/>
-      <c r="AE93" s="158"/>
+      <c r="B93" s="161"/>
+      <c r="C93" s="161"/>
+      <c r="D93" s="161"/>
+      <c r="E93" s="159"/>
+      <c r="F93" s="159"/>
+      <c r="G93" s="159"/>
+      <c r="H93" s="159"/>
+      <c r="I93" s="166"/>
+      <c r="J93" s="166"/>
+      <c r="K93" s="166"/>
+      <c r="L93" s="159"/>
+      <c r="M93" s="159"/>
+      <c r="N93" s="159"/>
+      <c r="O93" s="159"/>
+      <c r="P93" s="161"/>
+      <c r="Q93" s="162"/>
+      <c r="R93" s="162"/>
+      <c r="S93" s="162"/>
+      <c r="T93" s="159"/>
+      <c r="U93" s="162"/>
+      <c r="V93" s="162"/>
+      <c r="W93" s="162"/>
+      <c r="X93" s="159"/>
+      <c r="Y93" s="159"/>
+      <c r="Z93" s="159"/>
+      <c r="AA93" s="159"/>
+      <c r="AB93" s="159"/>
+      <c r="AC93" s="159"/>
+      <c r="AD93" s="159"/>
+      <c r="AE93" s="159"/>
       <c r="AF93" s="24"/>
       <c r="AG93" s="24"/>
       <c r="AH93" s="24"/>
@@ -21604,36 +21788,36 @@
       <c r="AQ93" s="24"/>
     </row>
     <row r="94" spans="2:43" x14ac:dyDescent="0.15">
-      <c r="B94" s="162"/>
-      <c r="C94" s="162"/>
-      <c r="D94" s="162"/>
-      <c r="E94" s="158"/>
-      <c r="F94" s="158"/>
-      <c r="G94" s="158"/>
-      <c r="H94" s="158"/>
-      <c r="I94" s="164"/>
-      <c r="J94" s="164"/>
-      <c r="K94" s="164"/>
-      <c r="L94" s="158"/>
-      <c r="M94" s="158"/>
-      <c r="N94" s="158"/>
-      <c r="O94" s="158"/>
-      <c r="P94" s="162"/>
-      <c r="Q94" s="165"/>
-      <c r="R94" s="165"/>
-      <c r="S94" s="165"/>
-      <c r="T94" s="158"/>
-      <c r="U94" s="165"/>
-      <c r="V94" s="165"/>
-      <c r="W94" s="165"/>
-      <c r="X94" s="158"/>
-      <c r="Y94" s="158"/>
-      <c r="Z94" s="158"/>
-      <c r="AA94" s="158"/>
-      <c r="AB94" s="158"/>
-      <c r="AC94" s="158"/>
-      <c r="AD94" s="158"/>
-      <c r="AE94" s="158"/>
+      <c r="B94" s="161"/>
+      <c r="C94" s="161"/>
+      <c r="D94" s="161"/>
+      <c r="E94" s="159"/>
+      <c r="F94" s="159"/>
+      <c r="G94" s="159"/>
+      <c r="H94" s="159"/>
+      <c r="I94" s="166"/>
+      <c r="J94" s="166"/>
+      <c r="K94" s="166"/>
+      <c r="L94" s="159"/>
+      <c r="M94" s="159"/>
+      <c r="N94" s="159"/>
+      <c r="O94" s="159"/>
+      <c r="P94" s="161"/>
+      <c r="Q94" s="162"/>
+      <c r="R94" s="162"/>
+      <c r="S94" s="162"/>
+      <c r="T94" s="159"/>
+      <c r="U94" s="162"/>
+      <c r="V94" s="162"/>
+      <c r="W94" s="162"/>
+      <c r="X94" s="159"/>
+      <c r="Y94" s="159"/>
+      <c r="Z94" s="159"/>
+      <c r="AA94" s="159"/>
+      <c r="AB94" s="159"/>
+      <c r="AC94" s="159"/>
+      <c r="AD94" s="159"/>
+      <c r="AE94" s="159"/>
       <c r="AF94" s="24"/>
       <c r="AG94" s="24"/>
       <c r="AH94" s="24"/>
@@ -21651,38 +21835,38 @@
       <c r="B95" s="122"/>
       <c r="C95" s="122"/>
       <c r="D95" s="122"/>
-      <c r="E95" s="158" t="s">
+      <c r="E95" s="159" t="s">
         <v>59</v>
       </c>
-      <c r="F95" s="158"/>
-      <c r="G95" s="158"/>
-      <c r="H95" s="158"/>
-      <c r="I95" s="159" t="s">
+      <c r="F95" s="159"/>
+      <c r="G95" s="159"/>
+      <c r="H95" s="159"/>
+      <c r="I95" s="163" t="s">
         <v>945</v>
       </c>
-      <c r="J95" s="159"/>
-      <c r="K95" s="159"/>
-      <c r="L95" s="158"/>
-      <c r="M95" s="158" t="s">
+      <c r="J95" s="163"/>
+      <c r="K95" s="163"/>
+      <c r="L95" s="159"/>
+      <c r="M95" s="159" t="s">
         <v>67</v>
       </c>
-      <c r="N95" s="158"/>
-      <c r="O95" s="158"/>
-      <c r="P95" s="162"/>
+      <c r="N95" s="159"/>
+      <c r="O95" s="159"/>
+      <c r="P95" s="161"/>
       <c r="Q95" s="24"/>
       <c r="R95" s="24"/>
       <c r="S95" s="24"/>
-      <c r="T95" s="158"/>
-      <c r="U95" s="162"/>
-      <c r="V95" s="162"/>
-      <c r="W95" s="162"/>
-      <c r="X95" s="158"/>
-      <c r="Y95" s="158" t="s">
+      <c r="T95" s="159"/>
+      <c r="U95" s="161"/>
+      <c r="V95" s="161"/>
+      <c r="W95" s="161"/>
+      <c r="X95" s="159"/>
+      <c r="Y95" s="159" t="s">
         <v>64</v>
       </c>
-      <c r="Z95" s="158"/>
-      <c r="AA95" s="158"/>
-      <c r="AB95" s="158"/>
+      <c r="Z95" s="159"/>
+      <c r="AA95" s="159"/>
+      <c r="AB95" s="159"/>
       <c r="AC95" s="120"/>
       <c r="AD95" s="120"/>
       <c r="AE95" s="120"/>
@@ -21706,7 +21890,7 @@
       <c r="E96" s="120"/>
       <c r="F96" s="120"/>
       <c r="G96" s="120"/>
-      <c r="H96" s="158"/>
+      <c r="H96" s="159"/>
       <c r="I96" s="121"/>
       <c r="J96" s="121"/>
       <c r="K96" s="121"/>
@@ -21752,7 +21936,7 @@
       <c r="E97" s="120"/>
       <c r="F97" s="120"/>
       <c r="G97" s="120"/>
-      <c r="H97" s="158"/>
+      <c r="H97" s="159"/>
       <c r="I97" s="121"/>
       <c r="J97" s="121"/>
       <c r="K97" s="121"/>
@@ -21798,7 +21982,7 @@
       <c r="E98" s="24"/>
       <c r="F98" s="24"/>
       <c r="G98" s="24"/>
-      <c r="H98" s="158"/>
+      <c r="H98" s="159"/>
       <c r="I98" s="24"/>
       <c r="J98" s="24"/>
       <c r="K98" s="24"/>
@@ -21839,273 +22023,273 @@
       <c r="A99" s="127" t="s">
         <v>1001</v>
       </c>
-      <c r="B99" s="161" t="s">
+      <c r="B99" s="164" t="s">
         <v>940</v>
       </c>
-      <c r="C99" s="162"/>
-      <c r="D99" s="162"/>
+      <c r="C99" s="161"/>
+      <c r="D99" s="161"/>
       <c r="E99" s="160" t="s">
         <v>229</v>
       </c>
-      <c r="F99" s="158"/>
-      <c r="G99" s="158"/>
-      <c r="H99" s="158" t="s">
+      <c r="F99" s="159"/>
+      <c r="G99" s="159"/>
+      <c r="H99" s="159" t="s">
         <v>951</v>
       </c>
-      <c r="I99" s="163" t="s">
+      <c r="I99" s="165" t="s">
         <v>937</v>
       </c>
-      <c r="J99" s="164"/>
-      <c r="K99" s="164"/>
-      <c r="L99" s="158" t="s">
+      <c r="J99" s="166"/>
+      <c r="K99" s="166"/>
+      <c r="L99" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="M99" s="158" t="s">
+      <c r="M99" s="159" t="s">
         <v>942</v>
       </c>
-      <c r="N99" s="158"/>
-      <c r="O99" s="158"/>
-      <c r="P99" s="162" t="s">
+      <c r="N99" s="159"/>
+      <c r="O99" s="159"/>
+      <c r="P99" s="161" t="s">
         <v>941</v>
       </c>
-      <c r="Q99" s="165" t="s">
+      <c r="Q99" s="162" t="s">
         <v>943</v>
       </c>
-      <c r="R99" s="165"/>
-      <c r="S99" s="165"/>
-      <c r="T99" s="162" t="s">
+      <c r="R99" s="162"/>
+      <c r="S99" s="162"/>
+      <c r="T99" s="161" t="s">
         <v>941</v>
       </c>
-      <c r="U99" s="163" t="s">
+      <c r="U99" s="165" t="s">
         <v>944</v>
       </c>
-      <c r="V99" s="164"/>
-      <c r="W99" s="164"/>
-      <c r="X99" s="158" t="s">
+      <c r="V99" s="166"/>
+      <c r="W99" s="166"/>
+      <c r="X99" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="Y99" s="158" t="s">
+      <c r="Y99" s="159" t="s">
         <v>947</v>
       </c>
-      <c r="Z99" s="158"/>
-      <c r="AA99" s="158"/>
-      <c r="AB99" s="162" t="s">
+      <c r="Z99" s="159"/>
+      <c r="AA99" s="159"/>
+      <c r="AB99" s="161" t="s">
         <v>941</v>
       </c>
-      <c r="AC99" s="162" t="s">
+      <c r="AC99" s="161" t="s">
         <v>946</v>
       </c>
-      <c r="AD99" s="162"/>
-      <c r="AE99" s="162"/>
-      <c r="AF99" s="158" t="s">
+      <c r="AD99" s="161"/>
+      <c r="AE99" s="161"/>
+      <c r="AF99" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="AG99" s="166" t="s">
+      <c r="AG99" s="167" t="s">
         <v>1017</v>
       </c>
-      <c r="AH99" s="165"/>
-      <c r="AI99" s="165"/>
-      <c r="AJ99" s="158" t="s">
+      <c r="AH99" s="162"/>
+      <c r="AI99" s="162"/>
+      <c r="AJ99" s="159" t="s">
         <v>60</v>
       </c>
       <c r="AK99" s="160" t="s">
         <v>916</v>
       </c>
-      <c r="AL99" s="158"/>
-      <c r="AM99" s="158"/>
-      <c r="AN99" s="158" t="s">
+      <c r="AL99" s="159"/>
+      <c r="AM99" s="159"/>
+      <c r="AN99" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="AO99" s="158" t="s">
+      <c r="AO99" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="AP99" s="158"/>
-      <c r="AQ99" s="158"/>
+      <c r="AP99" s="159"/>
+      <c r="AQ99" s="159"/>
     </row>
     <row r="100" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="B100" s="162"/>
-      <c r="C100" s="162"/>
-      <c r="D100" s="162"/>
-      <c r="E100" s="158"/>
-      <c r="F100" s="158"/>
-      <c r="G100" s="158"/>
-      <c r="H100" s="158"/>
-      <c r="I100" s="164"/>
-      <c r="J100" s="164"/>
-      <c r="K100" s="164"/>
-      <c r="L100" s="158"/>
-      <c r="M100" s="158"/>
-      <c r="N100" s="158"/>
-      <c r="O100" s="158"/>
-      <c r="P100" s="162"/>
-      <c r="Q100" s="165"/>
-      <c r="R100" s="165"/>
-      <c r="S100" s="165"/>
-      <c r="T100" s="162"/>
-      <c r="U100" s="164"/>
-      <c r="V100" s="164"/>
-      <c r="W100" s="164"/>
-      <c r="X100" s="158"/>
-      <c r="Y100" s="158"/>
-      <c r="Z100" s="158"/>
-      <c r="AA100" s="158"/>
-      <c r="AB100" s="162"/>
-      <c r="AC100" s="162"/>
-      <c r="AD100" s="162"/>
-      <c r="AE100" s="162"/>
-      <c r="AF100" s="158"/>
-      <c r="AG100" s="165"/>
-      <c r="AH100" s="165"/>
-      <c r="AI100" s="165"/>
-      <c r="AJ100" s="158"/>
-      <c r="AK100" s="158"/>
-      <c r="AL100" s="158"/>
-      <c r="AM100" s="158"/>
-      <c r="AN100" s="158"/>
-      <c r="AO100" s="158"/>
-      <c r="AP100" s="158"/>
-      <c r="AQ100" s="158"/>
+      <c r="B100" s="161"/>
+      <c r="C100" s="161"/>
+      <c r="D100" s="161"/>
+      <c r="E100" s="159"/>
+      <c r="F100" s="159"/>
+      <c r="G100" s="159"/>
+      <c r="H100" s="159"/>
+      <c r="I100" s="166"/>
+      <c r="J100" s="166"/>
+      <c r="K100" s="166"/>
+      <c r="L100" s="159"/>
+      <c r="M100" s="159"/>
+      <c r="N100" s="159"/>
+      <c r="O100" s="159"/>
+      <c r="P100" s="161"/>
+      <c r="Q100" s="162"/>
+      <c r="R100" s="162"/>
+      <c r="S100" s="162"/>
+      <c r="T100" s="161"/>
+      <c r="U100" s="166"/>
+      <c r="V100" s="166"/>
+      <c r="W100" s="166"/>
+      <c r="X100" s="159"/>
+      <c r="Y100" s="159"/>
+      <c r="Z100" s="159"/>
+      <c r="AA100" s="159"/>
+      <c r="AB100" s="161"/>
+      <c r="AC100" s="161"/>
+      <c r="AD100" s="161"/>
+      <c r="AE100" s="161"/>
+      <c r="AF100" s="159"/>
+      <c r="AG100" s="162"/>
+      <c r="AH100" s="162"/>
+      <c r="AI100" s="162"/>
+      <c r="AJ100" s="159"/>
+      <c r="AK100" s="159"/>
+      <c r="AL100" s="159"/>
+      <c r="AM100" s="159"/>
+      <c r="AN100" s="159"/>
+      <c r="AO100" s="159"/>
+      <c r="AP100" s="159"/>
+      <c r="AQ100" s="159"/>
     </row>
     <row r="101" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="B101" s="162"/>
-      <c r="C101" s="162"/>
-      <c r="D101" s="162"/>
-      <c r="E101" s="158"/>
-      <c r="F101" s="158"/>
-      <c r="G101" s="158"/>
-      <c r="H101" s="158"/>
-      <c r="I101" s="164"/>
-      <c r="J101" s="164"/>
-      <c r="K101" s="164"/>
-      <c r="L101" s="158"/>
-      <c r="M101" s="158"/>
-      <c r="N101" s="158"/>
-      <c r="O101" s="158"/>
-      <c r="P101" s="162"/>
-      <c r="Q101" s="165"/>
-      <c r="R101" s="165"/>
-      <c r="S101" s="165"/>
-      <c r="T101" s="162"/>
-      <c r="U101" s="164"/>
-      <c r="V101" s="164"/>
-      <c r="W101" s="164"/>
-      <c r="X101" s="158"/>
-      <c r="Y101" s="158"/>
-      <c r="Z101" s="158"/>
-      <c r="AA101" s="158"/>
-      <c r="AB101" s="162"/>
-      <c r="AC101" s="162"/>
-      <c r="AD101" s="162"/>
-      <c r="AE101" s="162"/>
-      <c r="AF101" s="158"/>
-      <c r="AG101" s="165"/>
-      <c r="AH101" s="165"/>
-      <c r="AI101" s="165"/>
-      <c r="AJ101" s="158"/>
-      <c r="AK101" s="158"/>
-      <c r="AL101" s="158"/>
-      <c r="AM101" s="158"/>
-      <c r="AN101" s="158"/>
-      <c r="AO101" s="158"/>
-      <c r="AP101" s="158"/>
-      <c r="AQ101" s="158"/>
+      <c r="B101" s="161"/>
+      <c r="C101" s="161"/>
+      <c r="D101" s="161"/>
+      <c r="E101" s="159"/>
+      <c r="F101" s="159"/>
+      <c r="G101" s="159"/>
+      <c r="H101" s="159"/>
+      <c r="I101" s="166"/>
+      <c r="J101" s="166"/>
+      <c r="K101" s="166"/>
+      <c r="L101" s="159"/>
+      <c r="M101" s="159"/>
+      <c r="N101" s="159"/>
+      <c r="O101" s="159"/>
+      <c r="P101" s="161"/>
+      <c r="Q101" s="162"/>
+      <c r="R101" s="162"/>
+      <c r="S101" s="162"/>
+      <c r="T101" s="161"/>
+      <c r="U101" s="166"/>
+      <c r="V101" s="166"/>
+      <c r="W101" s="166"/>
+      <c r="X101" s="159"/>
+      <c r="Y101" s="159"/>
+      <c r="Z101" s="159"/>
+      <c r="AA101" s="159"/>
+      <c r="AB101" s="161"/>
+      <c r="AC101" s="161"/>
+      <c r="AD101" s="161"/>
+      <c r="AE101" s="161"/>
+      <c r="AF101" s="159"/>
+      <c r="AG101" s="162"/>
+      <c r="AH101" s="162"/>
+      <c r="AI101" s="162"/>
+      <c r="AJ101" s="159"/>
+      <c r="AK101" s="159"/>
+      <c r="AL101" s="159"/>
+      <c r="AM101" s="159"/>
+      <c r="AN101" s="159"/>
+      <c r="AO101" s="159"/>
+      <c r="AP101" s="159"/>
+      <c r="AQ101" s="159"/>
     </row>
     <row r="102" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="B102" s="162"/>
-      <c r="C102" s="162"/>
-      <c r="D102" s="162"/>
-      <c r="E102" s="158"/>
-      <c r="F102" s="158"/>
-      <c r="G102" s="158"/>
-      <c r="H102" s="158"/>
-      <c r="I102" s="164"/>
-      <c r="J102" s="164"/>
-      <c r="K102" s="164"/>
-      <c r="L102" s="158"/>
-      <c r="M102" s="158"/>
-      <c r="N102" s="158"/>
-      <c r="O102" s="158"/>
-      <c r="P102" s="162"/>
-      <c r="Q102" s="165"/>
-      <c r="R102" s="165"/>
-      <c r="S102" s="165"/>
-      <c r="T102" s="162"/>
-      <c r="U102" s="164"/>
-      <c r="V102" s="164"/>
-      <c r="W102" s="164"/>
-      <c r="X102" s="158"/>
-      <c r="Y102" s="158"/>
-      <c r="Z102" s="158"/>
-      <c r="AA102" s="158"/>
-      <c r="AB102" s="162"/>
-      <c r="AC102" s="162"/>
-      <c r="AD102" s="162"/>
-      <c r="AE102" s="162"/>
-      <c r="AF102" s="158"/>
-      <c r="AG102" s="165"/>
-      <c r="AH102" s="165"/>
-      <c r="AI102" s="165"/>
-      <c r="AJ102" s="158"/>
-      <c r="AK102" s="158"/>
-      <c r="AL102" s="158"/>
-      <c r="AM102" s="158"/>
-      <c r="AN102" s="158"/>
-      <c r="AO102" s="158"/>
-      <c r="AP102" s="158"/>
-      <c r="AQ102" s="158"/>
+      <c r="B102" s="161"/>
+      <c r="C102" s="161"/>
+      <c r="D102" s="161"/>
+      <c r="E102" s="159"/>
+      <c r="F102" s="159"/>
+      <c r="G102" s="159"/>
+      <c r="H102" s="159"/>
+      <c r="I102" s="166"/>
+      <c r="J102" s="166"/>
+      <c r="K102" s="166"/>
+      <c r="L102" s="159"/>
+      <c r="M102" s="159"/>
+      <c r="N102" s="159"/>
+      <c r="O102" s="159"/>
+      <c r="P102" s="161"/>
+      <c r="Q102" s="162"/>
+      <c r="R102" s="162"/>
+      <c r="S102" s="162"/>
+      <c r="T102" s="161"/>
+      <c r="U102" s="166"/>
+      <c r="V102" s="166"/>
+      <c r="W102" s="166"/>
+      <c r="X102" s="159"/>
+      <c r="Y102" s="159"/>
+      <c r="Z102" s="159"/>
+      <c r="AA102" s="159"/>
+      <c r="AB102" s="161"/>
+      <c r="AC102" s="161"/>
+      <c r="AD102" s="161"/>
+      <c r="AE102" s="161"/>
+      <c r="AF102" s="159"/>
+      <c r="AG102" s="162"/>
+      <c r="AH102" s="162"/>
+      <c r="AI102" s="162"/>
+      <c r="AJ102" s="159"/>
+      <c r="AK102" s="159"/>
+      <c r="AL102" s="159"/>
+      <c r="AM102" s="159"/>
+      <c r="AN102" s="159"/>
+      <c r="AO102" s="159"/>
+      <c r="AP102" s="159"/>
+      <c r="AQ102" s="159"/>
     </row>
     <row r="103" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B103" s="122"/>
       <c r="C103" s="122"/>
       <c r="D103" s="122"/>
-      <c r="E103" s="158" t="s">
+      <c r="E103" s="159" t="s">
         <v>59</v>
       </c>
-      <c r="F103" s="158"/>
-      <c r="G103" s="158"/>
-      <c r="H103" s="158"/>
-      <c r="I103" s="159" t="s">
+      <c r="F103" s="159"/>
+      <c r="G103" s="159"/>
+      <c r="H103" s="159"/>
+      <c r="I103" s="163" t="s">
         <v>936</v>
       </c>
-      <c r="J103" s="159"/>
-      <c r="K103" s="159"/>
-      <c r="L103" s="158"/>
-      <c r="M103" s="158" t="s">
+      <c r="J103" s="163"/>
+      <c r="K103" s="163"/>
+      <c r="L103" s="159"/>
+      <c r="M103" s="159" t="s">
         <v>67</v>
       </c>
-      <c r="N103" s="158"/>
-      <c r="O103" s="158"/>
-      <c r="P103" s="162"/>
+      <c r="N103" s="159"/>
+      <c r="O103" s="159"/>
+      <c r="P103" s="161"/>
       <c r="Q103" s="24"/>
       <c r="R103" s="24"/>
       <c r="S103" s="24"/>
-      <c r="T103" s="162"/>
-      <c r="U103" s="159" t="s">
+      <c r="T103" s="161"/>
+      <c r="U103" s="163" t="s">
         <v>945</v>
       </c>
-      <c r="V103" s="159"/>
-      <c r="W103" s="159"/>
-      <c r="X103" s="158"/>
-      <c r="Y103" s="158" t="s">
+      <c r="V103" s="163"/>
+      <c r="W103" s="163"/>
+      <c r="X103" s="159"/>
+      <c r="Y103" s="159" t="s">
         <v>67</v>
       </c>
-      <c r="Z103" s="158"/>
-      <c r="AA103" s="158"/>
-      <c r="AB103" s="162"/>
+      <c r="Z103" s="159"/>
+      <c r="AA103" s="159"/>
+      <c r="AB103" s="161"/>
       <c r="AC103" s="24"/>
       <c r="AD103" s="24"/>
       <c r="AE103" s="24"/>
-      <c r="AF103" s="158"/>
-      <c r="AG103" s="162"/>
-      <c r="AH103" s="162"/>
-      <c r="AI103" s="162"/>
-      <c r="AJ103" s="158"/>
-      <c r="AK103" s="158" t="s">
+      <c r="AF103" s="159"/>
+      <c r="AG103" s="161"/>
+      <c r="AH103" s="161"/>
+      <c r="AI103" s="161"/>
+      <c r="AJ103" s="159"/>
+      <c r="AK103" s="159" t="s">
         <v>64</v>
       </c>
-      <c r="AL103" s="158"/>
-      <c r="AM103" s="158"/>
-      <c r="AN103" s="158"/>
+      <c r="AL103" s="159"/>
+      <c r="AM103" s="159"/>
+      <c r="AN103" s="159"/>
       <c r="AO103" s="120"/>
       <c r="AP103" s="120"/>
       <c r="AQ103" s="120"/>
@@ -22209,120 +22393,120 @@
       <c r="W106" s="24"/>
     </row>
     <row r="107" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="161" t="s">
+      <c r="B107" s="164" t="s">
         <v>950</v>
       </c>
-      <c r="C107" s="162"/>
-      <c r="D107" s="162"/>
-      <c r="E107" s="162">
+      <c r="C107" s="161"/>
+      <c r="D107" s="161"/>
+      <c r="E107" s="161">
         <v>1</v>
       </c>
-      <c r="F107" s="162"/>
-      <c r="G107" s="162"/>
-      <c r="H107" s="158" t="s">
+      <c r="F107" s="161"/>
+      <c r="G107" s="161"/>
+      <c r="H107" s="159" t="s">
         <v>951</v>
       </c>
-      <c r="I107" s="163" t="s">
+      <c r="I107" s="165" t="s">
         <v>944</v>
       </c>
-      <c r="J107" s="164"/>
-      <c r="K107" s="164"/>
-      <c r="L107" s="158" t="s">
+      <c r="J107" s="166"/>
+      <c r="K107" s="166"/>
+      <c r="L107" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="M107" s="158" t="s">
+      <c r="M107" s="159" t="s">
         <v>952</v>
       </c>
-      <c r="N107" s="158"/>
-      <c r="O107" s="158"/>
-      <c r="P107" s="162" t="s">
+      <c r="N107" s="159"/>
+      <c r="O107" s="159"/>
+      <c r="P107" s="161" t="s">
         <v>941</v>
       </c>
-      <c r="Q107" s="165" t="s">
+      <c r="Q107" s="162" t="s">
         <v>954</v>
       </c>
-      <c r="R107" s="165"/>
-      <c r="S107" s="165"/>
-      <c r="T107" s="158" t="s">
+      <c r="R107" s="162"/>
+      <c r="S107" s="162"/>
+      <c r="T107" s="159" t="s">
         <v>60</v>
       </c>
       <c r="U107" s="160" t="s">
         <v>916</v>
       </c>
-      <c r="V107" s="158"/>
-      <c r="W107" s="158"/>
+      <c r="V107" s="159"/>
+      <c r="W107" s="159"/>
     </row>
     <row r="108" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="B108" s="162"/>
-      <c r="C108" s="162"/>
-      <c r="D108" s="162"/>
-      <c r="E108" s="162"/>
-      <c r="F108" s="162"/>
-      <c r="G108" s="162"/>
-      <c r="H108" s="158"/>
-      <c r="I108" s="164"/>
-      <c r="J108" s="164"/>
-      <c r="K108" s="164"/>
-      <c r="L108" s="158"/>
-      <c r="M108" s="158"/>
-      <c r="N108" s="158"/>
-      <c r="O108" s="158"/>
-      <c r="P108" s="162"/>
-      <c r="Q108" s="165"/>
-      <c r="R108" s="165"/>
-      <c r="S108" s="165"/>
-      <c r="T108" s="158"/>
-      <c r="U108" s="158"/>
-      <c r="V108" s="158"/>
-      <c r="W108" s="158"/>
+      <c r="B108" s="161"/>
+      <c r="C108" s="161"/>
+      <c r="D108" s="161"/>
+      <c r="E108" s="161"/>
+      <c r="F108" s="161"/>
+      <c r="G108" s="161"/>
+      <c r="H108" s="159"/>
+      <c r="I108" s="166"/>
+      <c r="J108" s="166"/>
+      <c r="K108" s="166"/>
+      <c r="L108" s="159"/>
+      <c r="M108" s="159"/>
+      <c r="N108" s="159"/>
+      <c r="O108" s="159"/>
+      <c r="P108" s="161"/>
+      <c r="Q108" s="162"/>
+      <c r="R108" s="162"/>
+      <c r="S108" s="162"/>
+      <c r="T108" s="159"/>
+      <c r="U108" s="159"/>
+      <c r="V108" s="159"/>
+      <c r="W108" s="159"/>
     </row>
     <row r="109" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="B109" s="162"/>
-      <c r="C109" s="162"/>
-      <c r="D109" s="162"/>
-      <c r="E109" s="162"/>
-      <c r="F109" s="162"/>
-      <c r="G109" s="162"/>
-      <c r="H109" s="158"/>
-      <c r="I109" s="164"/>
-      <c r="J109" s="164"/>
-      <c r="K109" s="164"/>
-      <c r="L109" s="158"/>
-      <c r="M109" s="158"/>
-      <c r="N109" s="158"/>
-      <c r="O109" s="158"/>
-      <c r="P109" s="162"/>
-      <c r="Q109" s="165"/>
-      <c r="R109" s="165"/>
-      <c r="S109" s="165"/>
-      <c r="T109" s="158"/>
-      <c r="U109" s="158"/>
-      <c r="V109" s="158"/>
-      <c r="W109" s="158"/>
+      <c r="B109" s="161"/>
+      <c r="C109" s="161"/>
+      <c r="D109" s="161"/>
+      <c r="E109" s="161"/>
+      <c r="F109" s="161"/>
+      <c r="G109" s="161"/>
+      <c r="H109" s="159"/>
+      <c r="I109" s="166"/>
+      <c r="J109" s="166"/>
+      <c r="K109" s="166"/>
+      <c r="L109" s="159"/>
+      <c r="M109" s="159"/>
+      <c r="N109" s="159"/>
+      <c r="O109" s="159"/>
+      <c r="P109" s="161"/>
+      <c r="Q109" s="162"/>
+      <c r="R109" s="162"/>
+      <c r="S109" s="162"/>
+      <c r="T109" s="159"/>
+      <c r="U109" s="159"/>
+      <c r="V109" s="159"/>
+      <c r="W109" s="159"/>
     </row>
     <row r="110" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="B110" s="162"/>
-      <c r="C110" s="162"/>
-      <c r="D110" s="162"/>
-      <c r="E110" s="162"/>
-      <c r="F110" s="162"/>
-      <c r="G110" s="162"/>
-      <c r="H110" s="158"/>
-      <c r="I110" s="164"/>
-      <c r="J110" s="164"/>
-      <c r="K110" s="164"/>
-      <c r="L110" s="158"/>
-      <c r="M110" s="158"/>
-      <c r="N110" s="158"/>
-      <c r="O110" s="158"/>
-      <c r="P110" s="162"/>
-      <c r="Q110" s="165"/>
-      <c r="R110" s="165"/>
-      <c r="S110" s="165"/>
-      <c r="T110" s="158"/>
-      <c r="U110" s="158"/>
-      <c r="V110" s="158"/>
-      <c r="W110" s="158"/>
+      <c r="B110" s="161"/>
+      <c r="C110" s="161"/>
+      <c r="D110" s="161"/>
+      <c r="E110" s="161"/>
+      <c r="F110" s="161"/>
+      <c r="G110" s="161"/>
+      <c r="H110" s="159"/>
+      <c r="I110" s="166"/>
+      <c r="J110" s="166"/>
+      <c r="K110" s="166"/>
+      <c r="L110" s="159"/>
+      <c r="M110" s="159"/>
+      <c r="N110" s="159"/>
+      <c r="O110" s="159"/>
+      <c r="P110" s="161"/>
+      <c r="Q110" s="162"/>
+      <c r="R110" s="162"/>
+      <c r="S110" s="162"/>
+      <c r="T110" s="159"/>
+      <c r="U110" s="159"/>
+      <c r="V110" s="159"/>
+      <c r="W110" s="159"/>
     </row>
     <row r="111" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B111" s="24"/>
@@ -22331,28 +22515,28 @@
       <c r="E111" s="24"/>
       <c r="F111" s="24"/>
       <c r="G111" s="24"/>
-      <c r="H111" s="158"/>
-      <c r="I111" s="159" t="s">
+      <c r="H111" s="159"/>
+      <c r="I111" s="163" t="s">
         <v>945</v>
       </c>
-      <c r="J111" s="159"/>
-      <c r="K111" s="159"/>
-      <c r="L111" s="158"/>
-      <c r="M111" s="158" t="s">
+      <c r="J111" s="163"/>
+      <c r="K111" s="163"/>
+      <c r="L111" s="159"/>
+      <c r="M111" s="159" t="s">
         <v>953</v>
       </c>
-      <c r="N111" s="158"/>
-      <c r="O111" s="158"/>
-      <c r="P111" s="162"/>
+      <c r="N111" s="159"/>
+      <c r="O111" s="159"/>
+      <c r="P111" s="161"/>
       <c r="Q111" s="24"/>
       <c r="R111" s="24"/>
       <c r="S111" s="24"/>
-      <c r="T111" s="158"/>
-      <c r="U111" s="158" t="s">
+      <c r="T111" s="159"/>
+      <c r="U111" s="159" t="s">
         <v>64</v>
       </c>
-      <c r="V111" s="158"/>
-      <c r="W111" s="158"/>
+      <c r="V111" s="159"/>
+      <c r="W111" s="159"/>
     </row>
     <row r="112" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B112" s="24"/>
@@ -22395,53 +22579,18 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="T107:T111"/>
-    <mergeCell ref="U107:W110"/>
-    <mergeCell ref="U111:W111"/>
-    <mergeCell ref="L107:L111"/>
-    <mergeCell ref="M107:O110"/>
-    <mergeCell ref="P107:P111"/>
-    <mergeCell ref="Q107:S110"/>
-    <mergeCell ref="I111:K111"/>
-    <mergeCell ref="M111:O111"/>
-    <mergeCell ref="B107:D110"/>
-    <mergeCell ref="H107:H111"/>
-    <mergeCell ref="E107:G110"/>
-    <mergeCell ref="I107:K110"/>
-    <mergeCell ref="AJ99:AJ103"/>
-    <mergeCell ref="AK99:AM102"/>
-    <mergeCell ref="AN99:AN103"/>
-    <mergeCell ref="AO99:AQ102"/>
-    <mergeCell ref="AK103:AM103"/>
-    <mergeCell ref="AF99:AF103"/>
-    <mergeCell ref="AG99:AI102"/>
-    <mergeCell ref="AG103:AI103"/>
-    <mergeCell ref="X91:X95"/>
-    <mergeCell ref="U99:W102"/>
-    <mergeCell ref="X99:X103"/>
-    <mergeCell ref="Y99:AA102"/>
-    <mergeCell ref="AB99:AB103"/>
-    <mergeCell ref="AC99:AE102"/>
-    <mergeCell ref="U103:W103"/>
-    <mergeCell ref="Y103:AA103"/>
-    <mergeCell ref="AB91:AB95"/>
-    <mergeCell ref="AC91:AE94"/>
-    <mergeCell ref="Y91:AA94"/>
-    <mergeCell ref="Y95:AA95"/>
-    <mergeCell ref="P91:P95"/>
-    <mergeCell ref="Q91:S94"/>
-    <mergeCell ref="T91:T95"/>
-    <mergeCell ref="U95:W95"/>
-    <mergeCell ref="B99:D102"/>
-    <mergeCell ref="U91:W94"/>
-    <mergeCell ref="M95:O95"/>
-    <mergeCell ref="B91:D94"/>
-    <mergeCell ref="E91:G94"/>
-    <mergeCell ref="H91:H98"/>
-    <mergeCell ref="I91:K94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="I95:K95"/>
-    <mergeCell ref="L91:L95"/>
+    <mergeCell ref="M83:O86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="I87:K87"/>
+    <mergeCell ref="U87:W87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="U83:W86"/>
+    <mergeCell ref="T83:T87"/>
+    <mergeCell ref="B83:D86"/>
+    <mergeCell ref="E83:G86"/>
+    <mergeCell ref="H83:H87"/>
+    <mergeCell ref="I83:K86"/>
+    <mergeCell ref="L83:L87"/>
     <mergeCell ref="X83:X87"/>
     <mergeCell ref="Y83:AA86"/>
     <mergeCell ref="P83:P87"/>
@@ -22458,18 +22607,53 @@
     <mergeCell ref="M103:O103"/>
     <mergeCell ref="T99:T103"/>
     <mergeCell ref="M91:O94"/>
-    <mergeCell ref="B83:D86"/>
-    <mergeCell ref="E83:G86"/>
-    <mergeCell ref="H83:H87"/>
-    <mergeCell ref="I83:K86"/>
-    <mergeCell ref="L83:L87"/>
-    <mergeCell ref="M83:O86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="I87:K87"/>
-    <mergeCell ref="U87:W87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="U83:W86"/>
-    <mergeCell ref="T83:T87"/>
+    <mergeCell ref="P91:P95"/>
+    <mergeCell ref="Q91:S94"/>
+    <mergeCell ref="T91:T95"/>
+    <mergeCell ref="U95:W95"/>
+    <mergeCell ref="B99:D102"/>
+    <mergeCell ref="U91:W94"/>
+    <mergeCell ref="M95:O95"/>
+    <mergeCell ref="B91:D94"/>
+    <mergeCell ref="E91:G94"/>
+    <mergeCell ref="H91:H98"/>
+    <mergeCell ref="I91:K94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="I95:K95"/>
+    <mergeCell ref="L91:L95"/>
+    <mergeCell ref="AF99:AF103"/>
+    <mergeCell ref="AG99:AI102"/>
+    <mergeCell ref="AG103:AI103"/>
+    <mergeCell ref="X91:X95"/>
+    <mergeCell ref="U99:W102"/>
+    <mergeCell ref="X99:X103"/>
+    <mergeCell ref="Y99:AA102"/>
+    <mergeCell ref="AB99:AB103"/>
+    <mergeCell ref="AC99:AE102"/>
+    <mergeCell ref="U103:W103"/>
+    <mergeCell ref="Y103:AA103"/>
+    <mergeCell ref="AB91:AB95"/>
+    <mergeCell ref="AC91:AE94"/>
+    <mergeCell ref="Y91:AA94"/>
+    <mergeCell ref="Y95:AA95"/>
+    <mergeCell ref="AJ99:AJ103"/>
+    <mergeCell ref="AK99:AM102"/>
+    <mergeCell ref="AN99:AN103"/>
+    <mergeCell ref="AO99:AQ102"/>
+    <mergeCell ref="AK103:AM103"/>
+    <mergeCell ref="I111:K111"/>
+    <mergeCell ref="M111:O111"/>
+    <mergeCell ref="B107:D110"/>
+    <mergeCell ref="H107:H111"/>
+    <mergeCell ref="E107:G110"/>
+    <mergeCell ref="I107:K110"/>
+    <mergeCell ref="T107:T111"/>
+    <mergeCell ref="U107:W110"/>
+    <mergeCell ref="U111:W111"/>
+    <mergeCell ref="L107:L111"/>
+    <mergeCell ref="M107:O110"/>
+    <mergeCell ref="P107:P111"/>
+    <mergeCell ref="Q107:S110"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22480,10 +22664,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -22493,200 +22677,276 @@
     <col min="3" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="47" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B2" s="57" t="s">
-        <v>935</v>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>1206</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>934</v>
-      </c>
-      <c r="C3" s="179" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1207</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C4" s="179">
+        <v>101</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="C17" s="155">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C5" s="179">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="C18" s="155">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C6" s="179">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="C19" s="155">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C7" s="179">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="C20" s="155">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C8" s="179">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="C21" s="155">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C9" s="179">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C10" s="179"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="24" t="s">
-        <v>983</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="118" t="s">
-        <v>984</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="14" t="s">
-        <v>783</v>
-      </c>
-      <c r="C17" s="2" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C24" s="48"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C27" s="48"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C30" s="48"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="99" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C31" s="57" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="14" t="s">
-        <v>785</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B19" s="99" t="s">
-        <v>779</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B20" s="12" t="s">
-        <v>781</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B21" s="24" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B22" s="14"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B23" s="14"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B24" s="14"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B25" s="14"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B26" s="14"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B27" s="14"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B28" s="14"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B29" s="14"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B30" s="14"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B31" s="14"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D31" s="2" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B32" s="14"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
@@ -22718,6 +22978,36 @@
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" s="14"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="14"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" s="14"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B45" s="14"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B46" s="14"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B47" s="14"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B48" s="14"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" s="14"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B50" s="14"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B51" s="14"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -25041,10 +25331,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
-  <dimension ref="A2:AA928"/>
+  <dimension ref="A2:AA1036"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1014" sqref="A1014:XFD1371"/>
+    <sheetView topLeftCell="A1013" workbookViewId="0">
+      <selection activeCell="A1014" sqref="A1014:D1036"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -25500,7 +25790,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="12"/>
       <c r="B38" s="3"/>
       <c r="C38" s="12"/>
@@ -26095,149 +26385,149 @@
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A134" s="172" t="s">
+      <c r="A134" s="179" t="s">
         <v>58</v>
       </c>
-      <c r="B134" s="167"/>
-      <c r="C134" s="167"/>
-      <c r="D134" s="178" t="s">
+      <c r="B134" s="168"/>
+      <c r="C134" s="168"/>
+      <c r="D134" s="175" t="s">
         <v>229</v>
       </c>
-      <c r="E134" s="171"/>
-      <c r="F134" s="171"/>
-      <c r="G134" s="171" t="s">
+      <c r="E134" s="170"/>
+      <c r="F134" s="170"/>
+      <c r="G134" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="H134" s="175" t="s">
+      <c r="H134" s="172" t="s">
         <v>230</v>
       </c>
-      <c r="I134" s="176"/>
-      <c r="J134" s="176"/>
-      <c r="K134" s="171" t="s">
+      <c r="I134" s="173"/>
+      <c r="J134" s="173"/>
+      <c r="K134" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="L134" s="178" t="s">
+      <c r="L134" s="175" t="s">
         <v>63</v>
       </c>
-      <c r="M134" s="171"/>
-      <c r="N134" s="171"/>
-      <c r="O134" s="171" t="s">
+      <c r="M134" s="170"/>
+      <c r="N134" s="170"/>
+      <c r="O134" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="P134" s="171" t="s">
+      <c r="P134" s="170" t="s">
         <v>65</v>
       </c>
-      <c r="Q134" s="171"/>
-      <c r="R134" s="171"/>
-      <c r="S134" s="171" t="s">
+      <c r="Q134" s="170"/>
+      <c r="R134" s="170"/>
+      <c r="S134" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="T134" s="173" t="s">
+      <c r="T134" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="U134" s="173"/>
-      <c r="V134" s="173"/>
+      <c r="U134" s="169"/>
+      <c r="V134" s="169"/>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A135" s="167"/>
-      <c r="B135" s="167"/>
-      <c r="C135" s="167"/>
-      <c r="D135" s="171"/>
-      <c r="E135" s="171"/>
-      <c r="F135" s="171"/>
-      <c r="G135" s="171"/>
-      <c r="H135" s="176"/>
-      <c r="I135" s="176"/>
-      <c r="J135" s="176"/>
-      <c r="K135" s="171"/>
-      <c r="L135" s="171"/>
-      <c r="M135" s="171"/>
-      <c r="N135" s="171"/>
-      <c r="O135" s="171"/>
-      <c r="P135" s="171"/>
-      <c r="Q135" s="171"/>
-      <c r="R135" s="171"/>
-      <c r="S135" s="171"/>
-      <c r="T135" s="173"/>
-      <c r="U135" s="173"/>
-      <c r="V135" s="173"/>
+      <c r="A135" s="168"/>
+      <c r="B135" s="168"/>
+      <c r="C135" s="168"/>
+      <c r="D135" s="170"/>
+      <c r="E135" s="170"/>
+      <c r="F135" s="170"/>
+      <c r="G135" s="170"/>
+      <c r="H135" s="173"/>
+      <c r="I135" s="173"/>
+      <c r="J135" s="173"/>
+      <c r="K135" s="170"/>
+      <c r="L135" s="170"/>
+      <c r="M135" s="170"/>
+      <c r="N135" s="170"/>
+      <c r="O135" s="170"/>
+      <c r="P135" s="170"/>
+      <c r="Q135" s="170"/>
+      <c r="R135" s="170"/>
+      <c r="S135" s="170"/>
+      <c r="T135" s="169"/>
+      <c r="U135" s="169"/>
+      <c r="V135" s="169"/>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A136" s="167"/>
-      <c r="B136" s="167"/>
-      <c r="C136" s="167"/>
-      <c r="D136" s="171"/>
-      <c r="E136" s="171"/>
-      <c r="F136" s="171"/>
-      <c r="G136" s="171"/>
-      <c r="H136" s="176"/>
-      <c r="I136" s="176"/>
-      <c r="J136" s="176"/>
-      <c r="K136" s="171"/>
-      <c r="L136" s="171"/>
-      <c r="M136" s="171"/>
-      <c r="N136" s="171"/>
-      <c r="O136" s="171"/>
-      <c r="P136" s="171"/>
-      <c r="Q136" s="171"/>
-      <c r="R136" s="171"/>
-      <c r="S136" s="171"/>
-      <c r="T136" s="173"/>
-      <c r="U136" s="173"/>
-      <c r="V136" s="173"/>
+      <c r="A136" s="168"/>
+      <c r="B136" s="168"/>
+      <c r="C136" s="168"/>
+      <c r="D136" s="170"/>
+      <c r="E136" s="170"/>
+      <c r="F136" s="170"/>
+      <c r="G136" s="170"/>
+      <c r="H136" s="173"/>
+      <c r="I136" s="173"/>
+      <c r="J136" s="173"/>
+      <c r="K136" s="170"/>
+      <c r="L136" s="170"/>
+      <c r="M136" s="170"/>
+      <c r="N136" s="170"/>
+      <c r="O136" s="170"/>
+      <c r="P136" s="170"/>
+      <c r="Q136" s="170"/>
+      <c r="R136" s="170"/>
+      <c r="S136" s="170"/>
+      <c r="T136" s="169"/>
+      <c r="U136" s="169"/>
+      <c r="V136" s="169"/>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A137" s="167"/>
-      <c r="B137" s="167"/>
-      <c r="C137" s="167"/>
-      <c r="D137" s="171"/>
-      <c r="E137" s="171"/>
-      <c r="F137" s="171"/>
-      <c r="G137" s="171"/>
-      <c r="H137" s="176"/>
-      <c r="I137" s="176"/>
-      <c r="J137" s="176"/>
-      <c r="K137" s="171"/>
-      <c r="L137" s="171"/>
-      <c r="M137" s="171"/>
-      <c r="N137" s="171"/>
-      <c r="O137" s="171"/>
-      <c r="P137" s="171"/>
-      <c r="Q137" s="171"/>
-      <c r="R137" s="171"/>
-      <c r="S137" s="171"/>
-      <c r="T137" s="173"/>
-      <c r="U137" s="173"/>
-      <c r="V137" s="173"/>
+      <c r="A137" s="168"/>
+      <c r="B137" s="168"/>
+      <c r="C137" s="168"/>
+      <c r="D137" s="170"/>
+      <c r="E137" s="170"/>
+      <c r="F137" s="170"/>
+      <c r="G137" s="170"/>
+      <c r="H137" s="173"/>
+      <c r="I137" s="173"/>
+      <c r="J137" s="173"/>
+      <c r="K137" s="170"/>
+      <c r="L137" s="170"/>
+      <c r="M137" s="170"/>
+      <c r="N137" s="170"/>
+      <c r="O137" s="170"/>
+      <c r="P137" s="170"/>
+      <c r="Q137" s="170"/>
+      <c r="R137" s="170"/>
+      <c r="S137" s="170"/>
+      <c r="T137" s="169"/>
+      <c r="U137" s="169"/>
+      <c r="V137" s="169"/>
     </row>
     <row r="138" spans="1:22" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D138" s="174" t="s">
+      <c r="D138" s="171" t="s">
         <v>59</v>
       </c>
-      <c r="E138" s="174"/>
-      <c r="F138" s="174"/>
-      <c r="G138" s="171"/>
-      <c r="H138" s="177" t="s">
+      <c r="E138" s="171"/>
+      <c r="F138" s="171"/>
+      <c r="G138" s="170"/>
+      <c r="H138" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="I138" s="177"/>
-      <c r="J138" s="177"/>
-      <c r="K138" s="171"/>
-      <c r="L138" s="171" t="s">
+      <c r="I138" s="174"/>
+      <c r="J138" s="174"/>
+      <c r="K138" s="170"/>
+      <c r="L138" s="170" t="s">
         <v>64</v>
       </c>
-      <c r="M138" s="171"/>
-      <c r="N138" s="171"/>
-      <c r="O138" s="171"/>
-      <c r="P138" s="171"/>
-      <c r="Q138" s="171"/>
-      <c r="R138" s="171"/>
-      <c r="S138" s="171"/>
-      <c r="T138" s="171" t="s">
+      <c r="M138" s="170"/>
+      <c r="N138" s="170"/>
+      <c r="O138" s="170"/>
+      <c r="P138" s="170"/>
+      <c r="Q138" s="170"/>
+      <c r="R138" s="170"/>
+      <c r="S138" s="170"/>
+      <c r="T138" s="170" t="s">
         <v>67</v>
       </c>
-      <c r="U138" s="171"/>
-      <c r="V138" s="171"/>
+      <c r="U138" s="170"/>
+      <c r="V138" s="170"/>
     </row>
     <row r="139" spans="1:22" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D139" s="43"/>
@@ -26612,7 +26902,7 @@
       <c r="H220" s="14"/>
     </row>
     <row r="221" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="168" t="s">
+      <c r="A221" s="176" t="s">
         <v>104</v>
       </c>
       <c r="B221" s="16" t="s">
@@ -26624,7 +26914,7 @@
       <c r="D221" s="18"/>
     </row>
     <row r="222" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A222" s="169"/>
+      <c r="A222" s="177"/>
       <c r="B222" s="19" t="s">
         <v>106</v>
       </c>
@@ -26634,7 +26924,7 @@
       <c r="D222" s="18"/>
     </row>
     <row r="223" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A223" s="169"/>
+      <c r="A223" s="177"/>
       <c r="B223" s="19" t="s">
         <v>107</v>
       </c>
@@ -26667,7 +26957,7 @@
       <c r="AA223" s="6"/>
     </row>
     <row r="224" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A224" s="169"/>
+      <c r="A224" s="177"/>
       <c r="B224" s="19" t="s">
         <v>146</v>
       </c>
@@ -26702,7 +26992,7 @@
       <c r="AA224" s="6"/>
     </row>
     <row r="225" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A225" s="169"/>
+      <c r="A225" s="177"/>
       <c r="B225" s="19" t="s">
         <v>147</v>
       </c>
@@ -26737,7 +27027,7 @@
       <c r="AA225" s="6"/>
     </row>
     <row r="226" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A226" s="169"/>
+      <c r="A226" s="177"/>
       <c r="B226" s="19" t="s">
         <v>155</v>
       </c>
@@ -26772,7 +27062,7 @@
       <c r="AA226" s="6"/>
     </row>
     <row r="227" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A227" s="169"/>
+      <c r="A227" s="177"/>
       <c r="B227" s="19" t="s">
         <v>156</v>
       </c>
@@ -26807,7 +27097,7 @@
       <c r="AA227" s="6"/>
     </row>
     <row r="228" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A228" s="169"/>
+      <c r="A228" s="177"/>
       <c r="B228" s="19" t="s">
         <v>158</v>
       </c>
@@ -26844,7 +27134,7 @@
       <c r="AA228" s="6"/>
     </row>
     <row r="229" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A229" s="169"/>
+      <c r="A229" s="177"/>
       <c r="B229" s="19" t="s">
         <v>159</v>
       </c>
@@ -26879,7 +27169,7 @@
       <c r="AA229" s="6"/>
     </row>
     <row r="230" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A230" s="169"/>
+      <c r="A230" s="177"/>
       <c r="B230" s="19" t="s">
         <v>153</v>
       </c>
@@ -26912,7 +27202,7 @@
       <c r="AA230" s="6"/>
     </row>
     <row r="231" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A231" s="169"/>
+      <c r="A231" s="177"/>
       <c r="B231" s="19" t="s">
         <v>154</v>
       </c>
@@ -26947,7 +27237,7 @@
       <c r="AA231" s="6"/>
     </row>
     <row r="232" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A232" s="169"/>
+      <c r="A232" s="177"/>
       <c r="B232" s="19" t="s">
         <v>168</v>
       </c>
@@ -26982,7 +27272,7 @@
       <c r="AA232" s="6"/>
     </row>
     <row r="233" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A233" s="169"/>
+      <c r="A233" s="177"/>
       <c r="B233" s="19" t="s">
         <v>169</v>
       </c>
@@ -27019,7 +27309,7 @@
       <c r="AA233" s="6"/>
     </row>
     <row r="234" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A234" s="169"/>
+      <c r="A234" s="177"/>
       <c r="B234" s="19" t="s">
         <v>114</v>
       </c>
@@ -27033,7 +27323,7 @@
       <c r="H234" s="5"/>
     </row>
     <row r="235" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A235" s="169"/>
+      <c r="A235" s="177"/>
       <c r="B235" s="19" t="s">
         <v>115</v>
       </c>
@@ -27043,7 +27333,7 @@
       <c r="D235" s="18"/>
     </row>
     <row r="236" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A236" s="169"/>
+      <c r="A236" s="177"/>
       <c r="B236" s="20" t="s">
         <v>120</v>
       </c>
@@ -27054,7 +27344,7 @@
       <c r="H236" s="5"/>
     </row>
     <row r="237" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A237" s="169"/>
+      <c r="A237" s="177"/>
       <c r="B237" s="25" t="s">
         <v>122</v>
       </c>
@@ -27070,7 +27360,7 @@
       <c r="H237" s="24"/>
     </row>
     <row r="238" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A238" s="169"/>
+      <c r="A238" s="177"/>
       <c r="B238" s="25" t="s">
         <v>125</v>
       </c>
@@ -27084,7 +27374,7 @@
       <c r="H238" s="24"/>
     </row>
     <row r="239" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A239" s="169"/>
+      <c r="A239" s="177"/>
       <c r="B239" s="25" t="s">
         <v>127</v>
       </c>
@@ -27100,7 +27390,7 @@
       <c r="H239" s="24"/>
     </row>
     <row r="240" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A240" s="170"/>
+      <c r="A240" s="178"/>
       <c r="B240" s="27" t="s">
         <v>130</v>
       </c>
@@ -27228,7 +27518,7 @@
       <c r="B256" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C256" s="167" t="s">
+      <c r="C256" s="168" t="s">
         <v>236</v>
       </c>
     </row>
@@ -27236,18 +27526,18 @@
       <c r="B257" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C257" s="167"/>
+      <c r="C257" s="168"/>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C258" s="167"/>
+      <c r="C258" s="168"/>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C259" s="167" t="s">
+      <c r="C259" s="168" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C260" s="167"/>
+      <c r="C260" s="168"/>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B261" s="2" t="s">
@@ -31941,8 +32231,183 @@
         <v>786</v>
       </c>
     </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1014" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B1015" s="57" t="s">
+        <v>935</v>
+      </c>
+      <c r="C1015" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B1016" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="C1016" s="155" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B1017" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C1017" s="155">
+        <v>1</v>
+      </c>
+      <c r="D1017" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1018" s="155">
+        <v>2</v>
+      </c>
+      <c r="D1018" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1019" s="155">
+        <v>3</v>
+      </c>
+      <c r="D1019" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1020" s="155">
+        <v>4</v>
+      </c>
+      <c r="D1020" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1021" s="155">
+        <v>5</v>
+      </c>
+      <c r="D1021" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1022" s="155">
+        <v>6</v>
+      </c>
+      <c r="D1022" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1023" s="155"/>
+    </row>
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B1024" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1024" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="1025" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B1025" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1025" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1026" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B1026" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1026" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="1027" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B1027" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1027" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="1028" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B1028" s="24" t="s">
+        <v>983</v>
+      </c>
+      <c r="C1028" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="1029" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B1029" s="118" t="s">
+        <v>984</v>
+      </c>
+      <c r="C1029" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1030" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B1030" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="C1030" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="1031" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B1031" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="C1031" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="1032" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B1032" s="99" t="s">
+        <v>779</v>
+      </c>
+      <c r="C1032" s="57" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="1033" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B1033" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="C1033" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="1034" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B1034" s="24" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C1034" s="24" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="1035" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B1035" s="14"/>
+    </row>
+    <row r="1036" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B1036" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A221:A240"/>
+    <mergeCell ref="P134:R137"/>
+    <mergeCell ref="O134:O138"/>
+    <mergeCell ref="P138:R138"/>
+    <mergeCell ref="S134:S138"/>
+    <mergeCell ref="A134:C137"/>
     <mergeCell ref="C256:C258"/>
     <mergeCell ref="C259:C260"/>
     <mergeCell ref="T134:V137"/>
@@ -31955,12 +32420,6 @@
     <mergeCell ref="L134:N137"/>
     <mergeCell ref="L138:N138"/>
     <mergeCell ref="D134:F137"/>
-    <mergeCell ref="A221:A240"/>
-    <mergeCell ref="P134:R137"/>
-    <mergeCell ref="O134:O138"/>
-    <mergeCell ref="P138:R138"/>
-    <mergeCell ref="S134:S138"/>
-    <mergeCell ref="A134:C137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
